--- a/02_Exercises/Everything.xlsx
+++ b/02_Exercises/Everything.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29203"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -54,7 +54,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,6 +101,9 @@
     <t>Integer Programming Model</t>
   </si>
   <si>
+    <t xml:space="preserve">Solver: Primary IP </t>
+  </si>
+  <si>
     <t>Max z =</t>
   </si>
   <si>
@@ -137,6 +140,47 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>ref.</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>rhs</t>
+  </si>
+  <si>
     <t>s.t</t>
   </si>
   <si>
@@ -176,6 +220,9 @@
     <t>Labour restriction</t>
   </si>
   <si>
+    <t>var.</t>
+  </si>
+  <si>
     <r>
       <t>9x</t>
     </r>
@@ -192,6 +239,15 @@
   </si>
   <si>
     <t>Carpentry restriction</t>
+  </si>
+  <si>
+    <t>obj.</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
   <si>
     <r>
@@ -232,99 +288,46 @@
     <t>≥</t>
   </si>
   <si>
+    <t>s.t.</t>
+  </si>
+  <si>
     <t>integer</t>
   </si>
   <si>
-    <t xml:space="preserve">Solver: Primary IP </t>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>ref.</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>rhs</t>
-  </si>
-  <si>
-    <t>var.</t>
-  </si>
-  <si>
-    <t>obj.</t>
-  </si>
-  <si>
-    <t>s.t.</t>
-  </si>
-  <si>
     <t>when relaxing, we take out the integer constraint, then we do a solver</t>
   </si>
   <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>Canonical</t>
   </si>
   <si>
     <t>Max z -&gt;</t>
   </si>
   <si>
+    <t>-8x1</t>
+  </si>
+  <si>
+    <t>-5x2</t>
+  </si>
+  <si>
+    <t>+x1</t>
+  </si>
+  <si>
+    <t>+x2</t>
+  </si>
+  <si>
     <t>+s1</t>
   </si>
   <si>
+    <t>+9x1</t>
+  </si>
+  <si>
+    <t>+5x2</t>
+  </si>
+  <si>
     <t>+s2</t>
   </si>
   <si>
-    <t>+x2</t>
-  </si>
-  <si>
-    <t>+5x2</t>
-  </si>
-  <si>
-    <t>+x1</t>
-  </si>
-  <si>
-    <t>+9x1</t>
-  </si>
-  <si>
-    <t>-8x1</t>
-  </si>
-  <si>
-    <t>-5x2</t>
+    <t>Branch &amp; Bound Algorithm</t>
   </si>
   <si>
     <t>T-i</t>
@@ -345,33 +348,36 @@
     <t>ratio</t>
   </si>
   <si>
+    <t>using primal, it is feasible, but not optimal (negatives in Z row)</t>
+  </si>
+  <si>
     <t>z</t>
   </si>
   <si>
+    <t>pivot column = greatest negative (x1)</t>
+  </si>
+  <si>
     <t>labour</t>
   </si>
   <si>
+    <t>pivot row = smallest POSITIVE ratio</t>
+  </si>
+  <si>
     <t>wood</t>
   </si>
   <si>
-    <t>using primal, it is feasible, but not optimal (negatives in Z row)</t>
-  </si>
-  <si>
-    <t>pivot column = greatest negative (x1)</t>
-  </si>
-  <si>
-    <t>pivot row = smallest POSITIVE ratio</t>
+    <t>T-1</t>
   </si>
   <si>
     <t>T-2</t>
   </si>
   <si>
-    <t>Branch &amp; Bound Algorithm</t>
-  </si>
-  <si>
     <t>look at the basic Xn variables</t>
   </si>
   <si>
+    <t>we choose the RHS with the fraction closest to 0.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">if there is a tie, we choose the lowest (left most) Xn </t>
   </si>
   <si>
@@ -382,27 +388,6 @@
   </si>
   <si>
     <t>3 gives slack, 4 gives excess</t>
-  </si>
-  <si>
-    <t>s3</t>
-  </si>
-  <si>
-    <t>not basic any more, conflict resolution</t>
-  </si>
-  <si>
-    <t>(2 - 3) * -1</t>
-  </si>
-  <si>
-    <t>this going into the 3 row, we multiply by -1 so that the slack is positive</t>
-  </si>
-  <si>
-    <t>use dual simplex, it is optimal but not feasible, (negative in rhs)</t>
-  </si>
-  <si>
-    <t>select pivot row: most negative RHS</t>
-  </si>
-  <si>
-    <t>T-1</t>
   </si>
   <si>
     <r>
@@ -463,21 +448,6 @@
     </r>
   </si>
   <si>
-    <t>T-A.i</t>
-  </si>
-  <si>
-    <t>T-A.1</t>
-  </si>
-  <si>
-    <t>optimal and feasible</t>
-  </si>
-  <si>
-    <t>e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2 - 3) </t>
-  </si>
-  <si>
     <r>
       <t>Sub-Problem B: x</t>
     </r>
@@ -536,10 +506,76 @@
     </r>
   </si>
   <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>not basic any more, conflict resolution</t>
+  </si>
+  <si>
+    <t>(2 - 3) * -1</t>
+  </si>
+  <si>
+    <t>this going into the 3 row, we multiply by -1 so that the slack is positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2 - 3) </t>
+  </si>
+  <si>
+    <t>T-A.i</t>
+  </si>
+  <si>
+    <t>use dual simplex, it is optimal but not feasible, (negative in rhs)</t>
+  </si>
+  <si>
+    <t>select pivot row: most negative RHS</t>
+  </si>
+  <si>
+    <t>select pivot column (smallest value), ratio of ABSOLUTE (Z/Pivot Row) *only on negative values</t>
+  </si>
+  <si>
+    <t>T-A.1</t>
+  </si>
+  <si>
     <t>fraction, continue branching the same way</t>
   </si>
   <si>
-    <t>we choose the RHS with the fraction closest to 0.5</t>
+    <t>optimal and feasible</t>
+  </si>
+  <si>
+    <t>x2&lt;=1</t>
+  </si>
+  <si>
+    <t>x2&gt;=2</t>
+  </si>
+  <si>
+    <t>t-i</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>infeasible</t>
+  </si>
+  <si>
+    <t>x1&lt;=4</t>
+  </si>
+  <si>
+    <t>x1&gt;=5</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>e5</t>
   </si>
   <si>
     <t>Coach Lombardi is trying to choose the starting line-up for his five-a-side football team. The team consists of seven players who have been rated (on a scale of 1 = poor to 3 = excellent) according to their ball-handling, shooting, tackling, and defensive abilities. The positions that each player is allowed to play and the player’s abilities are listed in the table.</t>
@@ -548,9 +584,42 @@
     <t>Player</t>
   </si>
   <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
     <t>Position</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B-F</t>
+  </si>
+  <si>
+    <t>F-C</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>players playing</t>
+  </si>
+  <si>
     <t>Ball-handling</t>
   </si>
   <si>
@@ -563,16 +632,37 @@
     <t>Defence</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B-F</t>
-  </si>
-  <si>
-    <t>F-C</t>
+    <t>max player constraint</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>backfield constraint</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>forward constraint</t>
+  </si>
+  <si>
+    <t>centre constraint</t>
+  </si>
+  <si>
+    <t>average constraint</t>
+  </si>
+  <si>
+    <t>Use this as objective function</t>
+  </si>
+  <si>
+    <t>p3 v p6 constraint</t>
+  </si>
+  <si>
+    <t>p1 + p4 &amp; 5</t>
+  </si>
+  <si>
+    <t>p2 or p3</t>
   </si>
   <si>
     <t>The five-player starting line-up must satisfy the following restrictions:</t>
@@ -608,154 +698,112 @@
     <t>4. Solve the formulated Integer Programming Model using the Cutting Plane Algorithm.</t>
   </si>
   <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>x4</t>
-  </si>
-  <si>
-    <t>x5</t>
-  </si>
-  <si>
-    <t>x6</t>
-  </si>
-  <si>
-    <t>x7</t>
-  </si>
-  <si>
-    <t>average constraint</t>
-  </si>
-  <si>
-    <t>forward constraint</t>
-  </si>
-  <si>
-    <t>backfield constraint</t>
-  </si>
-  <si>
-    <t>centre constraint</t>
-  </si>
-  <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t>p3 v p6 constraint</t>
-  </si>
-  <si>
-    <t>p1 + p4 &amp; 5</t>
-  </si>
-  <si>
-    <t>players playing</t>
-  </si>
-  <si>
-    <t>p2 or p3</t>
-  </si>
-  <si>
-    <t>max player constraint</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>e5</t>
-  </si>
-  <si>
-    <t>s4</t>
-  </si>
-  <si>
-    <t>e1</t>
-  </si>
-  <si>
-    <t>t-i</t>
-  </si>
-  <si>
-    <t>s5</t>
-  </si>
-  <si>
-    <t>x1&gt;=5</t>
-  </si>
-  <si>
-    <t>x1&lt;=4</t>
-  </si>
-  <si>
-    <t>infeasible</t>
-  </si>
-  <si>
-    <t>e2</t>
-  </si>
-  <si>
-    <t>x2&gt;=2</t>
-  </si>
-  <si>
-    <t>x2&lt;=1</t>
+    <t>CUTTING PLANE</t>
+  </si>
+  <si>
+    <t>t-3</t>
+  </si>
+  <si>
+    <t>CHOOSING CUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right hand side closest to 0.5 </t>
+  </si>
+  <si>
+    <t>-&gt; priority smallest subscript</t>
+  </si>
+  <si>
+    <t>split so that all fractions are positive</t>
+  </si>
+  <si>
+    <t>move all integers to left and all fraction to right</t>
+  </si>
+  <si>
+    <t>drop integers and make it equal &lt;= 0</t>
+  </si>
+  <si>
+    <t>will always be &lt;=</t>
+  </si>
+  <si>
+    <t>move value without subscript to right</t>
+  </si>
+  <si>
+    <t>Solve with dual</t>
+  </si>
+  <si>
+    <t>pivot row = largest negative</t>
+  </si>
+  <si>
+    <t>pivot column = smallest absolute value</t>
   </si>
   <si>
     <t>basic xn variables are all integers = optimal</t>
   </si>
   <si>
-    <t>t-3</t>
-  </si>
-  <si>
-    <t>pivot column = smallest absolute value</t>
-  </si>
-  <si>
-    <t>pivot row = largest negative</t>
-  </si>
-  <si>
-    <t>Solve with dual</t>
-  </si>
-  <si>
-    <t>move value without subscript to right</t>
-  </si>
-  <si>
-    <t>will always be &lt;=</t>
-  </si>
-  <si>
-    <t>drop integers and make it equal &lt;= 0</t>
-  </si>
-  <si>
-    <t>move all integers to left and all fraction to right</t>
-  </si>
-  <si>
-    <t>split so that all fractions are positive</t>
-  </si>
-  <si>
-    <t>-&gt; priority smallest subscript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right hand side closest to 0.5 </t>
-  </si>
-  <si>
-    <t>CHOOSING CUT</t>
-  </si>
-  <si>
-    <t>CUTTING PLANE</t>
+    <t>not part of example juts showing dummy</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>β</t>
+  </si>
+  <si>
+    <t>ү</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>ү</t>
-  </si>
-  <si>
-    <t>β</t>
-  </si>
-  <si>
-    <t>α</t>
-  </si>
-  <si>
-    <t>t-initial</t>
-  </si>
-  <si>
-    <t>t-optimal</t>
-  </si>
-  <si>
-    <t>selected values in the original matrix</t>
-  </si>
-  <si>
-    <t>rows or columns. Calculate the optimal task assignment z objective by calculating the sum of all</t>
+    <t>original is not square</t>
+  </si>
+  <si>
+    <t>agents</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>Row Reduction</t>
+  </si>
+  <si>
+    <t>smallest in each row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min problem: choose largest value </t>
+  </si>
+  <si>
+    <t>subtract smallest number from each row you fucking bitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max problem: use smallest value </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiply whole matrix by -1 </t>
+  </si>
+  <si>
+    <t>Column Reduction</t>
+  </si>
+  <si>
+    <t>smallest in each column</t>
+  </si>
+  <si>
+    <t>subtract smallest number from each column you fucking bitch</t>
+  </si>
+  <si>
+    <t>Check if optimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimal if: </t>
+  </si>
+  <si>
+    <t>smallest amount of lines = matrix size</t>
+  </si>
+  <si>
+    <t>lines to cover all 0s</t>
   </si>
   <si>
     <r>
@@ -774,58 +822,70 @@
     </r>
   </si>
   <si>
-    <t>lines to cover all 0s</t>
-  </si>
-  <si>
-    <t>smallest amount of lines = matrix size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optimal if: </t>
-  </si>
-  <si>
-    <t>Check if optimal</t>
-  </si>
-  <si>
-    <t>Dummy</t>
-  </si>
-  <si>
-    <t>subtract smallest number from each column you fucking bitch</t>
-  </si>
-  <si>
-    <t>smallest in each column</t>
-  </si>
-  <si>
-    <t>Column Reduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiply whole matrix by -1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">max problem: use smallest value </t>
-  </si>
-  <si>
-    <t>subtract smallest number from each row you fucking bitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min problem: choose largest value </t>
-  </si>
-  <si>
-    <t>smallest in each row</t>
-  </si>
-  <si>
-    <t>Row Reduction</t>
-  </si>
-  <si>
-    <t>agents</t>
-  </si>
-  <si>
-    <t>original is not square</t>
-  </si>
-  <si>
-    <t>tasks</t>
-  </si>
-  <si>
-    <t>not part of example juts showing dummy</t>
+    <t>rows or columns. Calculate the optimal task assignment z objective by calculating the sum of all</t>
+  </si>
+  <si>
+    <t>selected values in the original matrix</t>
+  </si>
+  <si>
+    <t>t-optimal</t>
+  </si>
+  <si>
+    <t>t-initial</t>
+  </si>
+  <si>
+    <t>MIN problem</t>
+  </si>
+  <si>
+    <t>δ</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Matrix is not square</t>
+  </si>
+  <si>
+    <t>φ</t>
+  </si>
+  <si>
+    <t>Conditional Check</t>
+  </si>
+  <si>
+    <t>Not optimal</t>
+  </si>
+  <si>
+    <t>take smallest value that is not covered</t>
+  </si>
+  <si>
+    <t>Step 5a: Choose the smallest value in the table that is not covered by any lines. We will call this</t>
+  </si>
+  <si>
+    <t>value a</t>
+  </si>
+  <si>
+    <t>• Step 5b: Subtract a from every uncovered element in the matrix.</t>
+  </si>
+  <si>
+    <t>• Step 5c: Add a to every element in the matrix that is covered twice (+where two lines cross).</t>
+  </si>
+  <si>
+    <t>• Step 5d: Leave the values as they are if they are covered by one line. Calculate the new matrix and</t>
+  </si>
+  <si>
+    <t>go back to Step 4.</t>
+  </si>
+  <si>
+    <t>Still not optimal</t>
+  </si>
+  <si>
+    <t>OPTIMAL</t>
+  </si>
+  <si>
+    <t>DUMMY</t>
   </si>
   <si>
     <r>
@@ -861,72 +921,12 @@
       <t>48</t>
     </r>
   </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>δ</t>
-  </si>
-  <si>
-    <t>φ</t>
-  </si>
-  <si>
-    <t>DUMMY</t>
-  </si>
-  <si>
-    <t>OPTIMAL</t>
-  </si>
-  <si>
-    <t>Still not optimal</t>
-  </si>
-  <si>
-    <t>go back to Step 4.</t>
-  </si>
-  <si>
-    <t>• Step 5d: Leave the values as they are if they are covered by one line. Calculate the new matrix and</t>
-  </si>
-  <si>
-    <t>• Step 5c: Add a to every element in the matrix that is covered twice (+where two lines cross).</t>
-  </si>
-  <si>
-    <t>• Step 5b: Subtract a from every uncovered element in the matrix.</t>
-  </si>
-  <si>
-    <t>value a</t>
-  </si>
-  <si>
-    <t>Step 5a: Choose the smallest value in the table that is not covered by any lines. We will call this</t>
-  </si>
-  <si>
-    <t>take smallest value that is not covered</t>
-  </si>
-  <si>
-    <t>Not optimal</t>
-  </si>
-  <si>
-    <t>Conditional Check</t>
-  </si>
-  <si>
-    <t>Matrix is not square</t>
-  </si>
-  <si>
-    <t>MIN problem</t>
-  </si>
-  <si>
-    <t>Use this as objective function</t>
-  </si>
-  <si>
-    <t>select pivot column (smallest value), ratio of ABSOLUTE (Z/Pivot Row) *only on negative values</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1442,6 +1442,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1481,18 +1493,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1514,6 +1514,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1527,18 +1539,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8127,10 +8127,6 @@
 </inkml:ink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8400,195 +8396,195 @@
       <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="78"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="81"/>
-    </row>
-    <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="81"/>
-    </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="84"/>
-    </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="76" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="82"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.45" customHeight="1">
+      <c r="A3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="88"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" thickBot="1"/>
+    <row r="7" spans="1:21">
+      <c r="A7" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-    </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="88"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="89" t="s">
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="92"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="O12" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="91"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="O12" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="78"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5"/>
       <c r="O13" s="4"/>
       <c r="P13" s="10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P14" s="15">
         <v>3.75</v>
@@ -8598,29 +8594,29 @@
       </c>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F15">
         <v>45</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P15">
         <v>8</v>
@@ -8633,27 +8629,27 @@
         <v>41.25</v>
       </c>
       <c r="S15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="T15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="G16" s="5"/>
       <c r="O16" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -8666,27 +8662,27 @@
         <v>6</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="T16">
         <v>6</v>
       </c>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
+        <v>29</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="8">
@@ -8700,26 +8696,26 @@
         <v>45</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="T17" s="8">
         <v>45</v>
       </c>
       <c r="U17" s="9"/>
     </row>
-    <row r="20" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B23" s="89" t="s">
+    <row r="20" spans="1:21" s="16" customFormat="1"/>
+    <row r="23" spans="1:21">
+      <c r="B23" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="78"/>
+    </row>
+    <row r="24" spans="1:21">
       <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
@@ -8730,61 +8726,61 @@
       <c r="G24" s="10"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21">
       <c r="B25" s="11"/>
       <c r="C25" s="17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21">
       <c r="B26" s="11"/>
       <c r="C26" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G26">
         <v>6</v>
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21">
       <c r="B27" s="11"/>
       <c r="C27" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G27">
         <v>45</v>
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -8793,55 +8789,55 @@
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A31" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="91"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21">
+      <c r="A31" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="78"/>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="4"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10">
       <c r="A33" s="11"/>
       <c r="B33" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="11"/>
       <c r="B34" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C34" s="32">
         <v>-8</v>
@@ -8855,13 +8851,13 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="11"/>
       <c r="B35" s="21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C35" s="32">
         <v>1</v>
@@ -8884,10 +8880,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10">
       <c r="A36" s="4"/>
       <c r="B36" s="23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C36" s="22">
         <v>9</v>
@@ -8908,42 +8904,42 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10">
       <c r="A37" s="4"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10">
       <c r="A38" s="4"/>
       <c r="B38" s="18" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="4"/>
       <c r="B39" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C39" s="33">
         <f t="shared" ref="C39:F40" si="0">C34-($C34*C$41)</f>
@@ -8968,13 +8964,13 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="4"/>
       <c r="B40" s="26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C40" s="34">
         <f t="shared" si="0"/>
@@ -9005,10 +9001,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10">
       <c r="A41" s="4"/>
       <c r="B41" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C41" s="28">
         <f>C36/$C$36</f>
@@ -9036,36 +9032,36 @@
       </c>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10">
       <c r="A42" s="4"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10">
       <c r="A43" s="4"/>
       <c r="B43" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10">
       <c r="A44" s="4"/>
       <c r="B44" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C44" s="33">
         <f t="shared" ref="C44:F44" si="2">C39-($D39*C$45)</f>
@@ -9089,13 +9085,13 @@
       </c>
       <c r="I44" s="5"/>
       <c r="J44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="4"/>
       <c r="B45" s="21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C45" s="33">
         <f>C40/$D$40</f>
@@ -9119,13 +9115,13 @@
       </c>
       <c r="I45" s="5"/>
       <c r="J45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="4"/>
       <c r="B46" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C46" s="45">
         <f t="shared" ref="C46:G46" si="4">C41-($D41*C$45)</f>
@@ -9149,10 +9145,10 @@
       </c>
       <c r="I46" s="5"/>
       <c r="J46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -9163,99 +9159,99 @@
       <c r="H47" s="8"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10">
       <c r="J48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="J49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="J50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A55" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="90"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="91"/>
-      <c r="R55" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="S55" s="90"/>
-      <c r="T55" s="90"/>
-      <c r="U55" s="90"/>
-      <c r="V55" s="90"/>
-      <c r="W55" s="90"/>
-      <c r="X55" s="90"/>
-      <c r="Y55" s="90"/>
-      <c r="Z55" s="91"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="77"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="78"/>
+      <c r="R55" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="S55" s="77"/>
+      <c r="T55" s="77"/>
+      <c r="U55" s="77"/>
+      <c r="V55" s="77"/>
+      <c r="W55" s="77"/>
+      <c r="X55" s="77"/>
+      <c r="Y55" s="77"/>
+      <c r="Z55" s="78"/>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" s="4"/>
       <c r="I56" s="5"/>
       <c r="R56" s="4"/>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26">
       <c r="A57" s="4"/>
       <c r="B57" s="18"/>
       <c r="C57" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I57" s="5"/>
       <c r="R57" s="4"/>
       <c r="S57" s="18"/>
       <c r="T57" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U57" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V57" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W57" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X57" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Y57" s="20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -9275,7 +9271,7 @@
       <c r="I58" s="5"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -9294,10 +9290,10 @@
       </c>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -9317,7 +9313,7 @@
       <c r="I59" s="5"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -9336,10 +9332,10 @@
       </c>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C60" s="35">
         <v>1</v>
@@ -9359,7 +9355,7 @@
       <c r="I60" s="5"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T60" s="35">
         <v>1</v>
@@ -9378,7 +9374,7 @@
       </c>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26">
       <c r="A61" s="4"/>
       <c r="B61" s="7">
         <v>3</v>
@@ -9403,7 +9399,7 @@
       </c>
       <c r="I61" s="5"/>
       <c r="J61" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="R61" s="4"/>
       <c r="S61" s="7">
@@ -9429,60 +9425,60 @@
       </c>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26">
       <c r="A62" s="4"/>
       <c r="I62" s="5"/>
       <c r="R62" s="4"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26">
       <c r="A63" s="4"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I63" s="5"/>
       <c r="R63" s="4"/>
       <c r="S63" s="18"/>
       <c r="T63" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U63" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V63" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W63" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X63" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Y63" s="20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -9502,7 +9498,7 @@
       <c r="I64" s="5"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -9521,10 +9517,10 @@
       </c>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -9544,7 +9540,7 @@
       <c r="I65" s="5"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -9563,10 +9559,10 @@
       </c>
       <c r="Z65" s="5"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C66" s="35">
         <v>1</v>
@@ -9586,7 +9582,7 @@
       <c r="I66" s="5"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T66" s="35">
         <v>1</v>
@@ -9605,7 +9601,7 @@
       </c>
       <c r="Z66" s="5"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27">
       <c r="A67" s="4"/>
       <c r="B67" s="4">
         <v>3</v>
@@ -9653,10 +9649,10 @@
       </c>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27">
       <c r="A68" s="4"/>
       <c r="B68" s="37" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C68" s="38">
         <f>(C66-C67) * -1</f>
@@ -9684,11 +9680,11 @@
       </c>
       <c r="I68" s="5"/>
       <c r="J68" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="R68" s="4"/>
       <c r="S68" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T68" s="38">
         <f>(T66-T67)</f>
@@ -9716,68 +9712,68 @@
       </c>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27">
       <c r="A69" s="4"/>
       <c r="I69" s="5"/>
       <c r="R69" s="4"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27">
       <c r="A70" s="4"/>
       <c r="I70" s="5"/>
       <c r="R70" s="4"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27">
       <c r="A71" s="4"/>
       <c r="B71" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F71" s="43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I71" s="5"/>
       <c r="R71" s="4"/>
       <c r="S71" s="18"/>
       <c r="T71" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U71" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V71" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W71" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X71" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Y71" s="20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -9796,11 +9792,11 @@
       </c>
       <c r="I72" s="5"/>
       <c r="J72" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R72" s="4"/>
       <c r="S72" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -9819,10 +9815,10 @@
       </c>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -9841,11 +9837,11 @@
       </c>
       <c r="I73" s="5"/>
       <c r="J73" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="R73" s="4"/>
       <c r="S73" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -9864,10 +9860,10 @@
       </c>
       <c r="Z73" s="5"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -9886,11 +9882,11 @@
       </c>
       <c r="I74" s="5"/>
       <c r="J74" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="R74" s="4"/>
       <c r="S74" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T74">
         <v>1</v>
@@ -9909,7 +9905,7 @@
       </c>
       <c r="Z74" s="5"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27">
       <c r="A75" s="4"/>
       <c r="B75" s="40">
         <v>3</v>
@@ -9957,7 +9953,7 @@
       </c>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27">
       <c r="A76" s="4"/>
       <c r="F76" s="44">
         <f>ABS(F72/F75)</f>
@@ -9971,62 +9967,62 @@
       </c>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27">
       <c r="A77" s="4"/>
       <c r="I77" s="5"/>
       <c r="R77" s="4"/>
       <c r="Z77" s="5"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27">
       <c r="A78" s="4"/>
       <c r="B78" s="18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I78" s="5"/>
       <c r="R78" s="4"/>
       <c r="S78" s="18"/>
       <c r="T78" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U78" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V78" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W78" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X78" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Y78" s="20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Z78" s="5"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:27">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C79">
         <f>C72-($F72*C$82)</f>
@@ -10055,7 +10051,7 @@
       <c r="I79" s="5"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T79">
         <f>T72-($V72*T$82)</f>
@@ -10083,10 +10079,10 @@
       </c>
       <c r="Z79" s="5"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C80">
         <f t="shared" ref="C80:H80" si="9">C73-($F73*C$82)</f>
@@ -10115,7 +10111,7 @@
       <c r="I80" s="5"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T80">
         <f t="shared" ref="T80:Y80" si="10">T73-($V73*T$82)</f>
@@ -10143,13 +10139,13 @@
       </c>
       <c r="Z80" s="5"/>
       <c r="AA80" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C81" s="47">
         <f t="shared" ref="C81:H81" si="11">C74-($F74*C$82)</f>
@@ -10178,7 +10174,7 @@
       <c r="I81" s="5"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T81" s="47">
         <f t="shared" ref="T81:Y81" si="12">T74-($V74*T$82)</f>
@@ -10206,7 +10202,7 @@
       </c>
       <c r="Z81" s="5"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:35">
       <c r="A82" s="4"/>
       <c r="B82" s="7">
         <v>3</v>
@@ -10266,22 +10262,22 @@
       </c>
       <c r="Z82" s="5"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:35">
       <c r="A83" s="4"/>
       <c r="I83" s="5"/>
       <c r="R83" s="4"/>
       <c r="Z83" s="5"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:35">
       <c r="A84" s="4"/>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I84" s="5"/>
       <c r="R84" s="4"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:35">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -10301,67 +10297,67 @@
       <c r="Y85" s="8"/>
       <c r="Z85" s="9"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:35">
       <c r="R91" s="62" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="AB91" s="62" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:35">
       <c r="R92" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="S92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T92" t="s">
+        <v>47</v>
+      </c>
+      <c r="U92" t="s">
+        <v>48</v>
+      </c>
+      <c r="V92" t="s">
+        <v>49</v>
+      </c>
+      <c r="W92" t="s">
+        <v>83</v>
+      </c>
+      <c r="X92" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC92" t="s">
         <v>46</v>
       </c>
-      <c r="U92" t="s">
+      <c r="AD92" t="s">
         <v>47</v>
       </c>
-      <c r="V92" t="s">
+      <c r="AE92" t="s">
         <v>48</v>
       </c>
-      <c r="W92" t="s">
-        <v>120</v>
-      </c>
-      <c r="X92" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB92" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC92" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD92" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE92" t="s">
-        <v>47</v>
-      </c>
       <c r="AF92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG92" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="AH92" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="AI92" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:35">
       <c r="R93" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S93">
         <v>0</v>
@@ -10382,7 +10378,7 @@
         <v>41</v>
       </c>
       <c r="AB93" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -10403,7 +10399,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:35">
       <c r="R94">
         <v>1</v>
       </c>
@@ -10447,7 +10443,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:35">
       <c r="R95">
         <v>2</v>
       </c>
@@ -10491,7 +10487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:35">
       <c r="R96">
         <v>3</v>
       </c>
@@ -10535,7 +10531,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="97" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="97" spans="18:36">
       <c r="R97">
         <v>4</v>
       </c>
@@ -10585,59 +10581,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="99" spans="18:36">
       <c r="R99" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="S99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T99" t="s">
+        <v>47</v>
+      </c>
+      <c r="U99" t="s">
+        <v>48</v>
+      </c>
+      <c r="V99" t="s">
+        <v>49</v>
+      </c>
+      <c r="W99" t="s">
+        <v>83</v>
+      </c>
+      <c r="X99" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC99" t="s">
         <v>46</v>
       </c>
-      <c r="U99" t="s">
+      <c r="AD99" t="s">
         <v>47</v>
       </c>
-      <c r="V99" t="s">
+      <c r="AE99" t="s">
         <v>48</v>
       </c>
-      <c r="W99" t="s">
-        <v>120</v>
-      </c>
-      <c r="X99" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y99" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB99" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC99" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD99" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE99" t="s">
-        <v>47</v>
-      </c>
       <c r="AF99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG99" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="AH99" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="AI99" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="100" spans="18:36" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="18:36">
       <c r="R100" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S100">
         <v>0</v>
@@ -10658,7 +10654,7 @@
         <v>41</v>
       </c>
       <c r="AB100" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -10679,7 +10675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="101" spans="18:36">
       <c r="R101">
         <v>1</v>
       </c>
@@ -10723,7 +10719,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="102" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="102" spans="18:36">
       <c r="R102">
         <v>2</v>
       </c>
@@ -10767,7 +10763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="103" spans="18:36">
       <c r="R103">
         <v>3</v>
       </c>
@@ -10811,7 +10807,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="104" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="104" spans="18:36">
       <c r="R104" s="61">
         <v>4</v>
       </c>
@@ -10874,10 +10870,10 @@
         <v>-0.19999999999999996</v>
       </c>
       <c r="AJ104" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="105" spans="18:36" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="18:36">
       <c r="V105">
         <f>ABS(V100/V104)</f>
         <v>4.9999999999999991</v>
@@ -10887,35 +10883,35 @@
         <v>0.55555555555555536</v>
       </c>
     </row>
-    <row r="107" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="107" spans="18:36">
       <c r="R107" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="S107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W107" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="X107" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="Y107" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="18:36" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="18:36">
       <c r="R108" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S108" t="e">
         <f t="shared" ref="S108:Y111" si="17">S100-($O100*S$60)</f>
@@ -10946,7 +10942,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="109" spans="18:36">
       <c r="R109">
         <v>1</v>
       </c>
@@ -10979,7 +10975,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="110" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="110" spans="18:36">
       <c r="R110">
         <v>2</v>
       </c>
@@ -11012,7 +11008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="111" spans="18:36">
       <c r="R111">
         <v>3</v>
       </c>
@@ -11045,7 +11041,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="112" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="112" spans="18:36">
       <c r="R112">
         <v>4</v>
       </c>
@@ -11078,73 +11074,73 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="114" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="114" spans="18:36">
       <c r="R114" s="62" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="AB114" s="62" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="115" spans="18:36" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="18:36">
       <c r="R115" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="S115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T115" t="s">
+        <v>47</v>
+      </c>
+      <c r="U115" t="s">
+        <v>48</v>
+      </c>
+      <c r="V115" t="s">
+        <v>49</v>
+      </c>
+      <c r="W115" t="s">
+        <v>83</v>
+      </c>
+      <c r="X115" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC115" t="s">
         <v>46</v>
       </c>
-      <c r="U115" t="s">
+      <c r="AD115" t="s">
         <v>47</v>
       </c>
-      <c r="V115" t="s">
+      <c r="AE115" t="s">
         <v>48</v>
       </c>
-      <c r="W115" t="s">
-        <v>120</v>
-      </c>
-      <c r="X115" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y115" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z115" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB115" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC115" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD115" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE115" t="s">
-        <v>47</v>
-      </c>
       <c r="AF115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG115" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="AH115" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="AI115" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="AJ115" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="116" spans="18:36" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="18:36">
       <c r="R116" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S116">
         <v>0</v>
@@ -11168,7 +11164,7 @@
         <v>40.555555555555557</v>
       </c>
       <c r="AB116" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -11192,7 +11188,7 @@
         <v>40.555555555555557</v>
       </c>
     </row>
-    <row r="117" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="117" spans="18:36">
       <c r="R117">
         <v>1</v>
       </c>
@@ -11242,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="118" spans="18:36">
       <c r="R118">
         <v>2</v>
       </c>
@@ -11292,7 +11288,7 @@
         <v>4.4444444444444446</v>
       </c>
     </row>
-    <row r="119" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="119" spans="18:36">
       <c r="R119">
         <v>3</v>
       </c>
@@ -11342,7 +11338,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="120" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="120" spans="18:36">
       <c r="R120">
         <v>4</v>
       </c>
@@ -11392,7 +11388,7 @@
         <v>0.44444444444444448</v>
       </c>
     </row>
-    <row r="121" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="121" spans="18:36">
       <c r="R121">
         <v>5</v>
       </c>
@@ -11418,65 +11414,65 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="123" spans="18:36">
       <c r="R123" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="S123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T123" t="s">
+        <v>47</v>
+      </c>
+      <c r="U123" t="s">
+        <v>48</v>
+      </c>
+      <c r="V123" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="W123" t="s">
+        <v>83</v>
+      </c>
+      <c r="X123" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC123" t="s">
         <v>46</v>
       </c>
-      <c r="U123" t="s">
+      <c r="AD123" t="s">
         <v>47</v>
       </c>
-      <c r="V123" s="61" t="s">
+      <c r="AE123" t="s">
         <v>48</v>
       </c>
-      <c r="W123" t="s">
-        <v>120</v>
-      </c>
-      <c r="X123" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y123" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z123" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB123" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC123" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD123" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE123" t="s">
-        <v>47</v>
-      </c>
       <c r="AF123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG123" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="AH123" s="61" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="AI123" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="AJ123" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="124" spans="18:36" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="18:36">
       <c r="R124" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -11500,7 +11496,7 @@
         <v>40.555555555555557</v>
       </c>
       <c r="AB124" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AC124">
         <v>0</v>
@@ -11524,7 +11520,7 @@
         <v>40.555555555555557</v>
       </c>
     </row>
-    <row r="125" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="125" spans="18:36">
       <c r="R125">
         <v>1</v>
       </c>
@@ -11574,7 +11570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="126" spans="18:36">
       <c r="R126">
         <v>2</v>
       </c>
@@ -11624,7 +11620,7 @@
         <v>4.4444444444444446</v>
       </c>
     </row>
-    <row r="127" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="127" spans="18:36">
       <c r="R127">
         <v>3</v>
       </c>
@@ -11674,7 +11670,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="128" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="128" spans="18:36">
       <c r="R128">
         <v>4</v>
       </c>
@@ -11724,7 +11720,7 @@
         <v>0.44444444444444448</v>
       </c>
     </row>
-    <row r="129" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="129" spans="18:36">
       <c r="R129" s="61">
         <v>5</v>
       </c>
@@ -11796,65 +11792,65 @@
         <v>-0.55555555555555536</v>
       </c>
     </row>
-    <row r="131" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="131" spans="18:36">
       <c r="R131" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="S131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T131" t="s">
+        <v>47</v>
+      </c>
+      <c r="U131" t="s">
+        <v>48</v>
+      </c>
+      <c r="V131" t="s">
+        <v>49</v>
+      </c>
+      <c r="W131" t="s">
+        <v>83</v>
+      </c>
+      <c r="X131" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y131" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z131" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB131" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC131" t="s">
         <v>46</v>
       </c>
-      <c r="U131" t="s">
+      <c r="AD131" t="s">
         <v>47</v>
       </c>
-      <c r="V131" t="s">
+      <c r="AE131" t="s">
         <v>48</v>
       </c>
-      <c r="W131" t="s">
-        <v>120</v>
-      </c>
-      <c r="X131" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y131" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z131" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB131" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC131" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD131" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE131" t="s">
-        <v>47</v>
-      </c>
       <c r="AF131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG131" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="AH131" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="AI131" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="AJ131" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="132" spans="18:36" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="18:36">
       <c r="R132" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S132">
         <f t="shared" ref="S132:Z136" si="21">S124-($N124*S$85)</f>
@@ -11889,7 +11885,7 @@
         <v>40.555555555555557</v>
       </c>
       <c r="AB132" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AC132">
         <f t="shared" ref="AC132:AJ136" si="22">AC124-($Z124*AC$85)</f>
@@ -11924,7 +11920,7 @@
         <v>40.555555555555557</v>
       </c>
     </row>
-    <row r="133" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="133" spans="18:36">
       <c r="R133">
         <v>1</v>
       </c>
@@ -11996,7 +11992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="134" spans="18:36">
       <c r="R134">
         <v>2</v>
       </c>
@@ -12068,7 +12064,7 @@
         <v>4.4444444444444446</v>
       </c>
     </row>
-    <row r="135" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="135" spans="18:36">
       <c r="R135">
         <v>3</v>
       </c>
@@ -12140,7 +12136,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="136" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="136" spans="18:36">
       <c r="R136">
         <v>4</v>
       </c>
@@ -12212,7 +12208,7 @@
         <v>0.44444444444444448</v>
       </c>
     </row>
-    <row r="137" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="137" spans="18:36">
       <c r="R137">
         <v>5</v>
       </c>
@@ -12286,6 +12282,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N4"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
     <mergeCell ref="A55:I55"/>
     <mergeCell ref="R55:Z55"/>
     <mergeCell ref="B23:H23"/>
@@ -12293,11 +12294,6 @@
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="O12:U12"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N4"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12313,14 +12309,14 @@
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="14.45" customHeight="1">
       <c r="A1" s="93" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>
@@ -12331,7 +12327,7 @@
       <c r="H1" s="93"/>
       <c r="I1" s="93"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -12342,7 +12338,7 @@
       <c r="H2" s="93"/>
       <c r="I2" s="93"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3" s="93"/>
       <c r="B3" s="93"/>
       <c r="C3" s="93"/>
@@ -12353,7 +12349,7 @@
       <c r="H3" s="93"/>
       <c r="I3" s="93"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4" s="93"/>
       <c r="B4" s="93"/>
       <c r="C4" s="93"/>
@@ -12364,7 +12360,7 @@
       <c r="H4" s="93"/>
       <c r="I4" s="93"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5" s="93"/>
       <c r="B5" s="93"/>
       <c r="C5" s="93"/>
@@ -12375,7 +12371,7 @@
       <c r="H5" s="93"/>
       <c r="I5" s="93"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6" s="93"/>
       <c r="B6" s="93"/>
       <c r="C6" s="93"/>
@@ -12386,7 +12382,7 @@
       <c r="H6" s="93"/>
       <c r="I6" s="93"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7" s="49"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
@@ -12397,7 +12393,7 @@
       <c r="H7" s="49"/>
       <c r="I7" s="49"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8" s="49"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
@@ -12408,30 +12404,30 @@
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9" s="51" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
@@ -12440,38 +12436,38 @@
       <c r="M9" s="49"/>
       <c r="N9" s="49"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10" s="52" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="53" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B11" s="56">
         <v>1</v>
@@ -12495,9 +12491,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12" s="52" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B12" s="55">
         <v>3</v>
@@ -12521,9 +12517,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13" s="52" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B13" s="55">
         <v>3</v>
@@ -12547,9 +12543,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14" s="52" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B14" s="55">
         <v>1</v>
@@ -12573,9 +12569,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14">
       <c r="A15" s="53" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B15" s="56">
         <v>3</v>
@@ -12599,9 +12595,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14">
       <c r="A16" s="52" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B16" s="55">
         <v>1</v>
@@ -12629,15 +12625,15 @@
         <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12">
       <c r="A17" s="52" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B17" s="55">
         <v>1</v>
@@ -12656,15 +12652,15 @@
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12">
       <c r="A18" s="52" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B18" s="55"/>
       <c r="D18" s="55">
@@ -12687,15 +12683,15 @@
         <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12">
       <c r="A19" s="52" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B19" s="55"/>
       <c r="C19">
@@ -12715,15 +12711,15 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12">
       <c r="A20" s="53" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B20" s="56">
         <f t="shared" ref="B20:H20" si="1">AVERAGE(B12:B14)</f>
@@ -12758,18 +12754,18 @@
         <v>2.4666666666666668</v>
       </c>
       <c r="J20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="52" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B21" s="55"/>
       <c r="D21" s="55">
@@ -12785,15 +12781,15 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12">
       <c r="A22" s="52" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B22" s="55">
         <v>2</v>
@@ -12811,15 +12807,15 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12">
       <c r="A23" s="53" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B23" s="56"/>
       <c r="C23" s="8">
@@ -12837,65 +12833,65 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12">
       <c r="A27" s="50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="50" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -12914,11 +12910,11 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13">
       <c r="A2" s="95" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
@@ -12933,7 +12929,7 @@
       <c r="L2" s="96"/>
       <c r="M2" s="96"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13">
       <c r="A3" s="96"/>
       <c r="B3" s="96"/>
       <c r="C3" s="96"/>
@@ -12948,33 +12944,33 @@
       <c r="L3" s="96"/>
       <c r="M3" s="96"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13">
       <c r="B6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J6" s="97" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="K6" s="97"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -12992,12 +12988,12 @@
         <v>41.25</v>
       </c>
       <c r="J7" s="94" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K7" s="94"/>
       <c r="L7" s="94"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13">
       <c r="B8">
         <v>1</v>
       </c>
@@ -13017,12 +13013,12 @@
         <v>2.25</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K8" s="98"/>
       <c r="L8" s="98"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13">
       <c r="B9" s="65">
         <v>2</v>
       </c>
@@ -13042,64 +13038,64 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="J14" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13">
+      <c r="J14" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+    </row>
+    <row r="18" spans="2:12">
       <c r="J18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="H21" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12">
+      <c r="H21" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+    </row>
+    <row r="22" spans="2:12">
       <c r="F22" s="94" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G22" s="94"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G24" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12">
+      <c r="G24" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+    </row>
+    <row r="27" spans="2:12">
       <c r="B27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
       <c r="B28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -13117,10 +13113,10 @@
         <v>41.25</v>
       </c>
       <c r="I28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
       <c r="B29">
         <v>1</v>
       </c>
@@ -13140,10 +13136,10 @@
         <v>2.25</v>
       </c>
       <c r="I29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
       <c r="B30">
         <v>2</v>
       </c>
@@ -13162,14 +13158,14 @@
       <c r="G30">
         <v>3.75</v>
       </c>
-      <c r="I30" s="85" t="s">
-        <v>131</v>
-      </c>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I30" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+    </row>
+    <row r="31" spans="2:12">
       <c r="B31" s="64">
         <v>3</v>
       </c>
@@ -13189,7 +13185,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12">
       <c r="E32" s="64">
         <f>ABS(E28/E31)</f>
         <v>1.6666666666666667</v>
@@ -13199,29 +13195,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12">
       <c r="B35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
       <c r="B36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <f t="shared" ref="C36:G38" si="0">C28-($E28*C$39)</f>
@@ -13244,7 +13240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12">
       <c r="B37">
         <v>1</v>
       </c>
@@ -13268,15 +13264,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="85" t="s">
-        <v>129</v>
-      </c>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H37" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+    </row>
+    <row r="38" spans="2:12">
       <c r="B38">
         <v>2</v>
       </c>
@@ -13301,7 +13297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12">
       <c r="B39">
         <v>3</v>
       </c>
@@ -13352,56 +13348,56 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="M1" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
+    <row r="1" spans="1:19">
+      <c r="M1" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
       <c r="Q1" s="19"/>
       <c r="R1" s="19"/>
       <c r="S1" s="20"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19">
       <c r="C2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="M2" s="4"/>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19">
       <c r="B3" s="10" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M3" s="73" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="N3" s="72" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O3" s="71" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P3" s="70" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19">
       <c r="B4" s="10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C4" s="61">
         <v>1</v>
@@ -13413,7 +13409,7 @@
         <v>4</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -13424,15 +13420,15 @@
       <c r="P4" s="5">
         <v>4</v>
       </c>
-      <c r="Q4" s="102" t="s">
-        <v>167</v>
-      </c>
-      <c r="R4" s="103"/>
-      <c r="S4" s="104"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q4" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="R4" s="107"/>
+      <c r="S4" s="108"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="B5" s="10" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -13444,7 +13440,7 @@
         <v>4</v>
       </c>
       <c r="M5" s="69" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="N5" s="68">
         <v>5</v>
@@ -13457,12 +13453,12 @@
       </c>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -13474,7 +13470,7 @@
         <v>8</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -13487,47 +13483,47 @@
       </c>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19">
       <c r="M7" s="4"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="105"/>
-      <c r="F8" s="106" t="s">
-        <v>164</v>
-      </c>
-      <c r="G8" s="107"/>
+    <row r="8" spans="1:19" ht="31.5" customHeight="1">
+      <c r="B8" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="100"/>
+      <c r="F8" s="101" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="102"/>
       <c r="M8" s="4"/>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19">
       <c r="B9" s="10" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F9" s="66"/>
       <c r="M9" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
+        <v>156</v>
+      </c>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19">
       <c r="B10" s="10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C10" s="61">
         <f>C4-$C$4</f>
@@ -13542,19 +13538,19 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M10" s="99" t="s">
-        <v>161</v>
-      </c>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
+        <v>158</v>
+      </c>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19">
       <c r="B11" s="10" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C11">
         <f>C5-$D$5</f>
@@ -13571,9 +13567,9 @@
       <c r="M11" s="4"/>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19">
       <c r="B12" s="10" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <f>C6-$D$6</f>
@@ -13588,38 +13584,38 @@
         <v>4</v>
       </c>
       <c r="M12" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="M13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" t="s">
+        <v>149</v>
+      </c>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" ht="30.75" customHeight="1">
+      <c r="B14" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="M13" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N13" t="s">
-        <v>146</v>
-      </c>
-      <c r="O13" t="s">
-        <v>145</v>
-      </c>
-      <c r="P13" t="s">
-        <v>144</v>
-      </c>
-      <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="105" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="105"/>
-      <c r="F14" s="106" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="107"/>
+      <c r="C14" s="100"/>
+      <c r="F14" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="102"/>
       <c r="M14" s="4" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -13632,21 +13628,21 @@
       </c>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19">
       <c r="B15" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>5</v>
@@ -13659,9 +13655,9 @@
       </c>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19">
       <c r="B16" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C16">
         <f>C10-$C$10</f>
@@ -13676,10 +13672,10 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N16" s="8">
         <v>5</v>
@@ -13694,9 +13690,9 @@
       <c r="R16" s="8"/>
       <c r="S16" s="9"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <f>C11-$C$10</f>
@@ -13711,9 +13707,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11">
       <c r="B18" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <f>C12-$C$10</f>
@@ -13728,29 +13724,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="105"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11">
+      <c r="B20" s="100" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="100"/>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -13761,14 +13757,14 @@
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="G22" s="108" t="s">
-        <v>154</v>
-      </c>
-      <c r="H22" s="108"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G22" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="103"/>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -13779,16 +13775,16 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="G23" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G23" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -13800,76 +13796,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="85" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="85"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B30" s="85" t="s">
+    <row r="26" spans="2:11">
+      <c r="B26" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="89"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="B33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I33" t="s">
+        <v>148</v>
+      </c>
+      <c r="J33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="B34" t="s">
         <v>150</v>
-      </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B31" s="85" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" t="s">
-        <v>147</v>
-      </c>
-      <c r="H33" t="s">
-        <v>146</v>
-      </c>
-      <c r="I33" t="s">
-        <v>145</v>
-      </c>
-      <c r="J33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>143</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -13881,7 +13877,7 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -13893,9 +13889,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14">
       <c r="B35" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -13907,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -13919,9 +13915,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14">
       <c r="B36" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -13933,7 +13929,7 @@
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -13945,7 +13941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14">
       <c r="A40" s="65"/>
       <c r="B40" s="65"/>
       <c r="C40" s="65"/>
@@ -13963,6 +13959,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="M9:P9"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="B30:K30"/>
@@ -13973,12 +13975,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G23:J23"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="M9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13993,34 +13989,34 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7">
       <c r="B2" s="109" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C2" s="109"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7">
       <c r="B3" s="10" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7">
       <c r="B4" s="10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -14035,9 +14031,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7">
       <c r="B5" s="10" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -14052,9 +14048,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7">
       <c r="B6" s="10" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -14069,9 +14065,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7">
       <c r="B7" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -14086,9 +14082,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7">
       <c r="B8" s="10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -14103,35 +14099,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="105" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="105"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7">
+      <c r="B9" s="100" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="100"/>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>173</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -14149,9 +14145,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7">
       <c r="B13" s="10" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -14169,9 +14165,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7">
       <c r="B14" s="10" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -14189,9 +14185,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7">
       <c r="B15" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -14209,9 +14205,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7">
       <c r="B16" s="10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -14229,53 +14225,53 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="105"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14">
+      <c r="B18" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="100"/>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F19" t="s">
         <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I19" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M19" t="s">
         <v>173</v>
       </c>
       <c r="N19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
       <c r="B20" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -14293,7 +14289,7 @@
         <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J20">
         <f>C20-$E$20</f>
@@ -14316,9 +14312,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14">
       <c r="B21" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -14336,7 +14332,7 @@
         <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="J21">
         <f>C21-$E$21</f>
@@ -14359,9 +14355,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14">
       <c r="B22" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -14379,7 +14375,7 @@
         <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="J22">
         <f>C22-$E$22</f>
@@ -14402,9 +14398,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14">
       <c r="B23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -14422,7 +14418,7 @@
         <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J23">
         <f>C23-$E$23</f>
@@ -14445,9 +14441,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14">
       <c r="B24" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C24">
         <v>14</v>
@@ -14465,7 +14461,7 @@
         <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J24">
         <f>C24-$E$24</f>
@@ -14488,60 +14484,60 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="105" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="105"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14">
+      <c r="B25" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="100"/>
+    </row>
+    <row r="28" spans="2:14">
       <c r="B28" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
         <v>173</v>
       </c>
       <c r="G28" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I28" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K28" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L28" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M28" t="s">
         <v>173</v>
       </c>
       <c r="N28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
       <c r="B29" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C29" s="75">
         <v>2</v>
@@ -14559,7 +14555,7 @@
         <v>11</v>
       </c>
       <c r="I29" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J29">
         <f>C29-$C$29</f>
@@ -14582,9 +14578,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14">
       <c r="B30" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -14602,7 +14598,7 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="J30">
         <f>C30-$C$29</f>
@@ -14625,9 +14621,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14">
       <c r="B31" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -14645,7 +14641,7 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="J31">
         <f>C31-$C$29</f>
@@ -14668,9 +14664,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14">
       <c r="B32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -14688,7 +14684,7 @@
         <v>11</v>
       </c>
       <c r="I32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J32">
         <f>C32-$C$29</f>
@@ -14711,9 +14707,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14">
       <c r="B33" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -14731,7 +14727,7 @@
         <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J33">
         <f>C33-$C$29</f>
@@ -14754,46 +14750,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B34" s="85" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B36" s="105" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="105"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14">
+      <c r="B34" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="100"/>
+    </row>
+    <row r="37" spans="2:14">
       <c r="B37" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F37" t="s">
         <v>173</v>
       </c>
       <c r="G37" t="s">
-        <v>174</v>
-      </c>
-      <c r="H37" s="108" t="s">
-        <v>185</v>
-      </c>
-      <c r="I37" s="108"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+      <c r="H37" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" s="103"/>
+    </row>
+    <row r="38" spans="2:14">
       <c r="B38" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -14811,9 +14807,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14">
       <c r="B39" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C39" s="65">
         <v>1</v>
@@ -14830,16 +14826,16 @@
       <c r="G39">
         <v>3</v>
       </c>
-      <c r="H39" s="85" t="s">
-        <v>184</v>
-      </c>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="H39" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+    </row>
+    <row r="40" spans="2:14">
       <c r="B40" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -14857,9 +14853,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:14">
       <c r="B41" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -14877,9 +14873,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14">
       <c r="B42" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -14897,32 +14893,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:14">
       <c r="B45" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F45" t="s">
         <v>173</v>
       </c>
       <c r="G45" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I45" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
       <c r="B46" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -14943,9 +14939,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:14">
       <c r="B47" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -14963,12 +14959,12 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
       <c r="B48" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -14986,12 +14982,12 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
       <c r="B49" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -15009,12 +15005,12 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
       <c r="B50" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -15032,43 +15028,43 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B51" s="108" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" s="108"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="103" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="103"/>
+    </row>
+    <row r="53" spans="2:13">
       <c r="B53" s="74" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
       <c r="B54" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E54" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F54" t="s">
         <v>173</v>
       </c>
       <c r="G54" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
       <c r="B55" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -15086,9 +15082,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13">
       <c r="B56" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -15106,9 +15102,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13">
       <c r="B57" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -15126,9 +15122,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13">
       <c r="B58" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -15146,9 +15142,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13">
       <c r="B59" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -15166,49 +15162,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13">
       <c r="G61" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
       <c r="B62" s="10" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>173</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="J62" s="67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M62" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13">
       <c r="B63" s="10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -15226,7 +15222,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J63">
         <v>10</v>
@@ -15241,9 +15237,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13">
       <c r="B64" s="10" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -15261,7 +15257,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="J64">
         <v>10</v>
@@ -15276,9 +15272,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15">
       <c r="B65" s="10" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -15296,7 +15292,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="J65">
         <v>13</v>
@@ -15311,9 +15307,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15">
       <c r="B66" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -15331,7 +15327,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J66">
         <v>12</v>
@@ -15346,9 +15342,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15">
       <c r="B67" s="10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -15366,7 +15362,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J67">
         <v>14</v>
@@ -15381,15 +15377,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B71" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15">
+      <c r="B71" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="89"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="65"/>
       <c r="B74" s="65"/>
       <c r="C74" s="65"/>

--- a/02_Exercises/Everything.xlsx
+++ b/02_Exercises/Everything.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -54,7 +54,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,9 +101,6 @@
     <t>Integer Programming Model</t>
   </si>
   <si>
-    <t xml:space="preserve">Solver: Primary IP </t>
-  </si>
-  <si>
     <t>Max z =</t>
   </si>
   <si>
@@ -140,47 +137,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>ref.</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>rhs</t>
-  </si>
-  <si>
     <t>s.t</t>
   </si>
   <si>
@@ -220,9 +176,6 @@
     <t>Labour restriction</t>
   </si>
   <si>
-    <t>var.</t>
-  </si>
-  <si>
     <r>
       <t>9x</t>
     </r>
@@ -239,15 +192,6 @@
   </si>
   <si>
     <t>Carpentry restriction</t>
-  </si>
-  <si>
-    <t>obj.</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>max</t>
   </si>
   <si>
     <r>
@@ -288,106 +232,177 @@
     <t>≥</t>
   </si>
   <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solver: Primary IP </t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>ref.</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>rhs</t>
+  </si>
+  <si>
+    <t>var.</t>
+  </si>
+  <si>
+    <t>obj.</t>
+  </si>
+  <si>
     <t>s.t.</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>when relaxing, we take out the integer constraint, then we do a solver</t>
   </si>
   <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
     <t>Canonical</t>
   </si>
   <si>
     <t>Max z -&gt;</t>
   </si>
   <si>
+    <t>+s1</t>
+  </si>
+  <si>
+    <t>+s2</t>
+  </si>
+  <si>
+    <t>+x2</t>
+  </si>
+  <si>
+    <t>+5x2</t>
+  </si>
+  <si>
+    <t>+x1</t>
+  </si>
+  <si>
+    <t>+9x1</t>
+  </si>
+  <si>
     <t>-8x1</t>
   </si>
   <si>
     <t>-5x2</t>
   </si>
   <si>
-    <t>+x1</t>
-  </si>
-  <si>
-    <t>+x2</t>
-  </si>
-  <si>
-    <t>+s1</t>
-  </si>
-  <si>
-    <t>+9x1</t>
-  </si>
-  <si>
-    <t>+5x2</t>
-  </si>
-  <si>
-    <t>+s2</t>
+    <t>T-i</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>labour</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>using primal, it is feasible, but not optimal (negatives in Z row)</t>
+  </si>
+  <si>
+    <t>pivot column = greatest negative (x1)</t>
+  </si>
+  <si>
+    <t>pivot row = smallest POSITIVE ratio</t>
+  </si>
+  <si>
+    <t>T-2</t>
   </si>
   <si>
     <t>Branch &amp; Bound Algorithm</t>
   </si>
   <si>
-    <t>T-i</t>
-  </si>
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>using primal, it is feasible, but not optimal (negatives in Z row)</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>pivot column = greatest negative (x1)</t>
-  </si>
-  <si>
-    <t>labour</t>
-  </si>
-  <si>
-    <t>pivot row = smallest POSITIVE ratio</t>
-  </si>
-  <si>
-    <t>wood</t>
+    <t>look at the basic Xn variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if there is a tie, we choose the lowest (left most) Xn </t>
+  </si>
+  <si>
+    <t>so we choose X1 @ 3.75</t>
+  </si>
+  <si>
+    <t>then we go up and down, 3 and 4</t>
+  </si>
+  <si>
+    <t>3 gives slack, 4 gives excess</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>not basic any more, conflict resolution</t>
+  </si>
+  <si>
+    <t>(2 - 3) * -1</t>
+  </si>
+  <si>
+    <t>this going into the 3 row, we multiply by -1 so that the slack is positive</t>
+  </si>
+  <si>
+    <t>use dual simplex, it is optimal but not feasible, (negative in rhs)</t>
+  </si>
+  <si>
+    <t>select pivot row: most negative RHS</t>
   </si>
   <si>
     <t>T-1</t>
-  </si>
-  <si>
-    <t>T-2</t>
-  </si>
-  <si>
-    <t>look at the basic Xn variables</t>
-  </si>
-  <si>
-    <t>we choose the RHS with the fraction closest to 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if there is a tie, we choose the lowest (left most) Xn </t>
-  </si>
-  <si>
-    <t>so we choose X1 @ 3.75</t>
-  </si>
-  <si>
-    <t>then we go up and down, 3 and 4</t>
-  </si>
-  <si>
-    <t>3 gives slack, 4 gives excess</t>
   </si>
   <si>
     <r>
@@ -448,6 +463,21 @@
     </r>
   </si>
   <si>
+    <t>T-A.i</t>
+  </si>
+  <si>
+    <t>T-A.1</t>
+  </si>
+  <si>
+    <t>optimal and feasible</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2 - 3) </t>
+  </si>
+  <si>
     <r>
       <t>Sub-Problem B: x</t>
     </r>
@@ -506,304 +536,226 @@
     </r>
   </si>
   <si>
-    <t>s3</t>
-  </si>
-  <si>
-    <t>e3</t>
-  </si>
-  <si>
-    <t>not basic any more, conflict resolution</t>
-  </si>
-  <si>
-    <t>(2 - 3) * -1</t>
-  </si>
-  <si>
-    <t>this going into the 3 row, we multiply by -1 so that the slack is positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2 - 3) </t>
-  </si>
-  <si>
-    <t>T-A.i</t>
-  </si>
-  <si>
-    <t>use dual simplex, it is optimal but not feasible, (negative in rhs)</t>
-  </si>
-  <si>
-    <t>select pivot row: most negative RHS</t>
-  </si>
-  <si>
-    <t>select pivot column (smallest value), ratio of ABSOLUTE (Z/Pivot Row) *only on negative values</t>
-  </si>
-  <si>
-    <t>T-A.1</t>
-  </si>
-  <si>
     <t>fraction, continue branching the same way</t>
   </si>
   <si>
-    <t>optimal and feasible</t>
+    <t>we choose the RHS with the fraction closest to 0.5</t>
+  </si>
+  <si>
+    <t>Coach Lombardi is trying to choose the starting line-up for his five-a-side football team. The team consists of seven players who have been rated (on a scale of 1 = poor to 3 = excellent) according to their ball-handling, shooting, tackling, and defensive abilities. The positions that each player is allowed to play and the player’s abilities are listed in the table.</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Ball-handling</t>
+  </si>
+  <si>
+    <t>Shooting</t>
+  </si>
+  <si>
+    <t>Tackling</t>
+  </si>
+  <si>
+    <t>Defence</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B-F</t>
+  </si>
+  <si>
+    <t>F-C</t>
+  </si>
+  <si>
+    <t>The five-player starting line-up must satisfy the following restrictions:</t>
+  </si>
+  <si>
+    <t>• At least four team members must be able to play backfield, at least two members must be able to play forward, and at least one member must be able to play centre.</t>
+  </si>
+  <si>
+    <t>• The average ball-handling, shooting, and tackling level of the starting line-up must be at least 2.</t>
+  </si>
+  <si>
+    <t>• If player 3 starts, then player 6 cannot start.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• If player 1 starts, then players 4 and 5 must both start. </t>
+  </si>
+  <si>
+    <t>• Either player 2 or player 3 must start.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given these constraints, Coach Lombardi wants to maximize the total defensive ability of the starting team. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Formulate an Integer Programming Model that will solve the requirements of the Football Team. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Solve the formulated Integer Programming Model using Solver. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Solve the formulated Integer Programming Model using the Branch &amp; Bound Simplex Algorithm. </t>
+  </si>
+  <si>
+    <t>4. Solve the formulated Integer Programming Model using the Cutting Plane Algorithm.</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>average constraint</t>
+  </si>
+  <si>
+    <t>forward constraint</t>
+  </si>
+  <si>
+    <t>backfield constraint</t>
+  </si>
+  <si>
+    <t>centre constraint</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>p3 v p6 constraint</t>
+  </si>
+  <si>
+    <t>p1 + p4 &amp; 5</t>
+  </si>
+  <si>
+    <t>players playing</t>
+  </si>
+  <si>
+    <t>p2 or p3</t>
+  </si>
+  <si>
+    <t>max player constraint</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>e5</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>t-i</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>x1&gt;=5</t>
+  </si>
+  <si>
+    <t>x1&lt;=4</t>
+  </si>
+  <si>
+    <t>infeasible</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>x2&gt;=2</t>
   </si>
   <si>
     <t>x2&lt;=1</t>
   </si>
   <si>
-    <t>x2&gt;=2</t>
-  </si>
-  <si>
-    <t>t-i</t>
-  </si>
-  <si>
-    <t>e1</t>
-  </si>
-  <si>
-    <t>s4</t>
-  </si>
-  <si>
-    <t>e2</t>
-  </si>
-  <si>
-    <t>infeasible</t>
-  </si>
-  <si>
-    <t>x1&lt;=4</t>
-  </si>
-  <si>
-    <t>x1&gt;=5</t>
-  </si>
-  <si>
-    <t>s5</t>
-  </si>
-  <si>
-    <t>e5</t>
-  </si>
-  <si>
-    <t>Coach Lombardi is trying to choose the starting line-up for his five-a-side football team. The team consists of seven players who have been rated (on a scale of 1 = poor to 3 = excellent) according to their ball-handling, shooting, tackling, and defensive abilities. The positions that each player is allowed to play and the player’s abilities are listed in the table.</t>
-  </si>
-  <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>x4</t>
-  </si>
-  <si>
-    <t>x5</t>
-  </si>
-  <si>
-    <t>x6</t>
-  </si>
-  <si>
-    <t>x7</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B-F</t>
-  </si>
-  <si>
-    <t>F-C</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>players playing</t>
-  </si>
-  <si>
-    <t>Ball-handling</t>
-  </si>
-  <si>
-    <t>Shooting</t>
-  </si>
-  <si>
-    <t>Tackling</t>
-  </si>
-  <si>
-    <t>Defence</t>
-  </si>
-  <si>
-    <t>max player constraint</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t>backfield constraint</t>
-  </si>
-  <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
-    <t>forward constraint</t>
-  </si>
-  <si>
-    <t>centre constraint</t>
-  </si>
-  <si>
-    <t>average constraint</t>
-  </si>
-  <si>
-    <t>Use this as objective function</t>
-  </si>
-  <si>
-    <t>p3 v p6 constraint</t>
-  </si>
-  <si>
-    <t>p1 + p4 &amp; 5</t>
-  </si>
-  <si>
-    <t>p2 or p3</t>
-  </si>
-  <si>
-    <t>The five-player starting line-up must satisfy the following restrictions:</t>
-  </si>
-  <si>
-    <t>• At least four team members must be able to play backfield, at least two members must be able to play forward, and at least one member must be able to play centre.</t>
-  </si>
-  <si>
-    <t>• The average ball-handling, shooting, and tackling level of the starting line-up must be at least 2.</t>
-  </si>
-  <si>
-    <t>• If player 3 starts, then player 6 cannot start.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• If player 1 starts, then players 4 and 5 must both start. </t>
-  </si>
-  <si>
-    <t>• Either player 2 or player 3 must start.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given these constraints, Coach Lombardi wants to maximize the total defensive ability of the starting team. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Formulate an Integer Programming Model that will solve the requirements of the Football Team. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Solve the formulated Integer Programming Model using Solver. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Solve the formulated Integer Programming Model using the Branch &amp; Bound Simplex Algorithm. </t>
-  </si>
-  <si>
-    <t>4. Solve the formulated Integer Programming Model using the Cutting Plane Algorithm.</t>
+    <t>basic xn variables are all integers = optimal</t>
+  </si>
+  <si>
+    <t>t-3</t>
+  </si>
+  <si>
+    <t>pivot column = smallest absolute value</t>
+  </si>
+  <si>
+    <t>pivot row = largest negative</t>
+  </si>
+  <si>
+    <t>Solve with dual</t>
+  </si>
+  <si>
+    <t>move value without subscript to right</t>
+  </si>
+  <si>
+    <t>will always be &lt;=</t>
+  </si>
+  <si>
+    <t>drop integers and make it equal &lt;= 0</t>
+  </si>
+  <si>
+    <t>move all integers to left and all fraction to right</t>
+  </si>
+  <si>
+    <t>split so that all fractions are positive</t>
+  </si>
+  <si>
+    <t>-&gt; priority smallest subscript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right hand side closest to 0.5 </t>
+  </si>
+  <si>
+    <t>CHOOSING CUT</t>
   </si>
   <si>
     <t>CUTTING PLANE</t>
   </si>
   <si>
-    <t>t-3</t>
-  </si>
-  <si>
-    <t>CHOOSING CUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right hand side closest to 0.5 </t>
-  </si>
-  <si>
-    <t>-&gt; priority smallest subscript</t>
-  </si>
-  <si>
-    <t>split so that all fractions are positive</t>
-  </si>
-  <si>
-    <t>move all integers to left and all fraction to right</t>
-  </si>
-  <si>
-    <t>drop integers and make it equal &lt;= 0</t>
-  </si>
-  <si>
-    <t>will always be &lt;=</t>
-  </si>
-  <si>
-    <t>move value without subscript to right</t>
-  </si>
-  <si>
-    <t>Solve with dual</t>
-  </si>
-  <si>
-    <t>pivot row = largest negative</t>
-  </si>
-  <si>
-    <t>pivot column = smallest absolute value</t>
-  </si>
-  <si>
-    <t>basic xn variables are all integers = optimal</t>
-  </si>
-  <si>
-    <t>not part of example juts showing dummy</t>
-  </si>
-  <si>
-    <t>tasks</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ү</t>
+  </si>
+  <si>
+    <t>β</t>
   </si>
   <si>
     <t>α</t>
   </si>
   <si>
-    <t>β</t>
-  </si>
-  <si>
-    <t>ү</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>original is not square</t>
-  </si>
-  <si>
-    <t>agents</t>
-  </si>
-  <si>
-    <t>Dummy</t>
-  </si>
-  <si>
-    <t>Row Reduction</t>
-  </si>
-  <si>
-    <t>smallest in each row</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min problem: choose largest value </t>
-  </si>
-  <si>
-    <t>subtract smallest number from each row you fucking bitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max problem: use smallest value </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiply whole matrix by -1 </t>
-  </si>
-  <si>
-    <t>Column Reduction</t>
-  </si>
-  <si>
-    <t>smallest in each column</t>
-  </si>
-  <si>
-    <t>subtract smallest number from each column you fucking bitch</t>
-  </si>
-  <si>
-    <t>Check if optimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optimal if: </t>
-  </si>
-  <si>
-    <t>smallest amount of lines = matrix size</t>
-  </si>
-  <si>
-    <t>lines to cover all 0s</t>
+    <t>t-initial</t>
+  </si>
+  <si>
+    <t>t-optimal</t>
+  </si>
+  <si>
+    <t>selected values in the original matrix</t>
+  </si>
+  <si>
+    <t>rows or columns. Calculate the optimal task assignment z objective by calculating the sum of all</t>
   </si>
   <si>
     <r>
@@ -822,70 +774,58 @@
     </r>
   </si>
   <si>
-    <t>rows or columns. Calculate the optimal task assignment z objective by calculating the sum of all</t>
-  </si>
-  <si>
-    <t>selected values in the original matrix</t>
-  </si>
-  <si>
-    <t>t-optimal</t>
-  </si>
-  <si>
-    <t>t-initial</t>
-  </si>
-  <si>
-    <t>MIN problem</t>
-  </si>
-  <si>
-    <t>δ</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Matrix is not square</t>
-  </si>
-  <si>
-    <t>φ</t>
-  </si>
-  <si>
-    <t>Conditional Check</t>
-  </si>
-  <si>
-    <t>Not optimal</t>
-  </si>
-  <si>
-    <t>take smallest value that is not covered</t>
-  </si>
-  <si>
-    <t>Step 5a: Choose the smallest value in the table that is not covered by any lines. We will call this</t>
-  </si>
-  <si>
-    <t>value a</t>
-  </si>
-  <si>
-    <t>• Step 5b: Subtract a from every uncovered element in the matrix.</t>
-  </si>
-  <si>
-    <t>• Step 5c: Add a to every element in the matrix that is covered twice (+where two lines cross).</t>
-  </si>
-  <si>
-    <t>• Step 5d: Leave the values as they are if they are covered by one line. Calculate the new matrix and</t>
-  </si>
-  <si>
-    <t>go back to Step 4.</t>
-  </si>
-  <si>
-    <t>Still not optimal</t>
-  </si>
-  <si>
-    <t>OPTIMAL</t>
-  </si>
-  <si>
-    <t>DUMMY</t>
+    <t>lines to cover all 0s</t>
+  </si>
+  <si>
+    <t>smallest amount of lines = matrix size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimal if: </t>
+  </si>
+  <si>
+    <t>Check if optimal</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>subtract smallest number from each column you fucking bitch</t>
+  </si>
+  <si>
+    <t>smallest in each column</t>
+  </si>
+  <si>
+    <t>Column Reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiply whole matrix by -1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">max problem: use smallest value </t>
+  </si>
+  <si>
+    <t>subtract smallest number from each row you fucking bitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min problem: choose largest value </t>
+  </si>
+  <si>
+    <t>smallest in each row</t>
+  </si>
+  <si>
+    <t>Row Reduction</t>
+  </si>
+  <si>
+    <t>agents</t>
+  </si>
+  <si>
+    <t>original is not square</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>not part of example juts showing dummy</t>
   </si>
   <si>
     <r>
@@ -921,12 +861,72 @@
       <t>48</t>
     </r>
   </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>δ</t>
+  </si>
+  <si>
+    <t>φ</t>
+  </si>
+  <si>
+    <t>DUMMY</t>
+  </si>
+  <si>
+    <t>OPTIMAL</t>
+  </si>
+  <si>
+    <t>Still not optimal</t>
+  </si>
+  <si>
+    <t>go back to Step 4.</t>
+  </si>
+  <si>
+    <t>• Step 5d: Leave the values as they are if they are covered by one line. Calculate the new matrix and</t>
+  </si>
+  <si>
+    <t>• Step 5c: Add a to every element in the matrix that is covered twice (+where two lines cross).</t>
+  </si>
+  <si>
+    <t>• Step 5b: Subtract a from every uncovered element in the matrix.</t>
+  </si>
+  <si>
+    <t>value a</t>
+  </si>
+  <si>
+    <t>Step 5a: Choose the smallest value in the table that is not covered by any lines. We will call this</t>
+  </si>
+  <si>
+    <t>take smallest value that is not covered</t>
+  </si>
+  <si>
+    <t>Not optimal</t>
+  </si>
+  <si>
+    <t>Conditional Check</t>
+  </si>
+  <si>
+    <t>Matrix is not square</t>
+  </si>
+  <si>
+    <t>MIN problem</t>
+  </si>
+  <si>
+    <t>Use this as objective function</t>
+  </si>
+  <si>
+    <t>select pivot column (smallest value), ratio of ABSOLUTE (Z/Pivot Row) *only on negative values</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1442,18 +1442,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1493,6 +1481,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1514,18 +1514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1539,6 +1527,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8127,6 +8127,10 @@
 </inkml:ink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8396,195 +8400,195 @@
       <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
-    </row>
-    <row r="3" spans="1:21" ht="14.45" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="85"/>
-    </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="88"/>
-    </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1"/>
-    <row r="7" spans="1:21">
-      <c r="A7" s="80" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="78"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="81"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="81"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="84"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
-    </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1">
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="76" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="88"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
-      <c r="O12" s="76" t="s">
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="O12" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="91"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="78"/>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="4" t="s">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
       </c>
       <c r="G13" s="5"/>
       <c r="O13" s="4"/>
       <c r="P13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="R13" s="10" t="s">
+      <c r="E14" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="S13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="U13" s="5"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P14" s="15">
         <v>3.75</v>
@@ -8594,29 +8598,29 @@
       </c>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F15">
         <v>45</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P15">
         <v>8</v>
@@ -8629,27 +8633,27 @@
         <v>41.25</v>
       </c>
       <c r="S15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="T15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="G16" s="5"/>
       <c r="O16" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -8662,27 +8666,27 @@
         <v>6</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="T16">
         <v>6</v>
       </c>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
+        <v>19</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="8">
@@ -8696,26 +8700,26 @@
         <v>45</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="T17" s="8">
         <v>45</v>
       </c>
       <c r="U17" s="9"/>
     </row>
-    <row r="20" spans="1:21" s="16" customFormat="1"/>
-    <row r="23" spans="1:21">
-      <c r="B23" s="76" t="s">
+    <row r="20" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B23" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="78"/>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="91"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
@@ -8726,61 +8730,61 @@
       <c r="G24" s="10"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B25" s="11"/>
       <c r="C25" s="17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B26" s="11"/>
       <c r="C26" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="E26" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>6</v>
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B27" s="11"/>
       <c r="C27" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G27">
         <v>45</v>
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -8789,55 +8793,55 @@
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="78"/>
-    </row>
-    <row r="32" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="91"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="D33" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="E33" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="F33" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="G33" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="20" t="s">
         <v>49</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>50</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
       <c r="B34" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C34" s="32">
         <v>-8</v>
@@ -8851,13 +8855,13 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
       <c r="B35" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C35" s="32">
         <v>1</v>
@@ -8880,10 +8884,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C36" s="22">
         <v>9</v>
@@ -8904,42 +8908,42 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="18" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C38" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="E38" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="F38" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="G38" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="20" t="s">
         <v>49</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>50</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C39" s="33">
         <f t="shared" ref="C39:F40" si="0">C34-($C34*C$41)</f>
@@ -8964,13 +8968,13 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C40" s="34">
         <f t="shared" si="0"/>
@@ -9001,10 +9005,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C41" s="28">
         <f>C36/$C$36</f>
@@ -9032,36 +9036,36 @@
       </c>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C43" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="E43" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="F43" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="G43" s="20" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" s="33">
         <f t="shared" ref="C44:F44" si="2">C39-($D39*C$45)</f>
@@ -9085,13 +9089,13 @@
       </c>
       <c r="I44" s="5"/>
       <c r="J44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C45" s="33">
         <f>C40/$D$40</f>
@@ -9115,13 +9119,13 @@
       </c>
       <c r="I45" s="5"/>
       <c r="J45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C46" s="45">
         <f t="shared" ref="C46:G46" si="4">C41-($D41*C$45)</f>
@@ -9145,10 +9149,10 @@
       </c>
       <c r="I46" s="5"/>
       <c r="J46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -9159,99 +9163,99 @@
       <c r="H47" s="8"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="J49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="J50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
-      <c r="J49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26">
-      <c r="J50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26">
-      <c r="A55" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="78"/>
-      <c r="R55" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="S55" s="77"/>
-      <c r="T55" s="77"/>
-      <c r="U55" s="77"/>
-      <c r="V55" s="77"/>
-      <c r="W55" s="77"/>
-      <c r="X55" s="77"/>
-      <c r="Y55" s="77"/>
-      <c r="Z55" s="78"/>
-    </row>
-    <row r="56" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A55" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="90"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="91"/>
+      <c r="R55" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="S55" s="90"/>
+      <c r="T55" s="90"/>
+      <c r="U55" s="90"/>
+      <c r="V55" s="90"/>
+      <c r="W55" s="90"/>
+      <c r="X55" s="90"/>
+      <c r="Y55" s="90"/>
+      <c r="Z55" s="91"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="I56" s="5"/>
       <c r="R56" s="4"/>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="B57" s="18"/>
       <c r="C57" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="E57" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="F57" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F57" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="G57" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I57" s="5"/>
       <c r="R57" s="4"/>
       <c r="S57" s="18"/>
       <c r="T57" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="U57" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="U57" s="19" t="s">
+      <c r="V57" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="V57" s="19" t="s">
+      <c r="W57" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="W57" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="X57" s="19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Y57" s="20" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -9271,7 +9275,7 @@
       <c r="I58" s="5"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -9290,10 +9294,10 @@
       </c>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -9313,7 +9317,7 @@
       <c r="I59" s="5"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -9332,10 +9336,10 @@
       </c>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C60" s="35">
         <v>1</v>
@@ -9355,7 +9359,7 @@
       <c r="I60" s="5"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T60" s="35">
         <v>1</v>
@@ -9374,7 +9378,7 @@
       </c>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
       <c r="B61" s="7">
         <v>3</v>
@@ -9399,7 +9403,7 @@
       </c>
       <c r="I61" s="5"/>
       <c r="J61" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="R61" s="4"/>
       <c r="S61" s="7">
@@ -9425,60 +9429,60 @@
       </c>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="I62" s="5"/>
       <c r="R62" s="4"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="E63" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="F63" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F63" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="G63" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I63" s="5"/>
       <c r="R63" s="4"/>
       <c r="S63" s="18"/>
       <c r="T63" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="U63" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="U63" s="19" t="s">
+      <c r="V63" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="V63" s="19" t="s">
+      <c r="W63" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="W63" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="X63" s="19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Y63" s="20" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -9498,7 +9502,7 @@
       <c r="I64" s="5"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -9517,10 +9521,10 @@
       </c>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -9540,7 +9544,7 @@
       <c r="I65" s="5"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -9559,10 +9563,10 @@
       </c>
       <c r="Z65" s="5"/>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C66" s="35">
         <v>1</v>
@@ -9582,7 +9586,7 @@
       <c r="I66" s="5"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T66" s="35">
         <v>1</v>
@@ -9601,7 +9605,7 @@
       </c>
       <c r="Z66" s="5"/>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="4">
         <v>3</v>
@@ -9649,10 +9653,10 @@
       </c>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="37" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C68" s="38">
         <f>(C66-C67) * -1</f>
@@ -9680,11 +9684,11 @@
       </c>
       <c r="I68" s="5"/>
       <c r="J68" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="R68" s="4"/>
       <c r="S68" s="37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T68" s="38">
         <f>(T66-T67)</f>
@@ -9712,68 +9716,68 @@
       </c>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="I69" s="5"/>
       <c r="R69" s="4"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
       <c r="I70" s="5"/>
       <c r="R70" s="4"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="B71" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C71" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="E71" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="F71" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F71" s="43" t="s">
-        <v>49</v>
-      </c>
       <c r="G71" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I71" s="5"/>
       <c r="R71" s="4"/>
       <c r="S71" s="18"/>
       <c r="T71" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="U71" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="U71" s="19" t="s">
+      <c r="V71" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="V71" s="19" t="s">
+      <c r="W71" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="W71" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="X71" s="19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Y71" s="20" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -9792,11 +9796,11 @@
       </c>
       <c r="I72" s="5"/>
       <c r="J72" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R72" s="4"/>
       <c r="S72" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -9815,10 +9819,10 @@
       </c>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -9837,11 +9841,11 @@
       </c>
       <c r="I73" s="5"/>
       <c r="J73" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="R73" s="4"/>
       <c r="S73" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -9860,10 +9864,10 @@
       </c>
       <c r="Z73" s="5"/>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -9882,11 +9886,11 @@
       </c>
       <c r="I74" s="5"/>
       <c r="J74" t="s">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="R74" s="4"/>
       <c r="S74" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T74">
         <v>1</v>
@@ -9905,7 +9909,7 @@
       </c>
       <c r="Z74" s="5"/>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
       <c r="B75" s="40">
         <v>3</v>
@@ -9953,7 +9957,7 @@
       </c>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="F76" s="44">
         <f>ABS(F72/F75)</f>
@@ -9967,62 +9971,62 @@
       </c>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="I77" s="5"/>
       <c r="R77" s="4"/>
       <c r="Z77" s="5"/>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
       <c r="B78" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C78" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="E78" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="F78" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F78" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="G78" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I78" s="5"/>
       <c r="R78" s="4"/>
       <c r="S78" s="18"/>
       <c r="T78" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="U78" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="U78" s="19" t="s">
+      <c r="V78" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="V78" s="19" t="s">
+      <c r="W78" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="W78" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="X78" s="19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Y78" s="20" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="Z78" s="5"/>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C79">
         <f>C72-($F72*C$82)</f>
@@ -10051,7 +10055,7 @@
       <c r="I79" s="5"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T79">
         <f>T72-($V72*T$82)</f>
@@ -10079,10 +10083,10 @@
       </c>
       <c r="Z79" s="5"/>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C80">
         <f t="shared" ref="C80:H80" si="9">C73-($F73*C$82)</f>
@@ -10111,7 +10115,7 @@
       <c r="I80" s="5"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T80">
         <f t="shared" ref="T80:Y80" si="10">T73-($V73*T$82)</f>
@@ -10139,13 +10143,13 @@
       </c>
       <c r="Z80" s="5"/>
       <c r="AA80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C81" s="47">
         <f t="shared" ref="C81:H81" si="11">C74-($F74*C$82)</f>
@@ -10174,7 +10178,7 @@
       <c r="I81" s="5"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T81" s="47">
         <f t="shared" ref="T81:Y81" si="12">T74-($V74*T$82)</f>
@@ -10202,7 +10206,7 @@
       </c>
       <c r="Z81" s="5"/>
     </row>
-    <row r="82" spans="1:35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A82" s="4"/>
       <c r="B82" s="7">
         <v>3</v>
@@ -10262,22 +10266,22 @@
       </c>
       <c r="Z82" s="5"/>
     </row>
-    <row r="83" spans="1:35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A83" s="4"/>
       <c r="I83" s="5"/>
       <c r="R83" s="4"/>
       <c r="Z83" s="5"/>
     </row>
-    <row r="84" spans="1:35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A84" s="4"/>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I84" s="5"/>
       <c r="R84" s="4"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85" spans="1:35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -10297,67 +10301,67 @@
       <c r="Y85" s="8"/>
       <c r="Z85" s="9"/>
     </row>
-    <row r="91" spans="1:35">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
       <c r="R91" s="62" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="AB91" s="62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="1:35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
       <c r="R92" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="S92" t="s">
+        <v>45</v>
+      </c>
+      <c r="T92" t="s">
         <v>46</v>
       </c>
-      <c r="T92" t="s">
+      <c r="U92" t="s">
         <v>47</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>48</v>
       </c>
-      <c r="V92" t="s">
-        <v>49</v>
-      </c>
       <c r="W92" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="X92" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="Y92" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AB92" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AC92" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD92" t="s">
         <v>46</v>
       </c>
-      <c r="AD92" t="s">
+      <c r="AE92" t="s">
         <v>47</v>
       </c>
-      <c r="AE92" t="s">
+      <c r="AF92" t="s">
         <v>48</v>
       </c>
-      <c r="AF92" t="s">
-        <v>49</v>
-      </c>
       <c r="AG92" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="AH92" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="AI92" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
       <c r="R93" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S93">
         <v>0</v>
@@ -10378,7 +10382,7 @@
         <v>41</v>
       </c>
       <c r="AB93" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -10399,7 +10403,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:35">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
       <c r="R94">
         <v>1</v>
       </c>
@@ -10443,7 +10447,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="95" spans="1:35">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.35">
       <c r="R95">
         <v>2</v>
       </c>
@@ -10487,7 +10491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:35">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
       <c r="R96">
         <v>3</v>
       </c>
@@ -10531,7 +10535,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="97" spans="18:36">
+    <row r="97" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R97">
         <v>4</v>
       </c>
@@ -10581,59 +10585,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="18:36">
+    <row r="99" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R99" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="S99" t="s">
+        <v>45</v>
+      </c>
+      <c r="T99" t="s">
         <v>46</v>
       </c>
-      <c r="T99" t="s">
+      <c r="U99" t="s">
         <v>47</v>
       </c>
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>48</v>
       </c>
-      <c r="V99" t="s">
-        <v>49</v>
-      </c>
       <c r="W99" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="X99" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="Y99" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AB99" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AC99" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD99" t="s">
         <v>46</v>
       </c>
-      <c r="AD99" t="s">
+      <c r="AE99" t="s">
         <v>47</v>
       </c>
-      <c r="AE99" t="s">
+      <c r="AF99" t="s">
         <v>48</v>
       </c>
-      <c r="AF99" t="s">
-        <v>49</v>
-      </c>
       <c r="AG99" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="AH99" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="AI99" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="18:36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R100" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S100">
         <v>0</v>
@@ -10654,7 +10658,7 @@
         <v>41</v>
       </c>
       <c r="AB100" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -10675,7 +10679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="18:36">
+    <row r="101" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R101">
         <v>1</v>
       </c>
@@ -10719,7 +10723,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="102" spans="18:36">
+    <row r="102" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R102">
         <v>2</v>
       </c>
@@ -10763,7 +10767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="18:36">
+    <row r="103" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R103">
         <v>3</v>
       </c>
@@ -10807,7 +10811,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="104" spans="18:36">
+    <row r="104" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R104" s="61">
         <v>4</v>
       </c>
@@ -10870,10 +10874,10 @@
         <v>-0.19999999999999996</v>
       </c>
       <c r="AJ104" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="105" spans="18:36">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="18:36" x14ac:dyDescent="0.35">
       <c r="V105">
         <f>ABS(V100/V104)</f>
         <v>4.9999999999999991</v>
@@ -10883,35 +10887,35 @@
         <v>0.55555555555555536</v>
       </c>
     </row>
-    <row r="107" spans="18:36">
+    <row r="107" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R107" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="S107" t="s">
+        <v>45</v>
+      </c>
+      <c r="T107" t="s">
         <v>46</v>
       </c>
-      <c r="T107" t="s">
+      <c r="U107" t="s">
         <v>47</v>
       </c>
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>48</v>
       </c>
-      <c r="V107" t="s">
-        <v>49</v>
-      </c>
       <c r="W107" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="X107" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="Y107" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="18:36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R108" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S108" t="e">
         <f t="shared" ref="S108:Y111" si="17">S100-($O100*S$60)</f>
@@ -10942,7 +10946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="18:36">
+    <row r="109" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R109">
         <v>1</v>
       </c>
@@ -10975,7 +10979,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="110" spans="18:36">
+    <row r="110" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R110">
         <v>2</v>
       </c>
@@ -11008,7 +11012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="18:36">
+    <row r="111" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R111">
         <v>3</v>
       </c>
@@ -11041,7 +11045,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="112" spans="18:36">
+    <row r="112" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R112">
         <v>4</v>
       </c>
@@ -11074,73 +11078,73 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="114" spans="18:36">
+    <row r="114" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R114" s="62" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="AB114" s="62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="115" spans="18:36">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R115" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="S115" t="s">
+        <v>45</v>
+      </c>
+      <c r="T115" t="s">
         <v>46</v>
       </c>
-      <c r="T115" t="s">
+      <c r="U115" t="s">
         <v>47</v>
       </c>
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>48</v>
       </c>
-      <c r="V115" t="s">
-        <v>49</v>
-      </c>
       <c r="W115" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="X115" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="Y115" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="Z115" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AB115" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AC115" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD115" t="s">
         <v>46</v>
       </c>
-      <c r="AD115" t="s">
+      <c r="AE115" t="s">
         <v>47</v>
       </c>
-      <c r="AE115" t="s">
+      <c r="AF115" t="s">
         <v>48</v>
       </c>
-      <c r="AF115" t="s">
-        <v>49</v>
-      </c>
       <c r="AG115" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="AH115" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="AI115" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="AJ115" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="116" spans="18:36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R116" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S116">
         <v>0</v>
@@ -11164,7 +11168,7 @@
         <v>40.555555555555557</v>
       </c>
       <c r="AB116" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -11188,7 +11192,7 @@
         <v>40.555555555555557</v>
       </c>
     </row>
-    <row r="117" spans="18:36">
+    <row r="117" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R117">
         <v>1</v>
       </c>
@@ -11238,7 +11242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="18:36">
+    <row r="118" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R118">
         <v>2</v>
       </c>
@@ -11288,7 +11292,7 @@
         <v>4.4444444444444446</v>
       </c>
     </row>
-    <row r="119" spans="18:36">
+    <row r="119" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R119">
         <v>3</v>
       </c>
@@ -11338,7 +11342,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="120" spans="18:36">
+    <row r="120" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R120">
         <v>4</v>
       </c>
@@ -11388,7 +11392,7 @@
         <v>0.44444444444444448</v>
       </c>
     </row>
-    <row r="121" spans="18:36">
+    <row r="121" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R121">
         <v>5</v>
       </c>
@@ -11414,65 +11418,65 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="18:36">
+    <row r="123" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R123" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="S123" t="s">
+        <v>45</v>
+      </c>
+      <c r="T123" t="s">
         <v>46</v>
       </c>
-      <c r="T123" t="s">
+      <c r="U123" t="s">
         <v>47</v>
       </c>
-      <c r="U123" t="s">
+      <c r="V123" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="V123" s="61" t="s">
-        <v>49</v>
-      </c>
       <c r="W123" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="X123" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="Y123" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="Z123" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AB123" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AC123" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD123" t="s">
         <v>46</v>
       </c>
-      <c r="AD123" t="s">
+      <c r="AE123" t="s">
         <v>47</v>
       </c>
-      <c r="AE123" t="s">
+      <c r="AF123" t="s">
         <v>48</v>
       </c>
-      <c r="AF123" t="s">
-        <v>49</v>
-      </c>
       <c r="AG123" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="AH123" s="61" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="AI123" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="AJ123" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="124" spans="18:36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R124" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -11496,7 +11500,7 @@
         <v>40.555555555555557</v>
       </c>
       <c r="AB124" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC124">
         <v>0</v>
@@ -11520,7 +11524,7 @@
         <v>40.555555555555557</v>
       </c>
     </row>
-    <row r="125" spans="18:36">
+    <row r="125" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R125">
         <v>1</v>
       </c>
@@ -11570,7 +11574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="18:36">
+    <row r="126" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R126">
         <v>2</v>
       </c>
@@ -11620,7 +11624,7 @@
         <v>4.4444444444444446</v>
       </c>
     </row>
-    <row r="127" spans="18:36">
+    <row r="127" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R127">
         <v>3</v>
       </c>
@@ -11670,7 +11674,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="128" spans="18:36">
+    <row r="128" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R128">
         <v>4</v>
       </c>
@@ -11720,7 +11724,7 @@
         <v>0.44444444444444448</v>
       </c>
     </row>
-    <row r="129" spans="18:36">
+    <row r="129" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R129" s="61">
         <v>5</v>
       </c>
@@ -11792,65 +11796,65 @@
         <v>-0.55555555555555536</v>
       </c>
     </row>
-    <row r="131" spans="18:36">
+    <row r="131" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R131" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="S131" t="s">
+        <v>45</v>
+      </c>
+      <c r="T131" t="s">
         <v>46</v>
       </c>
-      <c r="T131" t="s">
+      <c r="U131" t="s">
         <v>47</v>
       </c>
-      <c r="U131" t="s">
+      <c r="V131" t="s">
         <v>48</v>
       </c>
-      <c r="V131" t="s">
-        <v>49</v>
-      </c>
       <c r="W131" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="X131" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="Y131" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="Z131" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AB131" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AC131" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD131" t="s">
         <v>46</v>
       </c>
-      <c r="AD131" t="s">
+      <c r="AE131" t="s">
         <v>47</v>
       </c>
-      <c r="AE131" t="s">
+      <c r="AF131" t="s">
         <v>48</v>
       </c>
-      <c r="AF131" t="s">
-        <v>49</v>
-      </c>
       <c r="AG131" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="AH131" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="AI131" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="AJ131" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="132" spans="18:36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R132" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S132">
         <f t="shared" ref="S132:Z136" si="21">S124-($N124*S$85)</f>
@@ -11885,7 +11889,7 @@
         <v>40.555555555555557</v>
       </c>
       <c r="AB132" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC132">
         <f t="shared" ref="AC132:AJ136" si="22">AC124-($Z124*AC$85)</f>
@@ -11920,7 +11924,7 @@
         <v>40.555555555555557</v>
       </c>
     </row>
-    <row r="133" spans="18:36">
+    <row r="133" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R133">
         <v>1</v>
       </c>
@@ -11992,7 +11996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="18:36">
+    <row r="134" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R134">
         <v>2</v>
       </c>
@@ -12064,7 +12068,7 @@
         <v>4.4444444444444446</v>
       </c>
     </row>
-    <row r="135" spans="18:36">
+    <row r="135" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R135">
         <v>3</v>
       </c>
@@ -12136,7 +12140,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="136" spans="18:36">
+    <row r="136" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R136">
         <v>4</v>
       </c>
@@ -12208,7 +12212,7 @@
         <v>0.44444444444444448</v>
       </c>
     </row>
-    <row r="137" spans="18:36">
+    <row r="137" spans="18:36" x14ac:dyDescent="0.35">
       <c r="R137">
         <v>5</v>
       </c>
@@ -12282,11 +12286,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N4"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
     <mergeCell ref="A55:I55"/>
     <mergeCell ref="R55:Z55"/>
     <mergeCell ref="B23:H23"/>
@@ -12294,6 +12293,11 @@
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="O12:U12"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N4"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12309,14 +12313,14 @@
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" customHeight="1">
+    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>
@@ -12327,7 +12331,7 @@
       <c r="H1" s="93"/>
       <c r="I1" s="93"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -12338,7 +12342,7 @@
       <c r="H2" s="93"/>
       <c r="I2" s="93"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="93"/>
       <c r="B3" s="93"/>
       <c r="C3" s="93"/>
@@ -12349,7 +12353,7 @@
       <c r="H3" s="93"/>
       <c r="I3" s="93"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="93"/>
       <c r="B4" s="93"/>
       <c r="C4" s="93"/>
@@ -12360,7 +12364,7 @@
       <c r="H4" s="93"/>
       <c r="I4" s="93"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="93"/>
       <c r="B5" s="93"/>
       <c r="C5" s="93"/>
@@ -12371,7 +12375,7 @@
       <c r="H5" s="93"/>
       <c r="I5" s="93"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="93"/>
       <c r="B6" s="93"/>
       <c r="C6" s="93"/>
@@ -12382,7 +12386,7 @@
       <c r="H6" s="93"/>
       <c r="I6" s="93"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="49"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
@@ -12393,7 +12397,7 @@
       <c r="H7" s="49"/>
       <c r="I7" s="49"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="49"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
@@ -12404,30 +12408,30 @@
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="51" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B9" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>47</v>
-      </c>
       <c r="D9" s="54" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
@@ -12436,38 +12440,38 @@
       <c r="M9" s="49"/>
       <c r="N9" s="49"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="52" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="53" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B11" s="56">
         <v>1</v>
@@ -12491,9 +12495,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="52" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B12" s="55">
         <v>3</v>
@@ -12517,9 +12521,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="52" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B13" s="55">
         <v>3</v>
@@ -12543,9 +12547,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="52" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B14" s="55">
         <v>1</v>
@@ -12569,9 +12573,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="53" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B15" s="56">
         <v>3</v>
@@ -12595,9 +12599,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="52" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B16" s="55">
         <v>1</v>
@@ -12625,15 +12629,15 @@
         <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B17" s="55">
         <v>1</v>
@@ -12652,15 +12656,15 @@
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="52" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B18" s="55"/>
       <c r="D18" s="55">
@@ -12683,15 +12687,15 @@
         <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="52" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B19" s="55"/>
       <c r="C19">
@@ -12711,15 +12715,15 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="53" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B20" s="56">
         <f t="shared" ref="B20:H20" si="1">AVERAGE(B12:B14)</f>
@@ -12754,18 +12758,18 @@
         <v>2.4666666666666668</v>
       </c>
       <c r="J20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="52" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B21" s="55"/>
       <c r="D21" s="55">
@@ -12781,15 +12785,15 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="52" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B22" s="55">
         <v>2</v>
@@ -12807,15 +12811,15 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="53" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B23" s="56"/>
       <c r="C23" s="8">
@@ -12833,65 +12837,65 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="50" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="50" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="50" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="50" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="50" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="50" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -12910,11 +12914,11 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="95" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
@@ -12929,7 +12933,7 @@
       <c r="L2" s="96"/>
       <c r="M2" s="96"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="96"/>
       <c r="B3" s="96"/>
       <c r="C3" s="96"/>
@@ -12944,33 +12948,33 @@
       <c r="L3" s="96"/>
       <c r="M3" s="96"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J6" s="97" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="K6" s="97"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -12988,12 +12992,12 @@
         <v>41.25</v>
       </c>
       <c r="J7" s="94" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K7" s="94"/>
       <c r="L7" s="94"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>1</v>
       </c>
@@ -13013,12 +13017,12 @@
         <v>2.25</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K8" s="98"/>
       <c r="L8" s="98"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="65">
         <v>2</v>
       </c>
@@ -13038,64 +13042,64 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="J14" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-    </row>
-    <row r="18" spans="2:12">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J14" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
-      <c r="H21" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-    </row>
-    <row r="22" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H21" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F22" s="94" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G22" s="94"/>
     </row>
-    <row r="24" spans="2:12">
-      <c r="G24" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-    </row>
-    <row r="27" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G24" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
         <v>46</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="F27" t="s">
         <v>48</v>
       </c>
-      <c r="F27" t="s">
-        <v>49</v>
-      </c>
       <c r="G27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -13113,10 +13117,10 @@
         <v>41.25</v>
       </c>
       <c r="I28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>1</v>
       </c>
@@ -13136,10 +13140,10 @@
         <v>2.25</v>
       </c>
       <c r="I29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>2</v>
       </c>
@@ -13158,14 +13162,14 @@
       <c r="G30">
         <v>3.75</v>
       </c>
-      <c r="I30" s="89" t="s">
-        <v>143</v>
-      </c>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-    </row>
-    <row r="31" spans="2:12">
+      <c r="I30" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="64">
         <v>3</v>
       </c>
@@ -13185,7 +13189,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E32" s="64">
         <f>ABS(E28/E31)</f>
         <v>1.6666666666666667</v>
@@ -13195,29 +13199,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
         <v>46</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>47</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>48</v>
       </c>
-      <c r="F35" t="s">
-        <v>49</v>
-      </c>
       <c r="G35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <f t="shared" ref="C36:G38" si="0">C28-($E28*C$39)</f>
@@ -13240,7 +13244,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>1</v>
       </c>
@@ -13264,15 +13268,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-    </row>
-    <row r="38" spans="2:12">
+      <c r="H37" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>2</v>
       </c>
@@ -13297,7 +13301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>3</v>
       </c>
@@ -13348,56 +13352,56 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="M1" s="104" t="s">
-        <v>145</v>
-      </c>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="M1" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
       <c r="Q1" s="19"/>
       <c r="R1" s="19"/>
       <c r="S1" s="20"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="M2" s="4"/>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M3" s="73" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="N3" s="72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O3" s="71" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P3" s="70" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C4" s="61">
         <v>1</v>
@@ -13409,7 +13413,7 @@
         <v>4</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -13420,15 +13424,15 @@
       <c r="P4" s="5">
         <v>4</v>
       </c>
-      <c r="Q4" s="106" t="s">
-        <v>151</v>
-      </c>
-      <c r="R4" s="107"/>
-      <c r="S4" s="108"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="Q4" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="R4" s="103"/>
+      <c r="S4" s="104"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -13440,7 +13444,7 @@
         <v>4</v>
       </c>
       <c r="M5" s="69" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="N5" s="68">
         <v>5</v>
@@ -13453,12 +13457,12 @@
       </c>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -13470,7 +13474,7 @@
         <v>8</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -13483,47 +13487,47 @@
       </c>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="M7" s="4"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:19" ht="31.5" customHeight="1">
-      <c r="B8" s="100" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="100"/>
-      <c r="F8" s="101" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="102"/>
+    <row r="8" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="105"/>
+      <c r="F8" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="107"/>
       <c r="M8" s="4"/>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F9" s="66"/>
       <c r="M9" s="99" t="s">
-        <v>156</v>
-      </c>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
+        <v>163</v>
+      </c>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C10" s="61">
         <f>C4-$C$4</f>
@@ -13538,19 +13542,19 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M10" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
+        <v>161</v>
+      </c>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <f>C5-$D$5</f>
@@ -13567,9 +13571,9 @@
       <c r="M11" s="4"/>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C12">
         <f>C6-$D$6</f>
@@ -13584,38 +13588,38 @@
         <v>4</v>
       </c>
       <c r="M12" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="M13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" t="s">
+        <v>146</v>
+      </c>
+      <c r="O13" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" t="s">
+        <v>144</v>
+      </c>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="M13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="N13" t="s">
-        <v>147</v>
-      </c>
-      <c r="O13" t="s">
-        <v>148</v>
-      </c>
-      <c r="P13" t="s">
-        <v>149</v>
-      </c>
-      <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" ht="30.75" customHeight="1">
-      <c r="B14" s="100" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="100"/>
-      <c r="F14" s="101" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="102"/>
+      <c r="C14" s="105"/>
+      <c r="F14" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="107"/>
       <c r="M14" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -13628,21 +13632,21 @@
       </c>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="N15">
         <v>5</v>
@@ -13655,9 +13659,9 @@
       </c>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C16">
         <f>C10-$C$10</f>
@@ -13672,10 +13676,10 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N16" s="8">
         <v>5</v>
@@ -13690,9 +13694,9 @@
       <c r="R16" s="8"/>
       <c r="S16" s="9"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <f>C11-$C$10</f>
@@ -13707,9 +13711,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C18">
         <f>C12-$C$10</f>
@@ -13724,29 +13728,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="100" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="100"/>
-    </row>
-    <row r="21" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="105"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -13757,14 +13761,14 @@
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="G22" s="103" t="s">
-        <v>164</v>
-      </c>
-      <c r="H22" s="103"/>
-    </row>
-    <row r="23" spans="2:11">
+      <c r="G22" s="108" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="108"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -13775,16 +13779,16 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="G23" s="89" t="s">
-        <v>165</v>
-      </c>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-    </row>
-    <row r="24" spans="2:11">
+      <c r="G23" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -13796,76 +13800,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="89" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="89"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="89" t="s">
-        <v>167</v>
-      </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="89" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="89" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-    </row>
-    <row r="33" spans="1:14">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="85"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B29" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B30" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B31" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" t="s">
         <v>147</v>
       </c>
-      <c r="D33" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" t="s">
-        <v>171</v>
-      </c>
       <c r="H33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I33" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -13877,7 +13881,7 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -13889,9 +13893,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -13903,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -13915,9 +13919,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -13929,7 +13933,7 @@
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -13941,7 +13945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="65"/>
       <c r="B40" s="65"/>
       <c r="C40" s="65"/>
@@ -13959,12 +13963,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="M9:P9"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="B30:K30"/>
@@ -13975,6 +13973,12 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G23:J23"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="M9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13989,34 +13993,34 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="109" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C2" s="109"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -14031,9 +14035,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -14048,9 +14052,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -14065,9 +14069,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -14082,9 +14086,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -14099,35 +14103,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="100" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="100"/>
-    </row>
-    <row r="11" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="105"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>173</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -14145,9 +14149,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -14165,9 +14169,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -14185,9 +14189,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -14205,9 +14209,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -14225,53 +14229,53 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="100" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="100"/>
-    </row>
-    <row r="19" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B18" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="105"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F19" t="s">
         <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="J19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M19" t="s">
         <v>173</v>
       </c>
       <c r="N19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -14289,7 +14293,7 @@
         <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J20">
         <f>C20-$E$20</f>
@@ -14312,9 +14316,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -14332,7 +14336,7 @@
         <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="J21">
         <f>C21-$E$21</f>
@@ -14355,9 +14359,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -14375,7 +14379,7 @@
         <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="J22">
         <f>C22-$E$22</f>
@@ -14398,9 +14402,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -14418,7 +14422,7 @@
         <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J23">
         <f>C23-$E$23</f>
@@ -14441,9 +14445,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C24">
         <v>14</v>
@@ -14461,7 +14465,7 @@
         <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J24">
         <f>C24-$E$24</f>
@@ -14484,60 +14488,60 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="100" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="100"/>
-    </row>
-    <row r="28" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B25" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B27" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="105"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F28" t="s">
         <v>173</v>
       </c>
       <c r="G28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I28" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="J28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L28" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M28" t="s">
         <v>173</v>
       </c>
       <c r="N28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C29" s="75">
         <v>2</v>
@@ -14555,7 +14559,7 @@
         <v>11</v>
       </c>
       <c r="I29" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J29">
         <f>C29-$C$29</f>
@@ -14578,9 +14582,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -14598,7 +14602,7 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="J30">
         <f>C30-$C$29</f>
@@ -14621,9 +14625,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -14641,7 +14645,7 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="J31">
         <f>C31-$C$29</f>
@@ -14664,9 +14668,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -14684,7 +14688,7 @@
         <v>11</v>
       </c>
       <c r="I32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J32">
         <f>C32-$C$29</f>
@@ -14707,9 +14711,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -14727,7 +14731,7 @@
         <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J33">
         <f>C33-$C$29</f>
@@ -14750,46 +14754,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14">
-      <c r="B34" s="89" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-    </row>
-    <row r="36" spans="2:14">
-      <c r="B36" s="100" t="s">
-        <v>178</v>
-      </c>
-      <c r="C36" s="100"/>
-    </row>
-    <row r="37" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B34" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B36" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="105"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F37" t="s">
         <v>173</v>
       </c>
       <c r="G37" t="s">
-        <v>177</v>
-      </c>
-      <c r="H37" s="103" t="s">
-        <v>179</v>
-      </c>
-      <c r="I37" s="103"/>
-    </row>
-    <row r="38" spans="2:14">
+        <v>174</v>
+      </c>
+      <c r="H37" s="108" t="s">
+        <v>185</v>
+      </c>
+      <c r="I37" s="108"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -14807,9 +14811,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C39" s="65">
         <v>1</v>
@@ -14826,16 +14830,16 @@
       <c r="G39">
         <v>3</v>
       </c>
-      <c r="H39" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-    </row>
-    <row r="40" spans="2:14">
+      <c r="H39" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -14853,9 +14857,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -14873,9 +14877,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -14893,32 +14897,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F45" t="s">
         <v>173</v>
       </c>
       <c r="G45" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I45" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -14939,9 +14943,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -14959,12 +14963,12 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -14982,12 +14986,12 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -15005,12 +15009,12 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -15028,43 +15032,43 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13">
-      <c r="B51" s="103" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="103"/>
-    </row>
-    <row r="53" spans="2:13">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B51" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="108"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53" s="74" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F54" t="s">
         <v>173</v>
       </c>
       <c r="G54" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -15082,9 +15086,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -15102,9 +15106,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -15122,9 +15126,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -15142,9 +15146,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -15162,49 +15166,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="G61" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62" s="10" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>173</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="J62" s="67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M62" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63" s="10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -15222,7 +15226,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J63">
         <v>10</v>
@@ -15237,9 +15241,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64" s="10" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -15257,7 +15261,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="J64">
         <v>10</v>
@@ -15272,9 +15276,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B65" s="10" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -15292,7 +15296,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="J65">
         <v>13</v>
@@ -15307,9 +15311,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B66" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -15327,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J66">
         <v>12</v>
@@ -15342,9 +15346,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B67" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -15362,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J67">
         <v>14</v>
@@ -15377,15 +15381,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
-      <c r="B71" s="89" t="s">
-        <v>190</v>
-      </c>
-      <c r="C71" s="89"/>
-      <c r="D71" s="89"/>
-      <c r="E71" s="89"/>
-    </row>
-    <row r="74" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B71" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="65"/>
       <c r="B74" s="65"/>
       <c r="C74" s="65"/>

--- a/02_Exercises/Everything.xlsx
+++ b/02_Exercises/Everything.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2445a1c52d39f861/Documents/Work/Modules/Year 3/LPR 381/Linear-Programming-101/Exercises/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2445a1c52d39f861/Documents/Work/Modules/Year 3/LPR 381/Linear-Programming-101/02_Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="564" documentId="13_ncr:1_{2AD2EC19-E879-447A-B539-4C9D00CDAF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B78D423-8EFD-435A-A6AE-C709B6C9EF16}"/>
+  <xr:revisionPtr revIDLastSave="567" documentId="13_ncr:1_{2AD2EC19-E879-447A-B539-4C9D00CDAF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F3A9831-32C3-4D31-88B2-414D8E8CF47E}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Branch &amp; Bound" sheetId="1" r:id="rId1"/>
@@ -18,41 +18,119 @@
     <sheet name="Cutting Plane" sheetId="5" r:id="rId3"/>
     <sheet name="hUNG 1" sheetId="6" r:id="rId4"/>
     <sheet name="Hung 2" sheetId="7" r:id="rId5"/>
+    <sheet name="Location" sheetId="8" r:id="rId6"/>
+    <sheet name="Fixed Charges" sheetId="9" r:id="rId7"/>
+    <sheet name="KnapSack" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Branch &amp; Bound'!$P$14:$Q$14</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'Fixed Charges'!$C$53:$H$53</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">Location!$B$33:$Q$33</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Branch &amp; Bound'!$R$16</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Fixed Charges'!$F$53:$H$53</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">Location!$B$33:$M$33</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Branch &amp; Bound'!$R$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Fixed Charges'!$I$55:$I$59</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">Location!$N$33:$Q$33</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">Location!$R$35:$R$37</definedName>
+    <definedName name="solver_lhs4" localSheetId="5" hidden="1">Location!$R$38:$R$43</definedName>
+    <definedName name="solver_lhs5" localSheetId="5" hidden="1">Location!$R$44</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">5</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Branch &amp; Bound'!$R$15</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'Fixed Charges'!$I$54</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">Location!$R$34</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">5</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">5</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Branch &amp; Bound'!$T$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Branch &amp; Bound'!$T$17</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">'Fixed Charges'!$K$55:$K$59</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">Location!$T$35:$T$37</definedName>
+    <definedName name="solver_rhs4" localSheetId="5" hidden="1">Location!$T$38:$T$43</definedName>
+    <definedName name="solver_rhs5" localSheetId="5" hidden="1">Location!$T$44</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="322">
   <si>
     <t>Problem</t>
   </si>
@@ -921,12 +999,414 @@
   <si>
     <t>select pivot column (smallest value), ratio of ABSOLUTE (Z/Pivot Row) *only on negative values</t>
   </si>
+  <si>
+    <t>SC 3</t>
+  </si>
+  <si>
+    <t>SC 2</t>
+  </si>
+  <si>
+    <t>SC 1</t>
+  </si>
+  <si>
+    <t>capacity 4</t>
+  </si>
+  <si>
+    <t>capacity 3</t>
+  </si>
+  <si>
+    <t>capacity 2</t>
+  </si>
+  <si>
+    <t>capacity 1</t>
+  </si>
+  <si>
+    <t>reg 3</t>
+  </si>
+  <si>
+    <t>reg 2</t>
+  </si>
+  <si>
+    <t>reg 1</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>obj</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>x43</t>
+  </si>
+  <si>
+    <t>x42</t>
+  </si>
+  <si>
+    <t>x41</t>
+  </si>
+  <si>
+    <t>x33</t>
+  </si>
+  <si>
+    <t>x32</t>
+  </si>
+  <si>
+    <t>x31</t>
+  </si>
+  <si>
+    <t>x23</t>
+  </si>
+  <si>
+    <t>x22</t>
+  </si>
+  <si>
+    <t>x21</t>
+  </si>
+  <si>
+    <t>x13</t>
+  </si>
+  <si>
+    <t>x12</t>
+  </si>
+  <si>
+    <t>x11</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>Perth</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Step 1) Solver</t>
+  </si>
+  <si>
+    <t>The costs (including production and shipping costs) of sending one unit from a plant to a region are shown in the table.  It is desired to meet weekly demands at minimum cost, subject to the preceding information and the following restrictions: 
+ If the Sydney warehouse is opened, then the Perth warehouse must be opened. 
+At most two warehouses can be opened. Either the Melbourne or the Perth warehouse must be opened.
+Either the Melbourne or the Perth warehouse must be opened.</t>
+  </si>
+  <si>
+    <t>each warehouse max 100</t>
+  </si>
+  <si>
+    <t>Melbourne: $150</t>
+  </si>
+  <si>
+    <t>Region 3: 40 units</t>
+  </si>
+  <si>
+    <t>Brisbane: $300</t>
+  </si>
+  <si>
+    <t>Region 2: 70 units</t>
+  </si>
+  <si>
+    <t>Perth: $500</t>
+  </si>
+  <si>
+    <t>Region 1: 80 units</t>
+  </si>
+  <si>
+    <t>Sydney: $400</t>
+  </si>
+  <si>
+    <t>Weekly Demand (units)</t>
+  </si>
+  <si>
+    <t>Weekly Fixed Costs (AU$)</t>
+  </si>
+  <si>
+    <t>Region 3</t>
+  </si>
+  <si>
+    <t>Region 2</t>
+  </si>
+  <si>
+    <t>Region 1</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>A company is considering opening warehouses in four cities:  Sydney, Perth, Brisbane, and Melbourne.  
+Each warehouse can ship 100 units per week.  The weekly fixed cost of keeping each warehouse open 
+is AU$400 for Sydney, AU$500 for Perth, AU$300 for Brisbane, and AU$150 for Melbourne.  Region 1 
+of the country requires 80 units per week, region 2 requires 70 units per week, and region 3 requires 
+40 units per week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>-26*</t>
+  </si>
+  <si>
+    <t>-24*</t>
+  </si>
+  <si>
+    <t>note: They are costs so they are negative!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1 yi values are arbitrary. Picking the largest value from all of the above answers is good. </t>
+  </si>
+  <si>
+    <t>3. Set up solver.</t>
+  </si>
+  <si>
+    <t>x3 = 40</t>
+  </si>
+  <si>
+    <t>x2 = 53.33</t>
+  </si>
+  <si>
+    <t>x1 = 40</t>
+  </si>
+  <si>
+    <t>4(0) + 3(0) + 4x3 &lt;= 160</t>
+  </si>
+  <si>
+    <t>4(0) + 3x2 + 4(0) &lt;= 160</t>
+  </si>
+  <si>
+    <t>4x1 + 3(0) + 4(0) &lt;= 160</t>
+  </si>
+  <si>
+    <t>x3 = 25</t>
+  </si>
+  <si>
+    <t>x2 = 75</t>
+  </si>
+  <si>
+    <t>x1 = 50</t>
+  </si>
+  <si>
+    <t>3(0) + 2(0) + 6x3 = 150</t>
+  </si>
+  <si>
+    <t>3(0) + 2x2 + 6(0) = 150</t>
+  </si>
+  <si>
+    <t>3x1 + 2(0) + 6(0) = 150</t>
+  </si>
+  <si>
+    <t>2.1 Pick the lowest of each of the results for each xi (highlighted in green), since those "choke" the higher possibilities.</t>
+  </si>
+  <si>
+    <t>2. Check the maximum amount you can make of each item i for xi.</t>
+  </si>
+  <si>
+    <t>y1,y2,y3 = 0 or 1</t>
+  </si>
+  <si>
+    <t>x1,x2,x3 integers</t>
+  </si>
+  <si>
+    <t>x1,x2,x3 &gt;= 0</t>
+  </si>
+  <si>
+    <t>Sign Restrictions:</t>
+  </si>
+  <si>
+    <t>4x1 + 3x2 + 4x3 &lt;= 160</t>
+  </si>
+  <si>
+    <t>Cloth Constraint:</t>
+  </si>
+  <si>
+    <t>3x1 + 2x2 + 6x3 &lt;= 150</t>
+  </si>
+  <si>
+    <t>Labour Constraint:</t>
+  </si>
+  <si>
+    <t>max z = 6x1 + 4x2 + 7x3 - 200y1 - 150y2 - 100y3</t>
+  </si>
+  <si>
+    <t>Objective Function:</t>
+  </si>
+  <si>
+    <t>xi = number of item i to be manufactured.</t>
+  </si>
+  <si>
+    <t>yi = the binary variable of whether we rent the machine or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1. Declaring decision variables: </t>
+  </si>
+  <si>
+    <t>1. Formulate an IP model to (in this case) maximise Amandla's weekly profit.</t>
+  </si>
+  <si>
+    <t>next sub problem, x5 = 0, x5 = 1</t>
+  </si>
+  <si>
+    <t>next sub problem, x2 = 0, x2 = 1</t>
+  </si>
+  <si>
+    <t>173/2</t>
+  </si>
+  <si>
+    <t>Z-Value</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>100/200</t>
+  </si>
+  <si>
+    <t>300/600</t>
+  </si>
+  <si>
+    <t>100/800</t>
+  </si>
+  <si>
+    <t>Starting Capacity</t>
+  </si>
+  <si>
+    <t>Remaining Volume</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>Volume (dm³)</t>
+  </si>
+  <si>
+    <t>Value (R 1000)</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Sub-P 2: x1=1</t>
+  </si>
+  <si>
+    <t>Sub-P 1: x1=0</t>
+  </si>
+  <si>
+    <t>since we have x1 = 1/8, we create 2 sub problems, x=0 and x=1, move it to the top of our selection table</t>
+  </si>
+  <si>
+    <t>Step 4) sub problems</t>
+  </si>
+  <si>
+    <t>we do 60*1/8</t>
+  </si>
+  <si>
+    <t>and since we are only including 1/8th of x1</t>
+  </si>
+  <si>
+    <t>for the Z-value, we do the value*include</t>
+  </si>
+  <si>
+    <t>so we are only using 1/8 of x1</t>
+  </si>
+  <si>
+    <t>since we run out, we now do remaining/consume</t>
+  </si>
+  <si>
+    <t>Step 3) First Problem</t>
+  </si>
+  <si>
+    <t>10/200</t>
+  </si>
+  <si>
+    <t>TV Set</t>
+  </si>
+  <si>
+    <t>31/400</t>
+  </si>
+  <si>
+    <t>Sofa</t>
+  </si>
+  <si>
+    <t>14/300</t>
+  </si>
+  <si>
+    <t>Stereo</t>
+  </si>
+  <si>
+    <t>48/600</t>
+  </si>
+  <si>
+    <t>Dining Room set</t>
+  </si>
+  <si>
+    <t>rank from highest to lowest</t>
+  </si>
+  <si>
+    <t>60/800</t>
+  </si>
+  <si>
+    <t>Bedroom set</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Ratio (Value/Volume)</t>
+  </si>
+  <si>
+    <t>Step 2) Ratio Table</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>max Z</t>
+  </si>
+  <si>
+    <t>xi is binary</t>
+  </si>
+  <si>
+    <t>800x1 + 600x2 + 300x3 + 400x4 + 200x5 &lt;= 1100</t>
+  </si>
+  <si>
+    <t>max z = 60x1 + 48x2 + 14x3 + 31x4 + 10x5</t>
+  </si>
+  <si>
+    <t>Volume (dm3)</t>
+  </si>
+  <si>
+    <t>Jack is moving from Gauteng to Mpumalanga and has rented a truck that can haul up to 1 100 dm3 of 
+furniture. The volume and value of each item Jack is considering moving on the truck are given in the 
+table.  Which items should Jack bring to Mpumalanga?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,8 +1515,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1145,8 +1639,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1351,11 +1857,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1442,6 +1963,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1543,6 +2085,30 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6671,6 +7237,89 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7448550" cy="3465719"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26D839E-78F1-48E5-BA8C-577ACBE9AD73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="184150"/>
+          <a:ext cx="7448550" cy="3465719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9974067" cy="3003983"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D41AE60-C847-4F5A-8416-13531043A6FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="184150"/>
+          <a:ext cx="9974067" cy="3003983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -8397,7 +9046,7 @@
   <dimension ref="A1:AJ137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+      <selection activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8407,130 +9056,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="78"/>
+      <c r="A1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="87"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="81"/>
+      <c r="A2" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="90"/>
     </row>
     <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="81"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="84"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="93"/>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="88"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="97"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="O12" s="89" t="s">
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="100"/>
+      <c r="O12" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="91"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="100"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -8678,11 +9327,11 @@
       <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
       <c r="H17" t="s">
@@ -8709,15 +9358,15 @@
     </row>
     <row r="20" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="100"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
@@ -8794,17 +9443,17 @@
       <c r="H28" s="9"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="91"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="100"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
@@ -9179,28 +9828,28 @@
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A55" s="89" t="s">
+      <c r="A55" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="90"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="91"/>
-      <c r="R55" s="89" t="s">
+      <c r="B55" s="99"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="100"/>
+      <c r="R55" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="S55" s="90"/>
-      <c r="T55" s="90"/>
-      <c r="U55" s="90"/>
-      <c r="V55" s="90"/>
-      <c r="W55" s="90"/>
-      <c r="X55" s="90"/>
-      <c r="Y55" s="90"/>
-      <c r="Z55" s="91"/>
+      <c r="S55" s="99"/>
+      <c r="T55" s="99"/>
+      <c r="U55" s="99"/>
+      <c r="V55" s="99"/>
+      <c r="W55" s="99"/>
+      <c r="X55" s="99"/>
+      <c r="Y55" s="99"/>
+      <c r="Z55" s="100"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
@@ -12319,72 +12968,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="49"/>
@@ -12917,36 +13566,36 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
@@ -12967,10 +13616,10 @@
       <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="97"/>
+      <c r="K6" s="106"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
@@ -12991,11 +13640,11 @@
       <c r="G7">
         <v>41.25</v>
       </c>
-      <c r="J7" s="94" t="s">
+      <c r="J7" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8">
@@ -13016,11 +13665,11 @@
       <c r="G8">
         <v>2.25</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="J8" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="65">
@@ -13043,12 +13692,12 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="J14" s="85" t="s">
+      <c r="J14" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J18" t="s">
@@ -13056,26 +13705,26 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="H21" s="85" t="s">
+      <c r="H21" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="F22" s="94" t="s">
+      <c r="F22" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="94"/>
+      <c r="G22" s="103"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G24" s="85" t="s">
+      <c r="G24" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
@@ -13162,12 +13811,12 @@
       <c r="G30">
         <v>3.75</v>
       </c>
-      <c r="I30" s="85" t="s">
+      <c r="I30" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="64">
@@ -13268,13 +13917,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="85" t="s">
+      <c r="H37" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38">
@@ -13355,12 +14004,12 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="M1" s="100" t="s">
+      <c r="M1" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
       <c r="Q1" s="19"/>
       <c r="R1" s="19"/>
       <c r="S1" s="20"/>
@@ -13424,11 +14073,11 @@
       <c r="P4" s="5">
         <v>4</v>
       </c>
-      <c r="Q4" s="102" t="s">
+      <c r="Q4" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="R4" s="103"/>
-      <c r="S4" s="104"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="113"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
@@ -13492,14 +14141,14 @@
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="F8" s="106" t="s">
+      <c r="C8" s="114"/>
+      <c r="F8" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="107"/>
+      <c r="G8" s="116"/>
       <c r="M8" s="4"/>
       <c r="S8" s="5"/>
     </row>
@@ -13517,12 +14166,12 @@
         <v>144</v>
       </c>
       <c r="F9" s="66"/>
-      <c r="M9" s="99" t="s">
+      <c r="M9" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -13544,12 +14193,12 @@
       <c r="F10" t="s">
         <v>162</v>
       </c>
-      <c r="M10" s="99" t="s">
+      <c r="M10" s="108" t="s">
         <v>161</v>
       </c>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -13587,11 +14236,11 @@
         <f>E6-$D$6</f>
         <v>4</v>
       </c>
-      <c r="M12" s="99" t="s">
+      <c r="M12" s="108" t="s">
         <v>160</v>
       </c>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -13610,14 +14259,14 @@
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="F14" s="106" t="s">
+      <c r="C14" s="114"/>
+      <c r="F14" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="G14" s="107"/>
+      <c r="G14" s="116"/>
       <c r="M14" s="4" t="s">
         <v>86</v>
       </c>
@@ -13729,10 +14378,10 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="105"/>
+      <c r="C20" s="114"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
@@ -13761,10 +14410,10 @@
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="G22" s="108" t="s">
+      <c r="G22" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="108"/>
+      <c r="H22" s="117"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
@@ -13779,12 +14428,12 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="G23" s="85" t="s">
+      <c r="G23" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
@@ -13801,45 +14450,45 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="85"/>
+      <c r="C26" s="94"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
@@ -13996,10 +14645,10 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="109"/>
+      <c r="C2" s="118"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
@@ -14104,10 +14753,10 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="105"/>
+      <c r="C9" s="114"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
@@ -14230,10 +14879,10 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="105"/>
+      <c r="C18" s="114"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
@@ -14489,17 +15138,17 @@
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="105"/>
+      <c r="C27" s="114"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
@@ -14755,17 +15404,17 @@
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B34" s="85" t="s">
+      <c r="B34" s="94" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B36" s="105" t="s">
+      <c r="B36" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="C36" s="105"/>
+      <c r="C36" s="114"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
@@ -14786,10 +15435,10 @@
       <c r="G37" t="s">
         <v>174</v>
       </c>
-      <c r="H37" s="108" t="s">
+      <c r="H37" s="117" t="s">
         <v>185</v>
       </c>
-      <c r="I37" s="108"/>
+      <c r="I37" s="117"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
@@ -14830,12 +15479,12 @@
       <c r="G39">
         <v>3</v>
       </c>
-      <c r="H39" s="85" t="s">
+      <c r="H39" s="94" t="s">
         <v>184</v>
       </c>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
@@ -15036,10 +15685,10 @@
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B51" s="108" t="s">
+      <c r="B51" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="108"/>
+      <c r="C51" s="117"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53" s="74" t="s">
@@ -15382,12 +16031,12 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B71" s="85" t="s">
+      <c r="B71" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="94"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="65"/>
@@ -15423,4 +16072,2448 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ABC565-7C3C-4874-B8D6-6FA6947E12A9}">
+  <dimension ref="A1:T44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="115" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="115"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" t="s">
+        <v>237</v>
+      </c>
+      <c r="J8" t="s">
+        <v>236</v>
+      </c>
+      <c r="N8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>234</v>
+      </c>
+      <c r="N9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>232</v>
+      </c>
+      <c r="N10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>230</v>
+      </c>
+      <c r="N11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="115" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" s="115"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" s="115"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" s="115"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" s="77"/>
+      <c r="B30" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" t="s">
+        <v>223</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="L30" t="s">
+        <v>221</v>
+      </c>
+      <c r="M30" t="s">
+        <v>221</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="O30" t="s">
+        <v>223</v>
+      </c>
+      <c r="P30" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>221</v>
+      </c>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" s="77"/>
+      <c r="B31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I31" t="s">
+        <v>199</v>
+      </c>
+      <c r="J31" t="s">
+        <v>198</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L31" t="s">
+        <v>199</v>
+      </c>
+      <c r="M31" t="s">
+        <v>198</v>
+      </c>
+      <c r="N31" s="78"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B32" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I32" t="s">
+        <v>213</v>
+      </c>
+      <c r="J32" t="s">
+        <v>212</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="L32" t="s">
+        <v>210</v>
+      </c>
+      <c r="M32" t="s">
+        <v>209</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O32" t="s">
+        <v>207</v>
+      </c>
+      <c r="P32" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>205</v>
+      </c>
+      <c r="R32" t="s">
+        <v>204</v>
+      </c>
+      <c r="S32" t="s">
+        <v>26</v>
+      </c>
+      <c r="T32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>70</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>80</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>10</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="7">
+        <v>20</v>
+      </c>
+      <c r="C34" s="8">
+        <v>40</v>
+      </c>
+      <c r="D34" s="8">
+        <v>50</v>
+      </c>
+      <c r="E34" s="7">
+        <v>48</v>
+      </c>
+      <c r="F34" s="8">
+        <v>15</v>
+      </c>
+      <c r="G34" s="8">
+        <v>26</v>
+      </c>
+      <c r="H34" s="7">
+        <v>26</v>
+      </c>
+      <c r="I34" s="8">
+        <v>35</v>
+      </c>
+      <c r="J34" s="8">
+        <v>18</v>
+      </c>
+      <c r="K34" s="7">
+        <v>24</v>
+      </c>
+      <c r="L34" s="8">
+        <v>50</v>
+      </c>
+      <c r="M34" s="8">
+        <v>35</v>
+      </c>
+      <c r="N34" s="7">
+        <v>400</v>
+      </c>
+      <c r="O34" s="8">
+        <v>500</v>
+      </c>
+      <c r="P34" s="8">
+        <v>300</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>150</v>
+      </c>
+      <c r="R34" s="36">
+        <f t="shared" ref="R34:R44" si="0">SUMPRODUCT($B$33:$Q$33,B34:Q34)</f>
+        <v>4750</v>
+      </c>
+      <c r="S34" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="T34" s="8"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1</v>
+      </c>
+      <c r="N35" s="4"/>
+      <c r="R35" s="36">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="S35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="R36" s="36">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="S36" t="s">
+        <v>32</v>
+      </c>
+      <c r="T36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8">
+        <v>1</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8">
+        <v>1</v>
+      </c>
+      <c r="N37" s="7"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="36">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T37" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="N38" s="4">
+        <v>-100</v>
+      </c>
+      <c r="R38" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S38" t="s">
+        <v>111</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39">
+        <v>-100</v>
+      </c>
+      <c r="R39" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S39" t="s">
+        <v>111</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="P40">
+        <v>-100</v>
+      </c>
+      <c r="R40" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S40" t="s">
+        <v>111</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="7">
+        <v>1</v>
+      </c>
+      <c r="L41" s="8">
+        <v>1</v>
+      </c>
+      <c r="M41" s="8">
+        <v>1</v>
+      </c>
+      <c r="N41" s="7"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41">
+        <v>-100</v>
+      </c>
+      <c r="R41" s="36">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>193</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="N42" s="4">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>-1</v>
+      </c>
+      <c r="R42" s="36">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S42" t="s">
+        <v>111</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="N43" s="4">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43" s="36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S43" t="s">
+        <v>111</v>
+      </c>
+      <c r="T43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44" s="36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S44" t="s">
+        <v>110</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:L5"/>
+    <mergeCell ref="A17:K22"/>
+    <mergeCell ref="A29:T29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A21DF1C-E9F8-46CF-8157-5F40288CF875}">
+  <dimension ref="A22:R60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="R60" sqref="R60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="120" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C23" s="120" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D24" s="76" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D25" s="94" t="s">
+        <v>272</v>
+      </c>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="124" t="s">
+        <v>271</v>
+      </c>
+      <c r="C27" s="124"/>
+      <c r="D27" s="120" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="122" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="122"/>
+      <c r="D29" s="120" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="122" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" s="122"/>
+      <c r="D30" s="120" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="123" t="s">
+        <v>265</v>
+      </c>
+      <c r="C32" s="123"/>
+      <c r="D32" s="120" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" s="120"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D33" s="120" t="s">
+        <v>263</v>
+      </c>
+      <c r="E33" s="120"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D34" s="120" t="s">
+        <v>262</v>
+      </c>
+      <c r="E34" s="120"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B36" s="120" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C38" s="120" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="120"/>
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="120"/>
+      <c r="N38" s="120"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C40" s="120" t="s">
+        <v>259</v>
+      </c>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120" t="s">
+        <v>258</v>
+      </c>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120" t="s">
+        <v>257</v>
+      </c>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C41" s="119" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="119" t="s">
+        <v>255</v>
+      </c>
+      <c r="G41" s="119"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="121" t="s">
+        <v>254</v>
+      </c>
+      <c r="J41" s="121"/>
+      <c r="K41" s="121"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C43" s="120" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120" t="s">
+        <v>251</v>
+      </c>
+      <c r="J43" s="120"/>
+      <c r="K43" s="120"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C44" s="121" t="s">
+        <v>250</v>
+      </c>
+      <c r="D44" s="121"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121" t="s">
+        <v>249</v>
+      </c>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="119" t="s">
+        <v>248</v>
+      </c>
+      <c r="J44" s="119"/>
+      <c r="K44" s="119"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B46" s="120" t="s">
+        <v>247</v>
+      </c>
+      <c r="C46" s="120"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="77"/>
+      <c r="B47" s="77"/>
+      <c r="C47" t="s">
+        <v>246</v>
+      </c>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="77"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" s="77"/>
+      <c r="C48" s="120" t="s">
+        <v>245</v>
+      </c>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="120"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="77"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50" s="77"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="77"/>
+    </row>
+    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="77"/>
+      <c r="L51" s="77"/>
+      <c r="M51" s="77"/>
+    </row>
+    <row r="52" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="77"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="G52" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="H52" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="I52" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="J52" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" s="77"/>
+      <c r="M52" s="77"/>
+    </row>
+    <row r="53" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="77"/>
+      <c r="B53" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="79">
+        <v>0</v>
+      </c>
+      <c r="D53" s="79">
+        <v>0</v>
+      </c>
+      <c r="E53" s="79">
+        <v>24.999999999999996</v>
+      </c>
+      <c r="F53" s="79">
+        <v>0</v>
+      </c>
+      <c r="G53" s="79">
+        <v>0</v>
+      </c>
+      <c r="H53" s="79">
+        <v>1</v>
+      </c>
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="77"/>
+      <c r="M53" s="77"/>
+    </row>
+    <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="77"/>
+      <c r="B54" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="79">
+        <v>6</v>
+      </c>
+      <c r="D54" s="79">
+        <v>4</v>
+      </c>
+      <c r="E54" s="79">
+        <v>7</v>
+      </c>
+      <c r="F54" s="79">
+        <v>-200</v>
+      </c>
+      <c r="G54" s="79">
+        <v>-150</v>
+      </c>
+      <c r="H54" s="79">
+        <v>-100</v>
+      </c>
+      <c r="I54" s="81">
+        <f t="shared" ref="I54:I59" si="0">SUMPRODUCT($C$53:$H$53,C54:H54)</f>
+        <v>74.999999999999972</v>
+      </c>
+      <c r="J54" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="K54" s="79"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="77"/>
+    </row>
+    <row r="55" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="77"/>
+      <c r="B55" s="79">
+        <v>1</v>
+      </c>
+      <c r="C55" s="79">
+        <v>3</v>
+      </c>
+      <c r="D55" s="79">
+        <v>2</v>
+      </c>
+      <c r="E55" s="79">
+        <v>6</v>
+      </c>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79">
+        <f t="shared" si="0"/>
+        <v>149.99999999999997</v>
+      </c>
+      <c r="J55" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="K55" s="79">
+        <v>150</v>
+      </c>
+      <c r="L55" s="77"/>
+      <c r="M55" s="77"/>
+    </row>
+    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="77"/>
+      <c r="B56" s="79">
+        <v>2</v>
+      </c>
+      <c r="C56" s="79">
+        <v>4</v>
+      </c>
+      <c r="D56" s="79">
+        <v>3</v>
+      </c>
+      <c r="E56" s="79">
+        <v>4</v>
+      </c>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79">
+        <f t="shared" si="0"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="J56" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="K56" s="79">
+        <v>160</v>
+      </c>
+      <c r="L56" s="77"/>
+      <c r="M56" s="77"/>
+    </row>
+    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="77"/>
+      <c r="B57" s="79">
+        <v>3</v>
+      </c>
+      <c r="C57" s="79">
+        <v>1</v>
+      </c>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="K57" s="79">
+        <v>0</v>
+      </c>
+      <c r="L57" s="77"/>
+      <c r="M57" s="77"/>
+    </row>
+    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="79">
+        <v>4</v>
+      </c>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79">
+        <v>1</v>
+      </c>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="K58" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="79">
+        <v>5</v>
+      </c>
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79">
+        <v>1</v>
+      </c>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="80" t="s">
+        <v>243</v>
+      </c>
+      <c r="I59" s="79">
+        <f t="shared" si="0"/>
+        <v>24.999999999999996</v>
+      </c>
+      <c r="J59" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="K59" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R60" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C38:N38"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="C40:E40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576E4DC8-623E-4966-BC89-F66B6D0BDA05}">
+  <dimension ref="A1:P77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="115" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="115"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="120" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="120" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>48</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>31</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <f>SUMPRODUCT($B$24:$F$24,B25:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <f>SUMPRODUCT($B$24:$F$24,B26:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="105" t="s">
+        <v>314</v>
+      </c>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="125" t="s">
+        <v>289</v>
+      </c>
+      <c r="C32" s="125" t="s">
+        <v>288</v>
+      </c>
+      <c r="D32" s="125" t="s">
+        <v>287</v>
+      </c>
+      <c r="E32" s="125" t="s">
+        <v>313</v>
+      </c>
+      <c r="F32" s="126" t="s">
+        <v>312</v>
+      </c>
+      <c r="G32" s="125" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="125"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>311</v>
+      </c>
+      <c r="C34">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>800</v>
+      </c>
+      <c r="E34" t="s">
+        <v>310</v>
+      </c>
+      <c r="F34">
+        <f>ROUND(C34/D34,3)</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G34">
+        <f>RANK(F34,$F$34:$F$38,0)</f>
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35">
+        <v>48</v>
+      </c>
+      <c r="D35">
+        <v>600</v>
+      </c>
+      <c r="E35" t="s">
+        <v>307</v>
+      </c>
+      <c r="F35">
+        <f>ROUND(C35/D35,3)</f>
+        <v>0.08</v>
+      </c>
+      <c r="G35">
+        <f>RANK(F35,$F$34:$F$38,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>300</v>
+      </c>
+      <c r="E36" t="s">
+        <v>305</v>
+      </c>
+      <c r="F36">
+        <f>ROUND(C36/D36,3)</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="G36">
+        <f>RANK(F36,$F$34:$F$38,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37">
+        <v>31</v>
+      </c>
+      <c r="D37">
+        <v>400</v>
+      </c>
+      <c r="E37" t="s">
+        <v>303</v>
+      </c>
+      <c r="F37">
+        <f>ROUND(C37/D37,3)</f>
+        <v>7.8E-2</v>
+      </c>
+      <c r="G37">
+        <f>RANK(F37,$F$34:$F$38,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>302</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>200</v>
+      </c>
+      <c r="E38" t="s">
+        <v>301</v>
+      </c>
+      <c r="F38">
+        <f>ROUND(C38/D38,3)</f>
+        <v>0.05</v>
+      </c>
+      <c r="G38">
+        <f>RANK(F38,$F$34:$F$38,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="105" t="s">
+        <v>300</v>
+      </c>
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="115" t="s">
+        <v>290</v>
+      </c>
+      <c r="B42" s="115" t="s">
+        <v>289</v>
+      </c>
+      <c r="C42" s="115" t="s">
+        <v>288</v>
+      </c>
+      <c r="D42" s="115" t="s">
+        <v>287</v>
+      </c>
+      <c r="E42" s="115" t="s">
+        <v>286</v>
+      </c>
+      <c r="F42" s="115" t="s">
+        <v>285</v>
+      </c>
+      <c r="G42" s="77"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="115"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>280</v>
+      </c>
+      <c r="B44" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" t="s">
+        <v>280</v>
+      </c>
+      <c r="D44" t="s">
+        <v>280</v>
+      </c>
+      <c r="F44" s="83">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>48</v>
+      </c>
+      <c r="D45">
+        <v>600</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="83">
+        <f>F44-D45</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46">
+        <v>31</v>
+      </c>
+      <c r="D46">
+        <v>400</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="83">
+        <f>F45-D46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>60</v>
+      </c>
+      <c r="D47">
+        <v>800</v>
+      </c>
+      <c r="E47" s="15">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>200</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>280</v>
+      </c>
+      <c r="H48" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>300</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>279</v>
+      </c>
+      <c r="C51" s="82">
+        <f>SUMPRODUCT(C45:C49,E45:E49)</f>
+        <v>86.5</v>
+      </c>
+      <c r="H51" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C52" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="H52" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H53" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A59" s="105" t="s">
+        <v>294</v>
+      </c>
+      <c r="B59" s="105"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="105"/>
+      <c r="I59" s="105"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A64" s="105" t="s">
+        <v>292</v>
+      </c>
+      <c r="B64" s="105"/>
+      <c r="C64" s="105"/>
+      <c r="D64" s="105"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="105"/>
+      <c r="G64" s="105"/>
+      <c r="J64" s="105" t="s">
+        <v>291</v>
+      </c>
+      <c r="K64" s="105"/>
+      <c r="L64" s="105"/>
+      <c r="M64" s="105"/>
+      <c r="N64" s="105"/>
+      <c r="O64" s="105"/>
+      <c r="P64" s="105"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A65" s="115" t="s">
+        <v>290</v>
+      </c>
+      <c r="B65" s="115" t="s">
+        <v>289</v>
+      </c>
+      <c r="C65" s="115" t="s">
+        <v>288</v>
+      </c>
+      <c r="D65" s="115" t="s">
+        <v>287</v>
+      </c>
+      <c r="E65" s="115" t="s">
+        <v>286</v>
+      </c>
+      <c r="F65" s="115" t="s">
+        <v>285</v>
+      </c>
+      <c r="G65" s="77"/>
+      <c r="J65" s="115" t="s">
+        <v>290</v>
+      </c>
+      <c r="K65" s="115" t="s">
+        <v>289</v>
+      </c>
+      <c r="L65" s="115" t="s">
+        <v>288</v>
+      </c>
+      <c r="M65" s="115" t="s">
+        <v>287</v>
+      </c>
+      <c r="N65" s="115" t="s">
+        <v>286</v>
+      </c>
+      <c r="O65" s="115" t="s">
+        <v>285</v>
+      </c>
+      <c r="P65" s="77"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A66" s="115"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="115"/>
+      <c r="D66" s="115"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="115"/>
+      <c r="J66" s="115"/>
+      <c r="K66" s="115"/>
+      <c r="L66" s="115"/>
+      <c r="M66" s="115"/>
+      <c r="N66" s="115"/>
+      <c r="O66" s="115"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" t="s">
+        <v>280</v>
+      </c>
+      <c r="D67" t="s">
+        <v>280</v>
+      </c>
+      <c r="F67" s="83">
+        <v>1100</v>
+      </c>
+      <c r="J67" t="s">
+        <v>280</v>
+      </c>
+      <c r="K67" t="s">
+        <v>284</v>
+      </c>
+      <c r="L67" t="s">
+        <v>280</v>
+      </c>
+      <c r="M67" t="s">
+        <v>280</v>
+      </c>
+      <c r="O67" s="83">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68">
+        <v>60</v>
+      </c>
+      <c r="D68">
+        <v>800</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" s="83">
+        <f>IF(E68&gt;0,F67-D68,F67)</f>
+        <v>1100</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="J68">
+        <v>3</v>
+      </c>
+      <c r="K68" t="s">
+        <v>45</v>
+      </c>
+      <c r="L68">
+        <v>60</v>
+      </c>
+      <c r="M68">
+        <v>800</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" s="83">
+        <f>O67-M68</f>
+        <v>300</v>
+      </c>
+      <c r="P68" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69">
+        <v>48</v>
+      </c>
+      <c r="D69">
+        <v>600</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="83">
+        <f>IF(E69&gt;0,F68-D69,F68)</f>
+        <v>500</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>46</v>
+      </c>
+      <c r="L69">
+        <v>48</v>
+      </c>
+      <c r="M69">
+        <v>600</v>
+      </c>
+      <c r="N69">
+        <f>300/600</f>
+        <v>0.5</v>
+      </c>
+      <c r="O69" s="84" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70">
+        <v>31</v>
+      </c>
+      <c r="D70">
+        <v>400</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="83">
+        <f>IF(E70&gt;0,F69-D70,F69)</f>
+        <v>100</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70" t="s">
+        <v>102</v>
+      </c>
+      <c r="L70">
+        <v>31</v>
+      </c>
+      <c r="M70">
+        <v>400</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" s="83"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>200</v>
+      </c>
+      <c r="E71" s="15">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="F71" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="J71">
+        <v>4</v>
+      </c>
+      <c r="K71" t="s">
+        <v>103</v>
+      </c>
+      <c r="L71">
+        <v>10</v>
+      </c>
+      <c r="M71">
+        <v>200</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72">
+        <v>14</v>
+      </c>
+      <c r="D72">
+        <v>300</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" s="83"/>
+      <c r="J72">
+        <v>5</v>
+      </c>
+      <c r="K72" t="s">
+        <v>101</v>
+      </c>
+      <c r="L72">
+        <v>14</v>
+      </c>
+      <c r="M72">
+        <v>300</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>279</v>
+      </c>
+      <c r="C74" s="82">
+        <f>SUMPRODUCT(C68:C72,E68:E72)</f>
+        <v>84</v>
+      </c>
+      <c r="K74" t="s">
+        <v>279</v>
+      </c>
+      <c r="L74" s="82">
+        <f>SUMPRODUCT(L68:L72,N68:N72)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C75" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="L75" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M76" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D77" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A1:L4"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="J64:P64"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O65:O66"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/02_Exercises/Everything.xlsx
+++ b/02_Exercises/Everything.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2445a1c52d39f861/Documents/Work/Modules/Year 3/LPR 381/Linear-Programming-101/02_Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="567" documentId="13_ncr:1_{2AD2EC19-E879-447A-B539-4C9D00CDAF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F3A9831-32C3-4D31-88B2-414D8E8CF47E}"/>
+  <xr:revisionPtr revIDLastSave="568" documentId="13_ncr:1_{2AD2EC19-E879-447A-B539-4C9D00CDAF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3805D7BD-BA93-434B-A7A4-C56496909BB0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15370" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Branch &amp; Bound" sheetId="1" r:id="rId1"/>
@@ -21,29 +21,37 @@
     <sheet name="Location" sheetId="8" r:id="rId6"/>
     <sheet name="Fixed Charges" sheetId="9" r:id="rId7"/>
     <sheet name="KnapSack" sheetId="10" r:id="rId8"/>
+    <sheet name="Set Covering" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Branch &amp; Bound'!$P$14:$Q$14</definedName>
     <definedName name="solver_adj" localSheetId="6" hidden="1">'Fixed Charges'!$C$53:$H$53</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">Location!$B$33:$Q$33</definedName>
+    <definedName name="solver_adj" localSheetId="8" hidden="1">'Set Covering'!$C$47:$H$47</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Branch &amp; Bound'!$R$16</definedName>
     <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Fixed Charges'!$F$53:$H$53</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">Location!$B$33:$M$33</definedName>
+    <definedName name="solver_lhs1" localSheetId="8" hidden="1">'Set Covering'!$I$49:$I$54</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Branch &amp; Bound'!$R$17</definedName>
     <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Fixed Charges'!$I$55:$I$59</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">Location!$N$33:$Q$33</definedName>
@@ -53,39 +61,51 @@
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">5</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Branch &amp; Bound'!$R$15</definedName>
     <definedName name="solver_opt" localSheetId="6" hidden="1">'Fixed Charges'!$I$54</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">Location!$R$34</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">'Set Covering'!$I$48</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="6" hidden="1">5</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="8" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="5" hidden="1">5</definedName>
@@ -95,6 +115,7 @@
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Branch &amp; Bound'!$T$16</definedName>
     <definedName name="solver_rhs1" localSheetId="6" hidden="1">"binary"</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs1" localSheetId="8" hidden="1">'Set Covering'!$K$49:$K$54</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Branch &amp; Bound'!$T$17</definedName>
     <definedName name="solver_rhs2" localSheetId="6" hidden="1">'Fixed Charges'!$K$55:$K$59</definedName>
     <definedName name="solver_rhs2" localSheetId="5" hidden="1">"binary"</definedName>
@@ -104,33 +125,43 @@
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="8" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -153,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="365">
   <si>
     <t>Problem</t>
   </si>
@@ -1400,6 +1431,135 @@
     <t>Jack is moving from Gauteng to Mpumalanga and has rented a truck that can haul up to 1 100 dm3 of 
 furniture. The volume and value of each item Jack is considering moving on the truck are given in the 
 table.  Which items should Jack bring to Mpumalanga?</t>
+  </si>
+  <si>
+    <t>2 total firestations built in cities 2 and 4 (x2 and x4)</t>
+  </si>
+  <si>
+    <t>Results:</t>
+  </si>
+  <si>
+    <t>Obj</t>
+  </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>Solver</t>
+  </si>
+  <si>
+    <t>Sign Restrictions: Must be 0 or 1</t>
+  </si>
+  <si>
+    <t>&gt;= 1</t>
+  </si>
+  <si>
+    <t>x2+x5+x6</t>
+  </si>
+  <si>
+    <t>x4+x5+x6</t>
+  </si>
+  <si>
+    <t>x3+x4+x5</t>
+  </si>
+  <si>
+    <t>each constraint has &gt;= 1</t>
+  </si>
+  <si>
+    <t>x3+x4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firestationfor each city, </t>
+  </si>
+  <si>
+    <t>x1+x2+x6</t>
+  </si>
+  <si>
+    <t>*Since we need at least 1</t>
+  </si>
+  <si>
+    <t>x1+x2</t>
+  </si>
+  <si>
+    <t>Within 15</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>2. Create constraints based on these times and closest cities:</t>
+  </si>
+  <si>
+    <t>2,5,6</t>
+  </si>
+  <si>
+    <t>4,5,6</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>1,2,6</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1. Compare cities times to one another:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constraints: </t>
+  </si>
+  <si>
+    <t>=&gt; We are minimizing time between all cities</t>
+  </si>
+  <si>
+    <t>min z = x1 +x2 + x3 + x4 + x5 + x6</t>
+  </si>
+  <si>
+    <t>OF:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xi = If fire station placed in city i (1) or not (0) where i = cities 1-6 </t>
+  </si>
+  <si>
+    <t>DV:</t>
+  </si>
+  <si>
+    <t>Formulation:</t>
+  </si>
+  <si>
+    <t>Formulate an IP to determine where and how many fire stations to build.</t>
+  </si>
+  <si>
+    <t>City 6</t>
+  </si>
+  <si>
+    <t>City 5</t>
+  </si>
+  <si>
+    <t>City 4</t>
+  </si>
+  <si>
+    <t>City 3</t>
+  </si>
+  <si>
+    <t>City 2</t>
+  </si>
+  <si>
+    <t>City 1</t>
+  </si>
+  <si>
+    <t>Time between cities:</t>
+  </si>
+  <si>
+    <t>There must be at least 1 station within 15 minutes of each of the 6 cities.</t>
+  </si>
+  <si>
+    <t>Problem:</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1690,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1651,8 +1811,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1872,11 +2068,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1984,6 +2232,18 @@
     <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2023,18 +2283,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2056,6 +2304,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2071,28 +2331,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2101,7 +2346,10 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2110,6 +2358,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9045,7 +9344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
@@ -9056,130 +9355,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="87"/>
+      <c r="A1" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="91"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="90"/>
+      <c r="A2" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
     </row>
     <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="90"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="94"/>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="93"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="97"/>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="91"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="95"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
     </row>
     <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="100"/>
-      <c r="O12" s="98" t="s">
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="87"/>
+      <c r="O12" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="100"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="87"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -9327,11 +9626,11 @@
       <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
       <c r="H17" t="s">
@@ -9358,15 +9657,15 @@
     </row>
     <row r="20" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="100"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="87"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
@@ -9443,17 +9742,17 @@
       <c r="H28" s="9"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="100"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="87"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
@@ -9828,28 +10127,28 @@
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A55" s="98" t="s">
+      <c r="A55" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="99"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="99"/>
-      <c r="I55" s="100"/>
-      <c r="R55" s="98" t="s">
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="87"/>
+      <c r="R55" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="S55" s="99"/>
-      <c r="T55" s="99"/>
-      <c r="U55" s="99"/>
-      <c r="V55" s="99"/>
-      <c r="W55" s="99"/>
-      <c r="X55" s="99"/>
-      <c r="Y55" s="99"/>
-      <c r="Z55" s="100"/>
+      <c r="S55" s="86"/>
+      <c r="T55" s="86"/>
+      <c r="U55" s="86"/>
+      <c r="V55" s="86"/>
+      <c r="W55" s="86"/>
+      <c r="X55" s="86"/>
+      <c r="Y55" s="86"/>
+      <c r="Z55" s="87"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
@@ -12935,6 +13234,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N4"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
     <mergeCell ref="A55:I55"/>
     <mergeCell ref="R55:Z55"/>
     <mergeCell ref="B23:H23"/>
@@ -12942,11 +13246,6 @@
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="O12:U12"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N4"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13692,12 +13991,12 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="J14" s="94" t="s">
+      <c r="J14" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J18" t="s">
@@ -13705,12 +14004,12 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="H21" s="94" t="s">
+      <c r="H21" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F22" s="103" t="s">
@@ -13719,12 +14018,12 @@
       <c r="G22" s="103"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G24" s="94" t="s">
+      <c r="G24" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
@@ -13811,12 +14110,12 @@
       <c r="G30">
         <v>3.75</v>
       </c>
-      <c r="I30" s="94" t="s">
+      <c r="I30" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="64">
@@ -13917,13 +14216,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="94" t="s">
+      <c r="H37" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="98"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38">
@@ -14004,12 +14303,12 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="M1" s="109" t="s">
+      <c r="M1" s="113" t="s">
         <v>169</v>
       </c>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
       <c r="Q1" s="19"/>
       <c r="R1" s="19"/>
       <c r="S1" s="20"/>
@@ -14073,11 +14372,11 @@
       <c r="P4" s="5">
         <v>4</v>
       </c>
-      <c r="Q4" s="111" t="s">
+      <c r="Q4" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="R4" s="112"/>
-      <c r="S4" s="113"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="117"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
@@ -14141,14 +14440,14 @@
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="109" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="F8" s="115" t="s">
+      <c r="C8" s="109"/>
+      <c r="F8" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="116"/>
+      <c r="G8" s="111"/>
       <c r="M8" s="4"/>
       <c r="S8" s="5"/>
     </row>
@@ -14169,9 +14468,9 @@
       <c r="M9" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -14196,9 +14495,9 @@
       <c r="M10" s="108" t="s">
         <v>161</v>
       </c>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -14239,8 +14538,8 @@
       <c r="M12" s="108" t="s">
         <v>160</v>
       </c>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -14259,14 +14558,14 @@
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="109" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="F14" s="115" t="s">
+      <c r="C14" s="109"/>
+      <c r="F14" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="G14" s="116"/>
+      <c r="G14" s="111"/>
       <c r="M14" s="4" t="s">
         <v>86</v>
       </c>
@@ -14378,10 +14677,10 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="109" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="114"/>
+      <c r="C20" s="109"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
@@ -14410,10 +14709,10 @@
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="G22" s="117" t="s">
+      <c r="G22" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="117"/>
+      <c r="H22" s="112"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
@@ -14428,12 +14727,12 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="G23" s="94" t="s">
+      <c r="G23" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
@@ -14450,45 +14749,45 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="94"/>
+      <c r="C26" s="98"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B30" s="94" t="s">
+      <c r="B30" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
@@ -14612,6 +14911,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="M9:P9"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="B30:K30"/>
@@ -14622,12 +14927,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G23:J23"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="M9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14753,10 +15052,10 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="109" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="114"/>
+      <c r="C9" s="109"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
@@ -14879,10 +15178,10 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="109" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="114"/>
+      <c r="C18" s="109"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
@@ -15138,17 +15437,17 @@
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="98" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="109" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="114"/>
+      <c r="C27" s="109"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
@@ -15404,17 +15703,17 @@
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="109" t="s">
         <v>186</v>
       </c>
-      <c r="C36" s="114"/>
+      <c r="C36" s="109"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
@@ -15435,10 +15734,10 @@
       <c r="G37" t="s">
         <v>174</v>
       </c>
-      <c r="H37" s="117" t="s">
+      <c r="H37" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="I37" s="117"/>
+      <c r="I37" s="112"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
@@ -15479,12 +15778,12 @@
       <c r="G39">
         <v>3</v>
       </c>
-      <c r="H39" s="94" t="s">
+      <c r="H39" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
@@ -15685,10 +15984,10 @@
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B51" s="117" t="s">
+      <c r="B51" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="117"/>
+      <c r="C51" s="112"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53" s="74" t="s">
@@ -16031,12 +16330,12 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B71" s="94" t="s">
+      <c r="B71" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
+      <c r="C71" s="98"/>
+      <c r="D71" s="98"/>
+      <c r="E71" s="98"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="65"/>
@@ -16085,76 +16384,76 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="110" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
@@ -16282,84 +16581,84 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="115"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="115"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="115"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="115"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="115"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="105" t="s">
@@ -16996,24 +17295,24 @@
   </cols>
   <sheetData>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="119" t="s">
         <v>274</v>
       </c>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D24" s="76" t="s">
@@ -17021,26 +17320,26 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D25" s="94" t="s">
+      <c r="D25" s="98" t="s">
         <v>272</v>
       </c>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="124" t="s">
+      <c r="B27" s="120" t="s">
         <v>271</v>
       </c>
-      <c r="C27" s="124"/>
-      <c r="D27" s="120" t="s">
+      <c r="C27" s="120"/>
+      <c r="D27" s="119" t="s">
         <v>270</v>
       </c>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
@@ -17048,149 +17347,149 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="122" t="s">
+      <c r="B29" s="121" t="s">
         <v>269</v>
       </c>
-      <c r="C29" s="122"/>
-      <c r="D29" s="120" t="s">
+      <c r="C29" s="121"/>
+      <c r="D29" s="119" t="s">
         <v>268</v>
       </c>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="122" t="s">
+      <c r="B30" s="121" t="s">
         <v>267</v>
       </c>
-      <c r="C30" s="122"/>
-      <c r="D30" s="120" t="s">
+      <c r="C30" s="121"/>
+      <c r="D30" s="119" t="s">
         <v>266</v>
       </c>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="123" t="s">
+      <c r="B32" s="122" t="s">
         <v>265</v>
       </c>
-      <c r="C32" s="123"/>
-      <c r="D32" s="120" t="s">
+      <c r="C32" s="122"/>
+      <c r="D32" s="119" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="120"/>
+      <c r="E32" s="119"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D33" s="120" t="s">
+      <c r="D33" s="119" t="s">
         <v>263</v>
       </c>
-      <c r="E33" s="120"/>
+      <c r="E33" s="119"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D34" s="120" t="s">
+      <c r="D34" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="E34" s="120"/>
+      <c r="E34" s="119"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B36" s="120" t="s">
+      <c r="B36" s="119" t="s">
         <v>261</v>
       </c>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="119"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C38" s="120" t="s">
+      <c r="C38" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="120"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="120"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="120"/>
-      <c r="N38" s="120"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="119"/>
+      <c r="M38" s="119"/>
+      <c r="N38" s="119"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C40" s="120" t="s">
+      <c r="C40" s="119" t="s">
         <v>259</v>
       </c>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120" t="s">
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119" t="s">
         <v>258</v>
       </c>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120" t="s">
+      <c r="G40" s="119"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119" t="s">
         <v>257</v>
       </c>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
+      <c r="J40" s="119"/>
+      <c r="K40" s="119"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C41" s="119" t="s">
+      <c r="C41" s="124" t="s">
         <v>256</v>
       </c>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="119" t="s">
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124" t="s">
         <v>255</v>
       </c>
-      <c r="G41" s="119"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="121" t="s">
+      <c r="G41" s="124"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="123" t="s">
         <v>254</v>
       </c>
-      <c r="J41" s="121"/>
-      <c r="K41" s="121"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="123"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C43" s="120" t="s">
+      <c r="C43" s="119" t="s">
         <v>253</v>
       </c>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120" t="s">
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="119" t="s">
         <v>252</v>
       </c>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120" t="s">
+      <c r="G43" s="119"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119" t="s">
         <v>251</v>
       </c>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="119"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C44" s="121" t="s">
+      <c r="C44" s="123" t="s">
         <v>250</v>
       </c>
-      <c r="D44" s="121"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="121" t="s">
+      <c r="D44" s="123"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="123" t="s">
         <v>249</v>
       </c>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="119" t="s">
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="124" t="s">
         <v>248</v>
       </c>
-      <c r="J44" s="119"/>
-      <c r="K44" s="119"/>
+      <c r="J44" s="124"/>
+      <c r="K44" s="124"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B46" s="120" t="s">
+      <c r="B46" s="119" t="s">
         <v>247</v>
       </c>
-      <c r="C46" s="120"/>
+      <c r="C46" s="119"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="77"/>
@@ -17205,12 +17504,12 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="77"/>
-      <c r="C48" s="120" t="s">
+      <c r="C48" s="119" t="s">
         <v>245</v>
       </c>
-      <c r="D48" s="120"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="120"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="119"/>
+      <c r="F48" s="119"/>
       <c r="L48" s="77"/>
       <c r="M48" s="77"/>
     </row>
@@ -17470,18 +17769,7 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C40:E40"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="C48:F48"/>
@@ -17498,7 +17786,18 @@
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="F43:H43"/>
     <mergeCell ref="I43:K43"/>
-    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17521,62 +17820,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="110" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -17645,22 +17944,22 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="119" t="s">
         <v>319</v>
       </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="119" t="s">
         <v>318</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -17942,33 +18241,33 @@
       <c r="I41" s="105"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="115" t="s">
+      <c r="A42" s="110" t="s">
         <v>290</v>
       </c>
-      <c r="B42" s="115" t="s">
+      <c r="B42" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="C42" s="115" t="s">
+      <c r="C42" s="110" t="s">
         <v>288</v>
       </c>
-      <c r="D42" s="115" t="s">
+      <c r="D42" s="110" t="s">
         <v>287</v>
       </c>
-      <c r="E42" s="115" t="s">
+      <c r="E42" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="F42" s="115" t="s">
+      <c r="F42" s="110" t="s">
         <v>285</v>
       </c>
       <c r="G42" s="77"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="115"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
+      <c r="A43" s="110"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
@@ -18161,58 +18460,58 @@
       <c r="P64" s="105"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A65" s="115" t="s">
+      <c r="A65" s="110" t="s">
         <v>290</v>
       </c>
-      <c r="B65" s="115" t="s">
+      <c r="B65" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="C65" s="115" t="s">
+      <c r="C65" s="110" t="s">
         <v>288</v>
       </c>
-      <c r="D65" s="115" t="s">
+      <c r="D65" s="110" t="s">
         <v>287</v>
       </c>
-      <c r="E65" s="115" t="s">
+      <c r="E65" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="F65" s="115" t="s">
+      <c r="F65" s="110" t="s">
         <v>285</v>
       </c>
       <c r="G65" s="77"/>
-      <c r="J65" s="115" t="s">
+      <c r="J65" s="110" t="s">
         <v>290</v>
       </c>
-      <c r="K65" s="115" t="s">
+      <c r="K65" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="L65" s="115" t="s">
+      <c r="L65" s="110" t="s">
         <v>288</v>
       </c>
-      <c r="M65" s="115" t="s">
+      <c r="M65" s="110" t="s">
         <v>287</v>
       </c>
-      <c r="N65" s="115" t="s">
+      <c r="N65" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="O65" s="115" t="s">
+      <c r="O65" s="110" t="s">
         <v>285</v>
       </c>
       <c r="P65" s="77"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A66" s="115"/>
-      <c r="B66" s="115"/>
-      <c r="C66" s="115"/>
-      <c r="D66" s="115"/>
-      <c r="E66" s="115"/>
-      <c r="F66" s="115"/>
-      <c r="J66" s="115"/>
-      <c r="K66" s="115"/>
-      <c r="L66" s="115"/>
-      <c r="M66" s="115"/>
-      <c r="N66" s="115"/>
-      <c r="O66" s="115"/>
+      <c r="A66" s="110"/>
+      <c r="B66" s="110"/>
+      <c r="C66" s="110"/>
+      <c r="D66" s="110"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="110"/>
+      <c r="J66" s="110"/>
+      <c r="K66" s="110"/>
+      <c r="L66" s="110"/>
+      <c r="M66" s="110"/>
+      <c r="N66" s="110"/>
+      <c r="O66" s="110"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
@@ -18480,6 +18779,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="J64:P64"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="E42:E43"/>
     <mergeCell ref="A1:L4"/>
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="A31:I31"/>
@@ -18489,31 +18812,724 @@
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A59:I59"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="J64:P64"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="O65:O66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87382235-F600-4B49-8898-8F834E2F21A8}">
+  <dimension ref="B2:K57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="177" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="170" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="168"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="176" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="175"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="158"/>
+      <c r="C6" s="174" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="158" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="158" t="s">
+        <v>359</v>
+      </c>
+      <c r="F6" s="158" t="s">
+        <v>358</v>
+      </c>
+      <c r="G6" s="158" t="s">
+        <v>357</v>
+      </c>
+      <c r="H6" s="158" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="158" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="173" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="19">
+        <v>10</v>
+      </c>
+      <c r="E7" s="19">
+        <v>20</v>
+      </c>
+      <c r="F7" s="19">
+        <v>30</v>
+      </c>
+      <c r="G7" s="19">
+        <v>30</v>
+      </c>
+      <c r="H7" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="158" t="s">
+        <v>360</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8" s="172" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="158" t="s">
+        <v>359</v>
+      </c>
+      <c r="C9" s="4">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9" s="172" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="158" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" s="4">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10" s="172" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="158" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="4">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11" s="172" t="s">
+        <v>280</v>
+      </c>
+      <c r="H11" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="158" t="s">
+        <v>356</v>
+      </c>
+      <c r="C12" s="7">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8">
+        <v>10</v>
+      </c>
+      <c r="E12" s="8">
+        <v>20</v>
+      </c>
+      <c r="F12" s="8">
+        <v>25</v>
+      </c>
+      <c r="G12" s="8">
+        <v>14</v>
+      </c>
+      <c r="H12" s="171" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="170" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" s="169"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="168"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="167" t="s">
+        <v>354</v>
+      </c>
+      <c r="C16" s="166"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="144" t="s">
+        <v>353</v>
+      </c>
+      <c r="C17" s="143" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="142"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="165" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" s="163" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="164" t="s">
+        <v>349</v>
+      </c>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="162"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="155" t="s">
+        <v>348</v>
+      </c>
+      <c r="C21" s="153"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="161" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" s="160"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="159"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="158" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="158" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="157">
+        <v>1</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="148">
+        <v>2</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="148">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="148">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="148">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="146">
+        <v>6</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="161" t="s">
+        <v>340</v>
+      </c>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="159"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B34" s="158" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="158" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B35" s="157">
+        <v>1</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="D35" s="156" t="s">
+        <v>328</v>
+      </c>
+      <c r="F35" s="155" t="s">
+        <v>336</v>
+      </c>
+      <c r="G35" s="154"/>
+      <c r="H35" s="153"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B36" s="148">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D36" s="147" t="s">
+        <v>328</v>
+      </c>
+      <c r="F36" s="152" t="s">
+        <v>334</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="151"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B37" s="148">
+        <v>3</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D37" s="147" t="s">
+        <v>328</v>
+      </c>
+      <c r="F37" s="150" t="s">
+        <v>332</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="149"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B38" s="148">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D38" s="147" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B39" s="148">
+        <v>5</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D39" s="147" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B40" s="146">
+        <v>6</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D40" s="145" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B42" s="144" t="s">
+        <v>327</v>
+      </c>
+      <c r="C42" s="143"/>
+      <c r="D42" s="142"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B46" s="141" t="s">
+        <v>326</v>
+      </c>
+      <c r="C46" s="140" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="139" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" s="139" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="139" t="s">
+        <v>104</v>
+      </c>
+      <c r="I46" s="139" t="s">
+        <v>204</v>
+      </c>
+      <c r="J46" s="139" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" s="138" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B47" s="137" t="s">
+        <v>325</v>
+      </c>
+      <c r="C47" s="136">
+        <v>0</v>
+      </c>
+      <c r="D47" s="135">
+        <v>1</v>
+      </c>
+      <c r="E47" s="135">
+        <v>0</v>
+      </c>
+      <c r="F47" s="135">
+        <v>1</v>
+      </c>
+      <c r="G47" s="135">
+        <v>0</v>
+      </c>
+      <c r="H47" s="135">
+        <v>0</v>
+      </c>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="20"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B48" s="133" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" s="134">
+        <f>SUMPRODUCT($C$47:$H$47,C48:H48)</f>
+        <v>2</v>
+      </c>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B49" s="133">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f>SUMPRODUCT($C$47:$H$47,C49:H49)</f>
+        <v>1</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B50" s="133">
+        <v>2</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f>SUMPRODUCT($C$47:$H$47,C50:H50)</f>
+        <v>1</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B51" s="133">
+        <v>3</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f>SUMPRODUCT($C$47:$H$47,C51:H51)</f>
+        <v>1</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B52" s="133">
+        <v>4</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f>SUMPRODUCT($C$47:$H$47,C52:H52)</f>
+        <v>1</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B53" s="133">
+        <v>5</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f>SUMPRODUCT($C$47:$H$47,C53:H53)</f>
+        <v>1</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B54" s="132">
+        <v>6</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1</v>
+      </c>
+      <c r="E54" s="8">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0</v>
+      </c>
+      <c r="G54" s="8">
+        <v>1</v>
+      </c>
+      <c r="H54" s="8">
+        <v>1</v>
+      </c>
+      <c r="I54" s="8">
+        <f>SUMPRODUCT($C$47:$H$47,C54:H54)</f>
+        <v>1</v>
+      </c>
+      <c r="J54" s="131" t="s">
+        <v>110</v>
+      </c>
+      <c r="K54" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B56" s="130" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B57" s="129" t="s">
+        <v>322</v>
+      </c>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="127"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/02_Exercises/Everything.xlsx
+++ b/02_Exercises/Everything.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2445a1c52d39f861/Documents/Work/Modules/Year 3/LPR 381/Linear-Programming-101/02_Exercises/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Work\Belgium Campus\Year 3\LPR381\Linear-Programming-101-main\Linear-Programming-101\02_Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="568" documentId="13_ncr:1_{2AD2EC19-E879-447A-B539-4C9D00CDAF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3805D7BD-BA93-434B-A7A4-C56496909BB0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF17441F-2C1F-4393-991C-3EAF620BBFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15370" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Branch &amp; Bound" sheetId="1" r:id="rId1"/>
@@ -2232,132 +2232,6 @@
     <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2409,6 +2283,132 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7619,6 +7619,2481 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>516577</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>16966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>344314</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>79613</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA03798-7EEE-D8F7-A2F1-1C0F42320347}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5382360" y="1153080"/>
+            <a:ext cx="435960" cy="252000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA03798-7EEE-D8F7-A2F1-1C0F42320347}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5376240" y="1146960"/>
+              <a:ext cx="448200" cy="264240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>153874</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>34314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>18691</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>122161</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="29" name="Ink 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E9527C-6C74-9D79-FFDB-CB9D7E659A3B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5627880" y="2874600"/>
+            <a:ext cx="473040" cy="277200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="Ink 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E9527C-6C74-9D79-FFDB-CB9D7E659A3B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5621765" y="2868488"/>
+              <a:ext cx="485271" cy="289424"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>70354</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>502354</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>122866</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="30" name="Ink 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E5201C-E48C-1496-FF83-E6E49F142A44}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5544360" y="2443680"/>
+            <a:ext cx="432000" cy="330120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="30" name="Ink 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E5201C-E48C-1496-FF83-E6E49F142A44}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5538235" y="2437567"/>
+              <a:ext cx="444250" cy="342347"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>51994</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>79276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>478954</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22771</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="31" name="Ink 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63643C8A-3E5D-3FB1-A8EC-FB2733C84A3E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5526000" y="1972800"/>
+            <a:ext cx="426960" cy="322200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="31" name="Ink 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63643C8A-3E5D-3FB1-A8EC-FB2733C84A3E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5519885" y="1966673"/>
+              <a:ext cx="439190" cy="334454"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5554</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>386434</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>117068</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="32" name="Ink 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD91201-4845-842F-BF65-C14980B0D2E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5479560" y="1553040"/>
+            <a:ext cx="380880" cy="268200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="32" name="Ink 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD91201-4845-842F-BF65-C14980B0D2E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5473440" y="1546920"/>
+              <a:ext cx="393120" cy="280440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>315654</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>154655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161031</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>97782</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="33" name="Ink 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8FA268-AB24-95DE-8A73-D9AFB7EF9D9D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8830774" y="3562998"/>
+            <a:ext cx="453600" cy="132480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="33" name="Ink 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8FA268-AB24-95DE-8A73-D9AFB7EF9D9D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8824654" y="3556878"/>
+              <a:ext cx="465840" cy="144720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>510274</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>103021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>510634</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>109141</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="34" name="Ink 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FEA20F2-2A56-1C9B-A788-92F8A49F2014}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5984280" y="1617840"/>
+            <a:ext cx="360" cy="6120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="34" name="Ink 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FEA20F2-2A56-1C9B-A788-92F8A49F2014}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5978160" y="1611720"/>
+              <a:ext cx="12600" cy="18360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>562114</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>562474</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>69188</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="35" name="Ink 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88B17C9-260A-FCFD-D68A-E77EEFD16186}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6036120" y="1773000"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="35" name="Ink 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88B17C9-260A-FCFD-D68A-E77EEFD16186}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6030000" y="1766880"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>573634</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>573994</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15923</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="36" name="Ink 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33856613-2A79-EA73-F1E0-AAFC1FC5A112}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6047640" y="2082960"/>
+            <a:ext cx="360" cy="15840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="36" name="Ink 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33856613-2A79-EA73-F1E0-AAFC1FC5A112}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6041520" y="2076840"/>
+              <a:ext cx="12600" cy="28080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596674</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>154883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>598114</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>155243</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="37" name="Ink 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7436201-D25D-BDAD-CD75-7B820066585E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6070680" y="2237760"/>
+            <a:ext cx="1440" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="37" name="Ink 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7436201-D25D-BDAD-CD75-7B820066585E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6064560" y="2231640"/>
+              <a:ext cx="13680" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>579394</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>585154</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95859</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="38" name="Ink 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148F3402-008F-D060-7E09-BB568EE6A49C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6053400" y="2541600"/>
+            <a:ext cx="5760" cy="15840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="38" name="Ink 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148F3402-008F-D060-7E09-BB568EE6A49C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6047280" y="2535480"/>
+              <a:ext cx="18000" cy="28080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>579394</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581914</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>182259</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="39" name="Ink 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D5179E-59DF-A9F5-F7E9-58822611DEB2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6053400" y="2639160"/>
+            <a:ext cx="2520" cy="4680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="39" name="Ink 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D5179E-59DF-A9F5-F7E9-58822611DEB2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6047280" y="2633040"/>
+              <a:ext cx="14760" cy="16920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22651</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>126114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32371</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149874</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="40" name="Ink 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B4E63B-AF2F-A3F4-E201-06B303947E05}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6104880" y="2966400"/>
+            <a:ext cx="9720" cy="23760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="40" name="Ink 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B4E63B-AF2F-A3F4-E201-06B303947E05}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6098760" y="2960280"/>
+              <a:ext cx="21960" cy="36000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57211</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57571</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>56281</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="41" name="Ink 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4F18CC-3F5E-B029-4D0A-ABCCBB675260}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6139440" y="3075480"/>
+            <a:ext cx="360" cy="10440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="41" name="Ink 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4F18CC-3F5E-B029-4D0A-ABCCBB675260}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6133320" y="3069360"/>
+              <a:ext cx="12600" cy="22680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276634</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>51617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>120571</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>86544</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="44" name="Ink 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC0ADB1-EA2C-E27D-9867-32D49F2374C5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5750640" y="3459960"/>
+            <a:ext cx="452160" cy="224280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="44" name="Ink 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC0ADB1-EA2C-E27D-9867-32D49F2374C5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5744525" y="3453840"/>
+              <a:ext cx="464390" cy="236520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>61891</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523411</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>43253</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="48" name="Ink 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A25B9ABF-0475-9720-469F-E7C0903227B9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6144120" y="1107360"/>
+            <a:ext cx="461520" cy="261360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="48" name="Ink 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A25B9ABF-0475-9720-469F-E7C0903227B9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6138000" y="1101240"/>
+              <a:ext cx="473760" cy="273600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>51628</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>108758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>177445</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>92213</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="54" name="Ink 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C82996-FA69-DCA9-B400-6E849EE0FB67}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6742080" y="1055520"/>
+            <a:ext cx="734040" cy="362160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="54" name="Ink 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C82996-FA69-DCA9-B400-6E849EE0FB67}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6735960" y="1049394"/>
+              <a:ext cx="746280" cy="374412"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>177622</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>208582</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137926</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="57" name="Ink 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19AD419-210D-6623-FC72-AE8AC74ACFD9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8084520" y="992520"/>
+            <a:ext cx="30960" cy="281520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="57" name="Ink 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19AD419-210D-6623-FC72-AE8AC74ACFD9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8078400" y="986400"/>
+              <a:ext cx="43200" cy="293760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>372925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>120278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>574165</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177886</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="59" name="Ink 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{556D1352-DDA9-B927-4D3D-7C0330E8DBB9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7671600" y="1067040"/>
+            <a:ext cx="201240" cy="246960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="59" name="Ink 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{556D1352-DDA9-B927-4D3D-7C0330E8DBB9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7665491" y="1060929"/>
+              <a:ext cx="213458" cy="259182"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>375988</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>126061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>139285</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>23836</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="69" name="Ink 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5BF05F5-29A7-992A-92F7-C485165B3CAF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7066440" y="1640880"/>
+            <a:ext cx="371520" cy="276480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="69" name="Ink 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5BF05F5-29A7-992A-92F7-C485165B3CAF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7060326" y="1634760"/>
+              <a:ext cx="383748" cy="288720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>131908</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>108781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>224428</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85388</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="70" name="Ink 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC8CDFB-E022-4E1E-CB88-9B22A019BE16}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6822360" y="1623600"/>
+            <a:ext cx="92520" cy="165960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="70" name="Ink 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC8CDFB-E022-4E1E-CB88-9B22A019BE16}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6816240" y="1617480"/>
+              <a:ext cx="104760" cy="178200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>143251</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>102661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581731</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>175388</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="71" name="Ink 70">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6196C8D0-D12F-CD69-E9FF-AA921A7D1B0E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6225480" y="1617480"/>
+            <a:ext cx="438480" cy="262080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="71" name="Ink 70">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6196C8D0-D12F-CD69-E9FF-AA921A7D1B0E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6219360" y="1611352"/>
+              <a:ext cx="450720" cy="274337"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>172040</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>183653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>98777</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>18076</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="82" name="Ink 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B708AD3-93DB-A878-BAEE-02AA6F739A43}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8687160" y="1509120"/>
+            <a:ext cx="534960" cy="402480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="82" name="Ink 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B708AD3-93DB-A878-BAEE-02AA6F739A43}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8681040" y="1503000"/>
+              <a:ext cx="547200" cy="414720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>435925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>608182</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>52636</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="83" name="Ink 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF012AE-0EF6-7C50-34DB-1BF743876988}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7734600" y="1572120"/>
+            <a:ext cx="780480" cy="374040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="83" name="Ink 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF012AE-0EF6-7C50-34DB-1BF743876988}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7728480" y="1566000"/>
+              <a:ext cx="792720" cy="386280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171862</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>154876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190222</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>5131</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="98" name="Ink 97">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1958CA19-CEA5-B4E5-AF74-8DB8C01FDEDC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8078760" y="2048400"/>
+            <a:ext cx="18360" cy="228960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="98" name="Ink 97">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1958CA19-CEA5-B4E5-AF74-8DB8C01FDEDC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8072640" y="2042280"/>
+              <a:ext cx="30600" cy="241200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>607828</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>452485</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>169306</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="109" name="Ink 108">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D2A0BD-39B7-99DF-3FDF-865C62FCD0E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7298280" y="2547720"/>
+            <a:ext cx="452880" cy="272520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="109" name="Ink 108">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D2A0BD-39B7-99DF-3FDF-865C62FCD0E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7292155" y="2541608"/>
+              <a:ext cx="465130" cy="284744"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>154588</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>11259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>315868</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165699</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="110" name="Ink 109">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C821EF0-8CDE-3FC9-0854-6A85D8CFCD9E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6845040" y="2472840"/>
+            <a:ext cx="161280" cy="154440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="110" name="Ink 109">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C821EF0-8CDE-3FC9-0854-6A85D8CFCD9E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6838920" y="2466720"/>
+              <a:ext cx="173520" cy="166680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>206611</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>34659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7348</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>82186</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="111" name="Ink 110">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D1CC2D-47A5-D1F5-F0E5-F8F948322834}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6288840" y="2496240"/>
+            <a:ext cx="408960" cy="236880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="111" name="Ink 110">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D1CC2D-47A5-D1F5-F0E5-F8F948322834}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6282720" y="2490120"/>
+              <a:ext cx="421200" cy="249120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>196531</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>126076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22462</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>77491</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="117" name="Ink 116">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C21546-5669-6215-5C2F-8BEF22795A7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6278760" y="2019600"/>
+            <a:ext cx="1650600" cy="330120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="117" name="Ink 116">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C21546-5669-6215-5C2F-8BEF22795A7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6272640" y="2013480"/>
+              <a:ext cx="1662840" cy="342360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>608005</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>471022</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>103426</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="121" name="Ink 120">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A03831-3160-7D89-295A-D6AA2B90F7A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7906680" y="2444040"/>
+            <a:ext cx="471240" cy="310320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="121" name="Ink 120">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A03831-3160-7D89-295A-D6AA2B90F7A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7900555" y="2437920"/>
+              <a:ext cx="483489" cy="322560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>275182</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>189106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>139457</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35409</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="142" name="Ink 141">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88450DD9-5268-4E2B-CB23-0EF3C7CD769E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8182080" y="2840040"/>
+            <a:ext cx="1080720" cy="414360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="142" name="Ink 141">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88450DD9-5268-4E2B-CB23-0EF3C7CD769E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8175958" y="2833920"/>
+              <a:ext cx="1092964" cy="426600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>162325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>153474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85822</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>46929</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="143" name="Ink 142">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B87B50-721A-E309-17B5-0A310D67EBED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7461000" y="2993760"/>
+            <a:ext cx="531720" cy="272160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="143" name="Ink 142">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B87B50-721A-E309-17B5-0A310D67EBED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7454880" y="2987640"/>
+              <a:ext cx="543960" cy="284400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>424588</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>597028</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>11281</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId64">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="144" name="Ink 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03E157A-D474-DDE8-EDDC-BD6A86163DB1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7115040" y="2920320"/>
+            <a:ext cx="172440" cy="120600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="144" name="Ink 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03E157A-D474-DDE8-EDDC-BD6A86163DB1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7108920" y="2914200"/>
+              <a:ext cx="184680" cy="132840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>269611</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>246028</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>48729</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId66">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="145" name="Ink 144">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778F14EE-A7F8-5E22-C789-7A16A75E7B38}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6351840" y="2926080"/>
+            <a:ext cx="584640" cy="341640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="145" name="Ink 144">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778F14EE-A7F8-5E22-C789-7A16A75E7B38}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6345724" y="2919960"/>
+              <a:ext cx="596872" cy="353880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>372748</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>40097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>211822</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>176904</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="160" name="Ink 159">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39742D51-C85E-D7B7-CEA6-074F30B84C14}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7063200" y="3448440"/>
+            <a:ext cx="1055520" cy="326160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="160" name="Ink 159">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39742D51-C85E-D7B7-CEA6-074F30B84C14}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7057080" y="3442320"/>
+              <a:ext cx="1067760" cy="338400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>292291</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>102737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>214348</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>140544</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId70">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="161" name="Ink 160">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E294B1A-01B0-763B-B19C-84AC91A47AB9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6374520" y="3511080"/>
+            <a:ext cx="530280" cy="227160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="161" name="Ink 160">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E294B1A-01B0-763B-B19C-84AC91A47AB9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6368400" y="3504960"/>
+              <a:ext cx="542520" cy="239400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>292457</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>103089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>399377</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42264</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId72">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="165" name="Ink 164">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6333E0A-A0EE-C513-F425-5F3F34450B55}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9415800" y="3322080"/>
+            <a:ext cx="106920" cy="317880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="165" name="Ink 164">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6333E0A-A0EE-C513-F425-5F3F34450B55}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9409680" y="3315960"/>
+              <a:ext cx="119160" cy="330120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>441502</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>126857</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2312</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId74">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="166" name="Ink 165">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61F5E16D-614E-4249-B122-5033547D84DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8348400" y="3425400"/>
+            <a:ext cx="901800" cy="363960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="166" name="Ink 165">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61F5E16D-614E-4249-B122-5033547D84DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8342280" y="3419280"/>
+              <a:ext cx="914040" cy="376200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -8956,6 +11431,274 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink51.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:16.501"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">414 64 24575,'4'0'0,"0"0"0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,-1-1 0,1 2 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,5 4 0,-7-4 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 4 0,0-2 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,-4 10 0,3-12 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0-1 0,0 1 0,-5 0 0,-11 6 0,0-1 0,-1-1 0,0-1 0,0-1 0,0-1 0,0-1 0,-22 0 0,25-2 0,0-1 0,0 0 0,0-1 0,1 0 0,-1-2 0,-29-9 0,30 7 0,12 5 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,1 0 0,-1-1 0,-5-5 0,9 9-33,0-1 0,0 1-1,0 0 1,-1 0 0,1-1-1,0 1 1,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0-1,0-1 1,1 1 0,-1 0-1,0 0 1,0-1 0,0 1 0,0 0-1,1 0 1,-1-1 0,0 1-1,0 0 1,0 0 0,1 0-1,-1 0 1,0-1 0,0 1 0,1 0-1,-1 0 1,7-3-6793</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="769.41">669 1 24575,'-15'0'0,"1"1"0,-1 0 0,1 1 0,0 1 0,0 0 0,0 1 0,0 0 0,0 2 0,1-1 0,0 2 0,0-1 0,1 2 0,-14 10 0,23-17 0,-3 3 0,0 0 0,1-1 0,-1 2 0,1-1 0,0 1 0,0-1 0,-6 9 0,10-11 0,0-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 1 0,2 1 0,10 9 0,1-1 0,-1 0 0,2-1 0,0-1 0,0 0 0,0-1 0,1-1 0,0-1 0,1 0 0,-1-1 0,19 2 0,21 2-682,109 1-1,-152-10-6143</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1119.34">1211 240 24575,'0'415'0,"0"-412"-91,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,-2 3 0,-4 2-6735</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink52.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:32.114"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">19 0 24575,'0'1'0,"0"-1"0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,19 8 0,10-6 0,-1 2 0,1 1 0,-1 1 0,0 2 0,41 16 0,-11-4 0,-48-18 0,0 0 0,-1 1 0,1 0 0,0 0 0,-1 1 0,0 0 0,0 0 0,0 1 0,0 0 0,-1 0 0,11 11 0,-16-14 0,0 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,0 3 0,-1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-5 3 0,-5 3 0,0 0 0,0-2 0,-1 1 0,0-2 0,-29 12 0,-40 14 0,-62 18 0,144-50 5,0-1 0,-1 1 0,1-1-1,0 0 1,0 0 0,-1 0 0,1 1 0,0-1-1,-1 0 1,1-1 0,0 1 0,-1 0 0,1 0-1,0-1 1,0 1 0,-1 0 0,1-1-1,0 1 1,0-1 0,0 0 0,-1 1 0,1-1-1,0 0 1,-1-1 0,0 0-119,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0-1-1,0 1 1,1 0 0,-1-1 0,1 1-1,-1 0 1,1-5 0,-1-6-6712</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="407.07">593 144 24575,'-12'2'0,"0"1"0,1 0 0,-1 1 0,1 0 0,0 1 0,0 0 0,0 0 0,1 2 0,-13 8 0,-14 8 0,9-10 0,21-11 0,0 1 0,-1 1 0,1-1 0,0 1 0,1 0 0,-1 1 0,1 0 0,0 0 0,-8 8 0,14-13 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,1 1 0,39 16 0,-33-14 0,21 8 0,0-1 0,40 7 0,-56-14 0,1-1 0,0 0 0,-1-1 0,1-1 0,-1 0 0,1-1 0,24-5 0,-17-4-1365,-13 4-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="921.02">896 303 24575,'0'3'0,"1"1"0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,2 3 0,10 25 0,-12-15 0,-1 0 0,-1-1 0,-1 18 0,3 40 0,-2-73 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1-1 0,25-22 0,-15 13 0,1 2 0,1 1 0,0 0 0,0 1 0,1 0 0,-1 1 0,1 0 0,1 1 0,-1 1 0,0 0 0,1 1 0,-1 1 0,1 0 0,0 1 0,-1 1 0,25 3 0,-34-2 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,0 0 0,1 7 0,1 4 0,-1 0 0,-1-1 0,-1 1 0,0 0 0,-1 0 0,-5 27 0,4-38 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0-1 0,1 1 0,-2-1 0,1 0 0,0 1 0,-1-1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-8 1 0,3-1 0,-1 0 0,1-1 0,-1 0 0,0 0 0,1-1 0,-1 0 0,0-1 0,1 0 0,-1-1 0,1 0 0,-18-7 0,23 6-23,0-1 1,-1 0-1,1 0 0,1 0 0,-1-1 0,1 0 0,0 0 0,0 0 1,-5-8-1,-1-1-1114,4 6-5689</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1255.61">943 191 24575,'73'-1'0,"79"3"0,-147-2-170,0 1-1,0 0 0,0 1 1,0-1-1,0 1 0,0 0 1,8 4-1,-5-1-6655</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink53.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:29.331"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">28 2 24575,'31'-1'0,"-11"0"0,0 1 0,0 1 0,0 1 0,0 0 0,22 7 0,-36-7 0,0 0 0,0 0 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 1 0,-1-1 0,1 0 0,-1 1 0,3 9 0,-4-12 0,1 3 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,-1 0 0,1 8 0,-2-11 0,0 0 0,1 0 0,-1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,-3 2 0,-12 6 0,-1 0 0,1-1 0,-2 0 0,1-2 0,-1 0 0,0-2 0,0 0 0,-1-1 0,-37 2 0,57-5-42,-1-1-1,1 0 0,0 0 1,-1 1-1,1-1 0,-1 0 1,1 0-1,-1 0 0,1-1 1,-1 1-1,1 0 0,0 0 1,-1-1-1,1 1 0,-1-1 1,1 1-1,0-1 0,-1 0 1,1 0-1,0 1 0,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0-2-1,0-7-6783</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="363.94">458 50 24575,'-9'1'0,"1"0"0,-1 0 0,0 1 0,1 0 0,0 1 0,-1 0 0,1 0 0,0 1 0,1 0 0,-1 0 0,1 1 0,0 0 0,-11 9 0,5-2 0,-1 1 0,2 0 0,0 1 0,0 0 0,-13 24 0,21-33 0,1 1 0,-1 0 0,2 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,2 1 0,-1 12 0,1-16 0,1 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,6 3 0,5 3 0,0-1 0,1 0 0,0-1 0,0 0 0,0-2 0,0 1 0,1-2 0,-1 0 0,1-1 0,22 0 0,-25-1 0,0-2 0,0 1 0,0-1 0,-1-1 0,1 0 0,0-1 0,-1-1 0,1 0 0,-1 0 0,0-1 0,-1-1 0,1 0 0,-1 0 0,14-12 0,62-53-1365,-80 65-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1990.89">984 273 24575,'0'34'0,"-1"1"0,-1-1 0,-2 1 0,-2-1 0,-14 52 0,19-85 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,2 0 0,-1 1 0,1-1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,0-1 0,6 2 0,12 1 0,-1-2 0,1 0 0,26-2 0,-24 0 0,27-5 120,-31-5-321,-19 11 162,1-1 0,-1 1 0,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 1,-1-1-1,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 1,1 1-1,-1 0 0,1-1 0,-1 1 0,0-1 0,-8-5-6787</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2235.07">1128 480 24575,'1'0'0,"0"1"0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-2 1 0,4 33 0,-3-31 0,15 190 0,-14-187 0,-2-1 0,1 1 0,-1 0 0,0-1 0,-1 1 0,1-1 0,-1 1 0,-1-1 0,-4 11 0,-1-4 0,-1-1 0,0 0 0,-13 13 0,20-23 0,-23 30-1365,17-23-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink54.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:27.673"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">126 19 24575,'1'-1'0,"-1"0"0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,33-2 0,-31 2 0,17-1 0,-4 0 0,0 1 0,0 0 0,19 4 0,-30-3 0,0 0 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,5 5 0,-5-4 0,0 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,-1 1 0,1-1 0,-1-1 0,0 1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,-5 4 0,-5 0 0,-1 0 0,0-1 0,-1 0 0,1-1 0,-34 8 0,40-13 0,-1 0 0,0 0 0,0-1 0,0-1 0,-1 0 0,1 0 0,0-1 0,0 0 0,0-1 0,-19-6 0,24 7-105,1-1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,0 0 0,-8-10 0,7 5-6721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="457.3">621 35 24575,'-9'1'0,"0"0"0,0 0 0,0 1 0,0 0 0,0 1 0,1 0 0,-1 0 0,1 1 0,0 0 0,0 1 0,0-1 0,1 1 0,-1 1 0,-7 7 0,0 1 0,1 0 0,0 2 0,0 0 0,2 0 0,-14 23 0,24-36 0,0 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,0 0 0,0 1 0,3 3 0,0-2 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,1-1 0,0 1 0,12 2 0,-8-3 0,0 1 0,1 0 0,0-1 0,-1-1 0,1 0 0,0 0 0,0-1 0,0 0 0,0-1 0,20-5 0,-5 1-1365,-14 4-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1049.82">891 369 24575,'35'-1'0,"-25"0"0,1 0 0,-1 1 0,0 0 0,0 0 0,0 1 0,19 5 0,-28-6 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-3 1 0,-3 4 0,-1 0 0,0-1 0,0-1 0,-13 8 0,-14 2 0,21-10 0,1 0 0,0 2 0,0 0 0,-18 12 0,30-19 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,1 0 0,1 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,4 2 0,55 15 0,-5-12 0,-46-6 0,1 1 0,0 0 0,0 1 0,0 0 0,-1 0 0,1 1 0,-1 1 0,0-1 0,16 10 0,-26-13 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-13 4 0,-16-6 0,-25-14-20,33 9-317,0 1 1,0 1 0,-33-4 0,41 9-6490</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2539.01">1179 689 24575,'-1'5'0,"0"1"0,0 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,0 1 0,1-1 0,-2 0 0,-5 5 0,-2 1 0,0 0 0,-1 0 0,0-1 0,-26 12 0,11-9-273,0-2 0,-2 0 0,1-2 0,-39 5 0,56-11-6553</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3041.61">1083 625 24575,'3'0'0,"-1"1"0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,2 4 0,24 32 0,-14-20-68,-12-17 16,0 1 0,0-1 0,0 1 1,0 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 0,-1-1 0,0 1 0,1-1 0,-1 1 1,0-1-1,0 1 0,0-1 0,-1 3 0,-4 4-6774</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink55.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:25.937"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 5 24575,'67'-2'0,"-38"0"0,0 2 0,0 0 0,41 7 0,-62-5 0,-1 1 0,1-1 0,0 1 0,-1 1 0,1-1 0,-1 1 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1 1 0,0 0 0,-1 0 0,0 0 0,1 0 0,-2 1 0,1 0 0,-1 0 0,0 0 0,4 11 0,-6-13 0,0 0 0,-1 0 0,0 0 0,1 0 0,-2 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,0 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-2-1 0,1 1 0,0 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,-1-1 0,1 0 0,-7 3 0,-7 5 24,-1 0 0,0-1 0,0-1 0,-38 11 0,52-19-79,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0-1 0,1 0 0,-6-6 0,3 2-6771</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="547.04">558 21 24575,'0'0'0,"0"-1"0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,-33-2 0,31 2 0,-5 0 0,0 1 0,0 1 0,0-1 0,0 2 0,0-1 0,0 1 0,1 0 0,-1 1 0,1 0 0,0 0 0,0 1 0,1 0 0,-1 1 0,1-1 0,0 1 0,1 1 0,-1-1 0,1 1 0,-7 11 0,3-5 0,1 0 0,0 1 0,2 0 0,-1 0 0,2 1 0,0 0 0,0 0 0,2 1 0,0-1 0,-3 22 0,7-31 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,0-1 0,0 1 0,10 4 0,-2-1 0,0-1 0,0 0 0,0-1 0,1 0 0,0-1 0,0-1 0,0 0 0,0-1 0,23 1 0,-23-4 0,0 0 0,-1-1 0,1-1 0,0 0 0,-1 0 0,1-2 0,-1 1 0,0-2 0,0 0 0,-1 0 0,23-16 0,-23 15-1365,-1 1-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1126.62">909 340 24575,'11'0'0,"1"0"0,0-1 0,1 2 0,-1 0 0,0 1 0,0 0 0,15 4 0,-25-5 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,-1 4 0,-1 3 0,-1-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,-1 0 0,-11 13 0,-52 48 0,59-59 0,-147 127 0,157-137 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,16 4 0,23-3 0,-36-1 0,44-3-64,-29 1-153,-1 1 0,1 1 0,0 0 1,0 1-1,22 5 0,-30-2-6609</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink56.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:23.778"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575,'14'0'0,"-1"-1"0,1 1 0,-1 1 0,1 0 0,24 6 0,-34-6 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,3 7 0,-1-3-112,-1 0-44,1 0-1,-1 0 0,1-1 1,1 0-1,-1 1 0,1-2 1,11 13-1,-8-13-6669</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1094.12">1259 65 24575,'0'0'-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1293.87">1259 367 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink57.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:35.554"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'2'0,"0"5"0,0 0-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink58.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:35.784"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink59.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:36.132"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'0'3'0,"0"3"0,0 4 0,0 2 0,0 0-8191</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -8982,6 +11725,298 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'-1'30'0,"3"1"0,0-1 0,10 42 0,15 59 0,0-3 0,-13-65 0,-7-31 0,19 60 0,-13-57 0,-5-11 0,1-2 0,16 29 0,-20-44 0,0 0 0,0 1 0,1-1 0,0 0 0,0-1 0,1 0 0,1 0 0,-1 0 0,15 8 0,15 9 0,-1-1 0,1 4 0,-4 0 0,35 34 0,-6-14 0,-53-40 0,1 1 0,-1-1 0,0 1 0,0 1 0,-1 0 0,0 0 0,12 16 0,-6-6 0,9 19 0,-23-37-2,0 0 1,0 1-1,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 1 1,-1-1-1,1 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 1,-1 0-1,1 0 0,0 0 0,-1 0 0,-16-2 202,-15-13-1685,19 5-5341</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">53 26 24575,'0'19'0,"2"-2"0,0 2 0,2-2 0,0 1 0,11 28 0,41 82 0,-49-114 0,15 36 0,-17-35 0,1-1 0,1 0 0,0 0 0,1-1 0,0 0 0,2 0 0,0-1 0,10 12 0,5-2 0,1-2 0,1 1 0,0-3 0,44 22 0,125 50 0,-127-66 0,82 20 0,-19-19 0,-103-20 0,-1-2 0,46 1 0,-46-4 0,0 2 0,53 9 0,105 15 0,-53 0 0,-86-17 0,-28-6 0,0 1 0,1 1 0,19 7 0,-33-9 0,0 0 0,0 0 0,0 0 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0 0 0,-1 0 0,1 0 0,5 10 0,-1-1 0,5 5 0,-3-1 0,0 1 0,-2 1 0,0-1 0,8 26 0,-17-44-36,0-1 0,1 1 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 0 0,-1 0 1,0 1-1,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,-9-1-6790</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink60.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:36.312"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'3'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink61.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:36.677"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">16 1 24575,'-2'0'0,"-2"3"0,1 3 0,0 4 0,1 2 0,1 0-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink62.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:36.861"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'3'0,"2"0"0,2 3 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink63.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:37.243"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'3'0'0,"0"3"0,0 3 0,0 4 0,-1 3 0,2-2 0,0 1 0,0-1-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink64.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:37.440"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'0'3'0,"0"3"0,0 4 0,0 0-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink65.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:33.994"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">76 0 24575,'8'1'0,"-1"0"0,0 0 0,0 0 0,0 1 0,0 0 0,0 1 0,-1-1 0,1 1 0,9 6 0,55 40 0,-57-39 0,-8-6 0,-1 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,-1 1 0,6 9 0,-8-13 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,-3 1 0,-22 15 0,-2-1 0,0-1 0,-55 21 0,81-35 8,0-1-1,-1 0 1,0 0-1,1 0 1,-1-1-1,0 1 1,1-1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0-1 1,1 1-1,-1-1 1,-5-2-1,6 1-94,0 0-1,1 0 1,-1-1 0,1 1-1,-1 0 1,1-1 0,0 0-1,0 1 1,0-1-1,0 0 1,1 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,-2-6 1,0-2-6739</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="376.83">475 16 24575,'-10'1'0,"0"0"0,1 1 0,-1 0 0,1 1 0,-1 0 0,1 0 0,0 1 0,0 0 0,1 1 0,-1 0 0,-10 8 0,-5 5 0,1 1 0,-29 30 0,50-47 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 3 0,1-2 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,3 2 0,9 5 0,0-1 0,1-1 0,-1 0 0,2-1 0,26 7 0,-34-13-14,-1 0-1,1 0 0,-1-1 1,1 0-1,0-1 0,-1 0 0,0-1 1,1 0-1,-1 0 0,0-1 1,0 0-1,0 0 0,10-6 1,16-5-1146,-24 10-5666</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="862.95">905 239 24575,'-4'1'0,"0"0"0,1 0 0,-1 0 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-2 4 0,-38 50 0,37-48 0,0 1 0,1 0 0,0 0 0,0 0 0,1 1 0,1 0 0,0 0 0,-2 13 0,4-20 0,0 1 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,0 0 0,0 0 0,0 0 0,5 5 0,7 5 0,0-1 0,32 21 0,-43-31 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1-1 0,1-1 0,0 1 0,0-1 0,5-1 0,-7 1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1-4 0,1 3 0,-1 0 0,1-1 0,-1 1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1 0 0,0-1 0,-1 1 0,-3-3 0,0 1 0,-1 1 0,1 0 0,0 1 0,-1-1 0,0 1 0,0 1 0,0 0 0,0 0 0,-14-1 0,17 3 0,0 0 0,0 0 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1 0 0,-1-1 0,1 2 0,0-1 0,-1 0 0,1 1 0,0 0 0,1 0 0,-1 0 0,-6 7 0,7-9 0,11-13 0,16-18 0,45-30-1365,-59 51-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3825.94">1208 176 24575,'3'0'0,"3"0"0,1 2 0,2 2 0,2-1 0,-3 0 0,-4 2 0,-4-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4006.01">1208 383 24575,'0'3'0,"3"0"0,0 3 0,3 0 0,-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink66.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:42.437"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">35 96 24575,'111'-17'0,"-60"16"0,-28-1 0,0 1 0,-1 1 0,1 2 0,25 4 0,-43-4 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,0 0 0,0 0 0,3 11 0,0 2 0,-1-1 0,0 1 0,-2 0 0,0 0 0,0 21 0,-2-33 0,1 1 0,-2-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0-1 0,-7 3 0,7-3 0,1-1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,1-1 0,-1 0 0,1 0 0,-1 0 0,-9-6 0,-5-5 0,0 0 0,-33-32 0,33 28 0,-3-1-455,0 0 0,-34-19 0,48 32-6371</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="698.06">625 0 24575,'-5'1'0,"0"0"0,0 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-5 7 0,-3 3 0,1 1 0,0 0 0,-8 16 0,11-17 0,1 0 0,1 0 0,1 0 0,-1 0 0,2 1 0,0 0 0,1 0 0,-3 22 0,3-13 0,2-16 0,0-1 0,-1 1 0,2 0 0,-1-1 0,1 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,1 0 0,-1-1 0,1 1 0,0-1 0,1 0 0,0 1 0,-1-1 0,2 0 0,4 6 0,2 2 0,0-2 0,1 0 0,1 0 0,0 0 0,0-2 0,1 0 0,1 0 0,0-1 0,0-1 0,1 0 0,16 6 0,-8-6 0,0-1 0,1-1 0,-1-1 0,1-1 0,0-1 0,47-1 0,-57-2-99,7 1-112,0-2 0,0 0 0,0-1 0,0-1 0,32-9 0,-43 7-6615</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1062.24">1279 351 24575,'2'114'0,"-5"123"0,1-224-1365,-2-3-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink67.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:46.117"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 272 24575,'136'2'0,"143"-5"0,-184-12-1365,-82 14-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="305.9">191 0 24575,'3'18'0,"0"0"0,1 0 0,1-1 0,10 26 0,-11-32 0,9 33 0,10 56 0,-3-11 0,-11-50-53,-5-20-275,1 0 0,1 0 0,8 19 0,-9-28-6498</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="867.73">797 113 24575,'59'-19'0,"-34"13"0,-1 2 0,0 0 0,1 2 0,0 0 0,48 5 0,-8-1 0,-45-1 0,1 1 0,-1 1 0,0 1 0,0 1 0,0 0 0,-1 2 0,1 0 0,33 19 0,-50-24 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,0-1 0,2 6 0,-3-2 0,1-1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,-1 0 0,1 0 0,-4 8 0,-1 1 0,-1 0 0,-1-1 0,0 0 0,-1 0 0,0-1 0,-1 0 0,-20 19 0,-10 0 0,-1-2 0,-1-2 0,-2-2 0,-87 38 0,118-57-118,1-1 181,1 0 0,-1-1 0,-17 5 0,27-10-115,0 1 1,0 0-1,1-1 0,-1 0 0,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 0,0 0 1,0 1-1,1-1 0,-1 0 0,0 0 1,1-1-1,-1 1 0,0 0 1,1 0-1,0-1 0,-1 1 1,-1-3-1,-2-5-6774</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1397.93">1530 96 24575,'-22'0'0,"1"1"0,-30 4 0,43-3 0,0 0 0,0 0 0,0 1 0,1 0 0,-1 0 0,1 1 0,0 0 0,0 0 0,-10 8 0,-8 8 0,4-4 0,1 1 0,1 0 0,-22 26 0,35-36 0,1 1 0,0-1 0,1 1 0,0 0 0,0 0 0,0 0 0,1 0 0,0 1 0,1-1 0,0 1 0,0 0 0,1 0 0,0 14 0,0-14 0,1 0 0,1 0 0,-1 0 0,2-1 0,-1 1 0,1 0 0,0-1 0,7 16 0,-6-19 0,0 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 0 0,0 0 0,0 0 0,8 3 0,14 3 0,2-1 0,-1-1 0,1-1 0,0-1 0,0-2 0,0-1 0,1-2 0,53-5 0,-44-4-1365,-28 6-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2020.16">1817 606 24575,'128'-16'0,"-125"15"0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,4 1 0,-6-1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1 0 0,-15 20 0,0-1 0,-1-1 0,-2 0 0,0-2 0,0 0 0,-2-1 0,-26 15 0,-45 38 0,82-61 0,-13 14 0,25-13 0,18-1 0,195 36 0,-105-28-1365,-97-15-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink68.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:50.873"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'13'40'0,"-4"-17"0,3 21 0,-2 1 0,-2 1 0,-2 0 0,0 78 0,10 51 0,-14-112 0,-1-40 0,0-1 0,-1 1 0,-1 0 0,-6 28 0,7-50-80,0 1 0,-1 0-1,1 0 1,-1 0 0,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,-1-1 0,1 0-1,-3 2 1,-5 2-6746</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink69.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:50.034"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">96 0 24575,'10'1'0,"1"0"0,-1 0 0,0 1 0,0 1 0,0-1 0,0 2 0,0-1 0,11 7 0,75 46 0,-33-17 0,123 63 0,-185-102 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,-10 7 0,-1 0 0,-1-1 0,-15 7 0,11-6 0,-22 13-682,-64 22-1,93-39-6143</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="380.12">0 686 24575,'431'0'0,"-417"-1"-227,0-1-1,0 0 1,0 0-1,-1-2 1,23-8-1,-26 9-6598</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1661.98">319 383 24575,'-19'4'0,"0"1"0,1 0 0,0 2 0,0 0 0,1 1 0,-22 13 0,4-3 0,-16 9-1365,42-23-5461</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9013,6 +12048,314 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink70.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:59.069"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">470 112 24575,'2'0'0,"0"1"0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 4 0,21 43 0,-20-40 0,0 1 0,0 0 0,-1 0 0,0 0 0,-1 0 0,0 0 0,-1 18 0,0-25 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,-2 0 0,1-1 0,0 1 0,0-1 0,0 1 0,-6 0 0,-77 27 0,-151 28 0,197-49-67,30-5-63,0 0 1,0-1-1,0 0 0,0-1 0,-1 0 0,1-1 0,0 0 1,-1-1-1,-10-1 0,11-2-6696</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="502.88">613 17 24575,'-6'0'0,"-1"1"0,1 1 0,-1-1 0,1 1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 1 0,-6 9 0,-6 6 0,1 0 0,-23 41 0,35-50 0,-1 0 0,2 0 0,0 0 0,0 0 0,1 1 0,-2 21 0,0-2 0,3-25 0,1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,0 0 0,0 0 0,0 0 0,1-1 0,0 1 0,0 0 0,0 0 0,1-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1-1 0,1 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,1-1 0,10 4 0,-6-2 0,0-1 0,0 0 0,0-1 0,0 0 0,0 0 0,0-1 0,0-1 0,1 1 0,-1-2 0,0 0 0,0 0 0,1 0 0,-1-1 0,0-1 0,-1 0 0,1 0 0,17-9 0,36-29-1365,-55 35-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1093.82">55 0 24575,'37'2'0,"-1"2"0,38 8 0,19 3 0,-70-12 0,-1 0 0,0 1 0,0 1 0,-1 2 0,1 0 0,-2 1 0,26 13 0,-38-17 0,-1 1 0,0-1 0,0 1 0,-1 0 0,1 1 0,-1 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,-1 1 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 11 0,-2 173-1365,1-178-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1704.66">852 431 24575,'63'-16'0,"-57"16"0,0-1 0,-1 1 0,1 0 0,0 1 0,0-1 0,0 1 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,5 3 0,-7-4 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,-2 4 0,-3 5 0,0 0 0,-1 0 0,-1-1 0,0 0 0,0-1 0,-2 1 0,1-2 0,-1 1 0,-1-1 0,0-1 0,-12 9 0,10-10 0,3-1 0,-1 0 0,1 1 0,0 0 0,1 0 0,0 1 0,-11 15 0,19-24 0,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,18 5 0,25-4 0,-40-2 0,74-1 0,-109-2-61,1 0 0,-41-10 0,34 5-1121,21 5-5644</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink71.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:58.112"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 256 24575,'3'0'0,"3"0"0,4 0 0,3 0 0,1 0 0,2 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-4 0-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="318.93">207 1 24575,'10'125'0,"-2"-59"0,6 37 53,-7-66-525,-2-1-1,0 44 0,-5-67-6353</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink72.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:16:57.015"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 82 24575,'7'-1'0,"-1"0"0,1-1 0,-1 1 0,1-1 0,-1 0 0,12-7 0,21-5 0,-7 7 0,0 2 0,0 1 0,1 2 0,-1 1 0,46 4 0,-71-2 0,1 0 0,-1 0 0,0 1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 2 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,4 7 0,-6-9 0,-1 0 0,1 1 0,-1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,0-1 0,1 1 0,-2 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,0 0 0,-4 5 0,-9 10 0,-2-1 0,1 0 0,-2-1 0,-1-1 0,0-1 0,-35 20 0,41-27 0,0-1 0,0-1 0,0 0 0,-1-1 0,0 0 0,0-1 0,-1-1 0,1 0 0,0-2 0,-1 1 0,-27-2 0,41-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 1 0,1-4 0,0 1 0,0-1 0,1 0 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,4-3 0,14-6-1365,-12 8-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="502.65">750 2 24575,'-15'-1'0,"1"1"0,0 1 0,-1 0 0,1 1 0,0 0 0,0 1 0,0 1 0,1 1 0,-1 0 0,1 0 0,0 1 0,-13 8 0,8-4 0,1 1 0,0 1 0,0 0 0,1 1 0,1 1 0,0 0 0,1 1 0,1 1 0,-20 28 0,29-37 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,1 1 0,-3 11 0,4-16 0,1-1 0,0 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,4 2 0,6 4 0,1-1 0,0 0 0,1 0 0,0-1 0,-1-1 0,2-1 0,-1 0 0,1 0 0,15 1 0,1-2 0,0-1 0,0-2 0,41-4 0,24-12-1365,-83 15-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="837.22">1180 384 24575,'1'1'0,"1"0"0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0 1 0,9 35 0,-7-10 0,-1 0 0,-1 0 0,-4 28 0,1-21 0,4 44 0,1-66-1365,0-3-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink73.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:17:05.952"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32 143 24575,'1'2'0,"0"-1"0,0 0 0,-1 0 0,1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,2 0 0,33 10 0,-33-10 0,217 76 0,-195-69 0,42 14 0,0 2 0,74 39 0,-140-63 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,-2 2 0,-6 8 0,-2 0 0,0-1 0,0 0 0,-20 13 0,6-3 0,-83 60 0,28-22 0,2 0-64,40-32-261,2 2 0,1 1-1,-56 61 1,85-82-6501</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="348.14">0 1099 24575,'1'1'0,"-1"0"0,0 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,33 2 0,-31-2 0,40 1 0,1-2 0,80-12 0,31-3 0,-13 0 0,-74 11 0,-51 4 0,0 0 0,0-1 0,29-7 0,-44 8-1365</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="865.6">1355 0 24575,'1'16'0,"2"0"0,-1-1 0,2 1 0,0-1 0,9 20 0,6 27 0,4 26 0,-11-48 0,-2 1 0,-2 0 0,5 69 0,3 65 0,-14-52 0,-5 104 0,0-211-80,-2-17 280,-2-25-1685,6 13-5341</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink74.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:17:02.249"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 271 24575,'3'0'0,"3"0"0,4 0 0,3 0 0,1 0 0,2 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-3 0-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="324.46">96 0 24575,'1'20'0,"1"-1"0,1 0 0,7 27 0,-5-27 0,-1 0 0,0 0 0,0 29 0,-5 222-1365,1-257-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="719.12">654 159 24575,'12'0'0,"7"0"0,0 1 0,31 4 0,-43-4 0,0 1 0,1 1 0,-2-1 0,1 1 0,0 0 0,0 1 0,-1-1 0,0 1 0,0 1 0,6 4 0,7 7 0,-7-7 0,-1 2 0,1-1 0,15 21 0,-23-26 0,-1 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,0-1 0,0 0 0,0 8 0,-1-1 0,0-1 0,0 0 0,-1 0 0,-1 1 0,0-1 0,-1 0 0,0 0 0,-1-1 0,-6 15 0,2-11 0,-1 0 0,-1-1 0,0 0 0,0-1 0,-1 0 0,-15 13 0,16-18 0,-1 1 0,1-1 0,-1-1 0,0 0 0,-1-1 0,0 0 0,0-1 0,0 0 0,-1-1 0,1 0 0,-1-1 0,0 0 0,0-1 0,0-1 0,0 0 0,0-1 0,-1 0 0,1-1 0,0 0 0,-16-4 0,27 4-57,-1 0 0,0 1 1,1-1-1,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 0 1,0 0-1,0 1 0,0-1 0,1-1 0,-1 1 0,0 0 0,1 0 0,0-1 1,-1 1-1,1-1 0,0 1 0,-1-6 0,0-3-6769</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1175.08">1323 112 24575,'-40'13'0,"18"-4"0,-6-2 0,1 2 0,0 1 0,1 1 0,0 1 0,-47 31 0,65-38 0,1 1 0,-1 0 0,1 1 0,0 0 0,1 0 0,-1 0 0,1 1 0,1 0 0,0 0 0,0 1 0,0-1 0,1 1 0,1 0 0,-1 0 0,1 0 0,1 1 0,0-1 0,0 1 0,1 0 0,0 18 0,2-14 0,1 0 0,0-1 0,1 1 0,1-1 0,0 1 0,1-1 0,0 0 0,1-1 0,0 1 0,1-1 0,1 0 0,0-1 0,0 0 0,1 0 0,1-1 0,-1 0 0,2-1 0,-1 0 0,1 0 0,1-1 0,-1-1 0,2 0 0,-1 0 0,26 8 0,-29-12-3,1-1 0,0 0-1,0-1 1,0 0 0,-1-1 0,1 0-1,0 0 1,19-4 0,-2-2 73,47-18 0,-52 16-439,0 1 0,0 1 0,33-6 0,-42 11-6457</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1722.34">2168 478 24575,'-5'4'0,"-1"-1"0,1 0 0,-1 0 0,0 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0-1 0,-11 2 0,-17 4 0,10 1 0,-9 2 0,1 2 0,-39 19 0,41-16 0,1 1 0,1 2 0,0 0 0,-32 30 0,53-42 0,1 0 0,1 0 0,-1 0 0,1 1 0,0 0 0,0 0 0,1 0 0,0 1 0,0-1 0,1 1 0,0 0 0,0 0 0,1 0 0,0 1 0,0-1 0,1 0 0,0 1 0,1-1 0,0 1 0,0-1 0,0 1 0,4 13 0,-2-14 0,1-1 0,0 1 0,0 0 0,0-1 0,1 0 0,0 1 0,1-1 0,0-1 0,0 1 0,0-1 0,1 0 0,0 0 0,0-1 0,0 1 0,1-1 0,12 6 0,-9-5 0,1 0 0,0-1 0,1 0 0,0-1 0,-1 0 0,1-1 0,0 0 0,1-1 0,-1 0 0,17 0 0,16-2 0,59-2 0,-96 2 0,0-1 0,-1-1 0,1 1 0,-1-2 0,1 1 0,-1-1 0,0 0 0,0 0 0,0-1 0,10-6 0,-16 9 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-3-1 0,-5-4 0,0 0 0,-1 0 0,0 1 0,0 1 0,-15-6 0,12 7 0,0 0 0,-1 1 0,1 0 0,-1 1 0,0 0 0,1 1 0,-1 1 0,1 0 0,-27 6 0,7 2 0,0 0 0,-55 26 0,78-31 0,4-2 0,1 0 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-5 6 0,14-8 0,-1 1 0,1-1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,4-1 0,42-2-1365,-36-1-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink75.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:17:21.595"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">33 0 24575,'1'1'0,"0"-1"0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,2 33 0,-2-31 0,1 61 0,-15 128 0,3-121-86,1-13-553,-5 112-1,16-157-6186</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink76.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:17:27.982"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 63 24575,'77'-1'0,"86"3"0,-158-2 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,0 2 0,0-1 0,5 9 0,-6-7 0,0 0 0,0 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,-2 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,-4 9 0,2-9 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,-11 3 0,5-2 0,-1 0 0,-1-1 0,1-1 0,0 0 0,-1 0 0,1-2 0,-23-1 0,36 1-59,-1 0 0,1 0-1,0-1 1,-1 1-1,1 0 1,-1-1 0,1 1-1,0-1 1,-1 0 0,1 1-1,0-1 1,-1 0 0,1 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,-1-1 1,-2-7-6767</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="408.98">750 0 24575,'-16'0'0,"1"1"0,-1 1 0,0 0 0,1 1 0,-1 0 0,1 2 0,0 0 0,0 0 0,0 1 0,1 1 0,0 1 0,0 0 0,-17 14 0,20-13 0,-3 1 0,0 1 0,2 0 0,-23 26 0,32-34 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,2 6 0,0-5 0,0 0 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 0 0,9 3 0,10 2 0,47 9 0,-56-13 30,1-2 0,0 1 0,29-3 0,-38 0-165,1 0 0,-1 0 0,0 0 0,0-1 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,9-7 0,-8 4-6691</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="819.78">1117 143 24575,'0'17'0,"0"-1"0,-1 1 0,-1-1 0,0 0 0,-1 1 0,-1-1 0,0-1 0,-2 1 0,1 0 0,-2-1 0,-11 20 0,10-22 0,-87 167 0,76-144 0,14-27 0,0-1 0,0 2 0,1-1 0,-4 15 0,8-23 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0-1 0,2 1 0,59 0 0,-50-1 0,-4 1 0,32-2 0,0 2 0,-1 2 0,61 9 0,-91-10-114,-11-7 248,-21-12-198,10 8-1257,4 0-5505</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1136.59">1212 223 24575,'17'144'0,"-15"-23"0,-5 125 0,1-233-1365,-2-3-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink77.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:17:26.386"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 240 24575,'83'2'0,"89"-5"0,-142 0-455,-1-2 0,33-9 0,-52 11-6371</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="500.62">368 1 24575,'1'10'0,"0"1"0,1-1 0,1 0 0,-1 0 0,6 12 0,7 32 0,29 157 0,-40-135-1365,-4-62-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink78.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:17:24.822"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 31 24575,'19'-1'0,"0"-1"0,0-1 0,21-7 0,23-2 0,-36 10 0,1 2 0,-1 0 0,0 2 0,0 2 0,37 8 0,6 0 0,-62-10 0,-1 0 0,1 0 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,-1 0 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1 0 0,-1 0 0,1 0 0,-1 1 0,5 8 0,-7-11 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-6 3 0,-31 21 0,-1-1 0,-1-2 0,-86 35 0,121-57 9,0 0-1,0 0 1,-1-1-1,1 0 1,0 0 0,-1-1-1,1 0 1,-1 0-1,1 0 1,0-1-1,-1 0 1,1-1-1,-14-4 1,16 4-77,1 0 1,0 0-1,-1-1 1,1 1-1,0-1 1,0 0-1,0 0 1,0-1-1,1 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,1-1-1,-1 1 1,1 0-1,0-1 1,0 1-1,0-1 1,1 0-1,-3-8 1,2 1-6759</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="425.85">621 15 24575,'-10'0'0,"0"0"0,0 0 0,0 0 0,0 1 0,0 1 0,-13 2 0,21-3 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,2 2 0,0 1 0,0-1 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,7 4 0,50 30 0,-53-34 17,0 0-1,0-1 0,1 0 0,-1 0 1,1-1-1,-1 0 0,15-1 0,35 6-1511,-47-4-5331</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1218.06">909 238 24575,'12'0'0,"-1"0"0,-1-1 0,0 2 0,0 0 0,0 0 0,1 0 0,15 6 0,-24-6 0,1 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,0 0 0,0 6 0,0-6 0,0 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,0 0 0,0 0 0,0 1 0,-4 1 0,-9 8 0,16-12 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 1 0,12 9 0,29 4 0,-32-11 0,-4 0 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,-1-1 0,1 1 0,-1 1 0,0-1 0,0 0 0,0 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 1 0,0-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,0-1 0,0 1 0,-1 0 0,0-1 0,-3 13 0,2-16 0,1-1 0,-1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,-5 1 0,-61 3 0,68-4 0,-36 2 0,25-1 0,0 0 0,0 0 0,0-2 0,0 1 0,0-2 0,-20-4 0,22 1-1365,4-2-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink79.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:17:18.660"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2833 96 24575,'12'0'0,"-1"1"0,1 1 0,-1 0 0,1 0 0,-1 1 0,0 0 0,0 1 0,0 0 0,-1 1 0,1 1 0,-1-1 0,0 1 0,-1 1 0,1 0 0,-1 0 0,-1 1 0,1 0 0,-1 1 0,8 11 0,-13-16 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0 1 0,0-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,-6 6 0,-4 3 0,0 0 0,-1-1 0,0-1 0,-1 0 0,-1-1 0,0 0 0,-25 12 0,32-19 0,0-1 0,-1 0 0,0 0 0,0-1 0,0-1 0,0 1 0,0-1 0,0-1 0,0 0 0,0-1 0,0 0 0,0 0 0,0-1 0,0 0 0,-17-7 0,-37-20 0,61 28 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1-5 0,3 5-80,0 1 0,0-1-1,0 1 1,0-1 0,1 1-1,-1 0 1,1 0 0,-1-1-1,1 1 1,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1-1,4-3 1,4-2-6746</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="469.85">3232 80 24575,'-12'1'0,"0"1"0,0 0 0,0 1 0,1 1 0,-1-1 0,1 2 0,0-1 0,0 2 0,0-1 0,1 1 0,0 1 0,0 0 0,0 1 0,1 0 0,1 0 0,-16 19 0,18-20 0,0 0 0,1 1 0,0 0 0,0 0 0,1 0 0,0 1 0,1 0 0,0 0 0,0-1 0,-1 12 0,3-14 0,0 1 0,1-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,2 0 0,-1 1 0,0-1 0,1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,8 10 0,1-5 0,-1-1 0,1 0 0,0 0 0,1-1 0,13 8 0,-6-4 0,0 1-111,-4-3-203,0 0 1,1-1-1,20 9 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2113.58">4108 96 24575,'13'3'0,"0"0"0,0 1 0,0 0 0,-1 1 0,0 1 0,0 0 0,0 0 0,20 16 0,-17-13 0,6 4 0,0 1 0,-1 1 0,31 31 0,-37-33 0,-11-11 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1 0 0,0-1 0,2 7 0,-3-7 0,-1-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 0 0,0 1 0,-3 2 0,-5 6 0,-1 0 0,0-1 0,-1 0 0,0 0 0,-1-1 0,1-1 0,-15 8 0,9-6 0,0 1 0,-22 19 0,34-25 0,0 1 0,1-1 0,-1 1 0,1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,-2 8 0,-7 21-1365,9-24-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2570.25">4012 829 24575,'176'-16'0,"-32"0"0,-112 13 0,-1-1 0,0-1 0,47-14 0,-37 8 0,-14 4-1365,-15 2-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6769.44">12 192 24575,'20'-1'0,"1"2"0,-1 1 0,0 0 0,0 1 0,35 11 0,-48-12 0,-1 0 0,1 1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,2 9 0,-3-9 0,0 0 0,-1 1 0,1 0 0,-1-1 0,-1 1 0,1 0 0,-1 0 0,0-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,-6 5 0,3-3 0,-1-1 0,1 0 0,-2 0 0,1-1 0,0 0 0,-1-1 0,0 1 0,0-2 0,0 1 0,-1-1 0,1-1 0,-1 0 0,0 0 0,1-1 0,-20 0 0,25-1-76,0 1 9,1-1-1,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 0 1,0 1-1,1-1 0,-6-4 0,1-4-6758</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6344.29">586 128 24575,'-15'-1'0,"0"1"0,1 1 0,-1 0 0,0 1 0,1 0 0,-1 1 0,1 1 0,0 1 0,-16 6 0,-13 9 0,-58 30 0,91-44 0,1 1 0,-1 0 0,1 0 0,0 1 0,1 0 0,0 1 0,-11 13 0,18-21 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 2 0,1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,6 3 0,9 3 0,0-1 0,0-1 0,25 6 0,-38-11 0,29 5 0,0-2 0,0-1 0,1-2 0,47-4 0,2 1 0,-75 2-116,0 0-92,1 0-1,-1-1 1,0 1 0,0-2 0,9-2 0,-7 1-6618</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4851.76">1685 303 24575,'527'0'0,"-498"3"-1365,-19 1-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4501.26">2084 0 24575,'15'63'0,"-15"99"0,1 28 0,2-177-1365,0-2-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30258.92">888 367 24575,'3'-2'0,"0"0"0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,2-5 0,5-7 0,-6 13 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1 0 0,3 2 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,8 12 0,-13-16 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,-2 0 0,-49 23 0,36-17 0,13-5 0,-1-1 0,0 1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0 0 0,-3 3 0,5-5 0,1 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 1 0,20 18 0,56 35 0,-36-25 0,45 25 0,-81-52 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 1 0,-1-1 0,3 6 0,-5-8 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,-3 2 0,-9 2 0,1-1 0,-1 0 0,0-1 0,0 0 0,0-1 0,0-1 0,1 0 0,-24-4 0,-16 2 0,28 2-227,0-1-1,0 0 1,0-2-1,0-1 1,-34-10-1,49 10-6598</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31554.77">3423 415 24575,'-17'94'0,"11"-57"0,4-29 0,0 0 0,1 1 0,0-1 0,0 1 0,1-1 0,0 1 0,2 11 0,-1-18 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,7 0 0,132 17-1365,-127-17-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31936.82">3598 478 24575,'-1'78'0,"2"84"0,31 14 0,-29-164-1365,1-2-5461</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -9038,6 +12381,289 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">209 210 24575,'51'17'0,"-39"-15"0,89 16 0,-1-3 0,148 2 0,-188-16 0,100 15 0,-111-11 0,2-3 0,59-4 0,-51 0 0,60 5 0,-96 0 0,0 0 0,-1 2 0,24 7 0,-46-12 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-11 6 0,-15 1 0,5-4 0,-1 0 0,1-2 0,-1-1 0,1 0 0,-1-2 0,1 0 0,-1-1 0,1-1 0,1 0 0,-33-14 0,7 3 0,-2 2 0,-1 0 0,-84-9 0,77 13 0,36 4 0,-1 2 0,-29-2 0,-120-18 0,150 22 0,-1-2 0,-25-5 0,-5-2 0,81 11 0,1 0 0,-2-2 0,2-2 0,32-6 0,-16 3 0,57-1 0,52-5 0,4 0 0,-124 11 0,53-9 0,-52 5 0,45-1 0,-10 4-61,70-9-1,-6 0-688,-82 9 757,53-9 1,-63 6 90,66-1-1,-69 6 124,-1-3 0,41-6 0,7-1-221,-506 13 0,210-5 0,175 3 0,-54 9 0,56-4 0,-60 1 0,-66 4 0,-4 1 0,-108-13 0,1735 1 0,-3029 0 0,1613 1 0,0 3 0,54 9 0,-46-7 0,-2-2 0,100-6 0,-41-1 0,372 3 0,-470-1 0,1 0 0,34-8 0,30-4 0,-20 13 0,-1011-1-587,446 3 367,474-1 413,-55 10 0,-20 1 166,12-13-295,63-1-65,0 1 1,0 2 0,0 1 0,1 1-1,-39 8 1,63-8 0,15 0 0,34 1 0,1 0 0,164 24 0,-123-20 0,57 0 0,-91-7 0,64 9 0,-32-1-227,0-4 0,114-7 0,-56 0 66,596 2 1003,-773 0-842,-18 1 0,1-3 0,-84-11 0,-59-11 0,-25 1 0,157 16-9,-1 2-1,1 2 0,-63 6 1,5 0-528,-399-3 1112,496 1-575,-2 2 0,-27 6 0,-42 2 0,71-9 0,1 1 0,0 1 0,-25 7 0,113-10 0,-21 1 0,1082-3-831,-969-10 831,-4-1 0,27-2-107,-75 3 37,-16 2 44,-48 3 466,55-1 0,-79 6-384,0 0-1,33-8 1,31-3-69,5 12 13,-232 2 0,-116-4 0,175-8 0,49 5 0,-60-3 0,26 9 0,-7 0 0,1-2 0,-82-13 0,82 6 0,-2 3 0,-110 6 0,58 2 0,-640-3 0,813 2 0,50 7 0,-52-3 0,58 1 0,1556-8-2226,-1619 0 2221,54-10 1,-53 6 5,50-2 0,-64 7 82,7 0 455,0-1-1,0-1 1,42-8-1,-45 6-537,1 1 0,0 0 0,43 3 0,-212 2 0,-122-4 0,182-9 0,53 6 0,-55-2 0,-768 8 0,824 0 0,-54 9 0,53-5 0,-52 3 0,-49 3 0,86-5 0,-50 0 0,-62 5 0,-4 1 0,154-12 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1 0 0,-1 1 0,2-1 0,-1 1 0,-9 4 0,15-6 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 1 0,20 7 0,51 10 0,1-4 0,82 5 0,-55-12-333,36 4-185,-54-2 518,1-4 0,114-7 0,-55-1 0,392 3-1130,-498-1 1130,54-9 0,-53 4 0,48 0 0,-61 6 194,0-2 0,0 0 1,39-7-1,-13 2 89,1 3-1,0 2 0,55 4 0,-82-1-207,-1349-1-771,1283 2 696,-57 9 0,15 0 0,-1-2 0,-93 5 0,136-12 0,-47 8 0,46-5 0,-43 2 0,84-7 0,-44 0 232,1 2 0,-57 8 0,71-5-232,-1-2 0,-42-1 0,187-4 0,133 4 0,-162 9 0,-50-6 0,52 2 0,627-8-732,-666-1 732,47-7 0,36-3 0,-23 12 131,-33 0 153,130-13-1,-144 7-268,119 2 1,-126 5-13,-1921-1-3,1840-2 0,-56-8 0,56 5 0,-50-3 0,1462 9 0,-1353-2 0,52-9 0,-52 5 0,49-2 0,188 8 0,-1733-1 0,1437 1 0,-53 10 0,51-7 0,-49 3 0,43-7 0,7 0 0,-1 0 0,1 2 0,-52 9 0,52-6 0,-1-1 0,1-2 0,-59-2 0,66-1 0,131 23 0,75 1 0,-128-13 0,0-3 0,66 0 0,203 10 0,-194-9-485,141-8 0,-98-3 218,482 3 1504,-646 0-1510,-1-1 0,0 1 0,0-2 0,17-3 0,-10 0-6553</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink80.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:17:53.967"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'2'2'0,"1"1"0,-1-1 0,1 0 0,0 1 0,0-1 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,3 1 0,9 4 0,192 85 0,-159-71 0,-7-3 0,9 3 0,0 3 0,86 51 0,-133-71 0,1-1 0,-1 1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,4 6 0,-7-8 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,-3 2 0,-49 45 0,-96 63 0,139-105-1365,2-2-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="442.5">96 862 24575,'111'-17'0,"82"1"0,189 17-1365,-368-1-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="916.55">1148 49 24575,'2'1'0,"-1"-1"0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 3 0,8 31 0,73 318 0,-62-267-6,-11-53-334,-2 0 1,-1 0-1,1 37 0,-7-56-6486</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink81.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:18:11.200"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 415 24575,'0'-1'0,"1"0"0,-1 1 0,0-1 0,1 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,33-2 0,-31 2 0,206 0-1365,-196 0-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="242.49">80 176 24575,'2'21'0,"0"0"0,2 0 0,0 0 0,9 24 0,-7-24 0,0 1 0,-2 0 0,4 40 0,-9 65-1365,1-113-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="670.18">686 272 24575,'127'-17'0,"-117"17"0,0 1 0,-1 0 0,1 0 0,-1 1 0,1 1 0,-1-1 0,0 2 0,0-1 0,0 1 0,0 0 0,-1 1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 1 0,0 0 0,11 13 0,-10-10 0,-1 1 0,0 0 0,0 0 0,-1 0 0,-1 1 0,0 0 0,0 0 0,-1 0 0,-1 1 0,0-1 0,-1 1 0,0 0 0,0 20 0,-2-23 0,-1-1 0,0 1 0,0-1 0,-1 1 0,-1-1 0,1 0 0,-1 1 0,-1-2 0,0 1 0,0 0 0,0-1 0,-1 1 0,-1-1 0,1-1 0,-1 1 0,-1-1 0,1 0 0,-1 0 0,0-1 0,-1 0 0,1 0 0,-1-1 0,-1 0 0,-11 5 0,-1-1 0,0-2 0,-1 0 0,0-2 0,-1-1 0,1 0 0,-1-2 0,1 0 0,-1-1 0,-32-4 0,46 1-76,0 0 1,0-1-1,0 0 0,0 0 0,1 0 0,0-1 0,-1-1 0,1 0 1,1 0-1,-1 0 0,1-1 0,0 0 0,0 0 0,1-1 1,0 0-1,0 0 0,-6-10 0,6 10-6750</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1098.78">1307 319 24575,'-14'1'0,"-1"-1"0,1 2 0,-1 0 0,1 1 0,0 0 0,0 1 0,0 1 0,0 0 0,1 1 0,0 0 0,0 1 0,0 1 0,1 0 0,-22 19 0,20-15 0,0 1 0,1 1 0,1 0 0,0 0 0,1 1 0,-18 32 0,26-41 0,-1 0 0,1 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,1 1 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0-1 0,0 1 0,6 10 0,-3-9 0,1 0 0,0-1 0,0 0 0,1 0 0,0 0 0,0-1 0,1 0 0,0-1 0,0 1 0,0-2 0,0 1 0,1-1 0,0 0 0,0-1 0,0 0 0,15 3 0,0-1 0,0-2 0,0-1 0,0 0 0,0-2 0,34-4 0,-6-8-1365,-41 10-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1668.43">1627 686 24575,'-8'1'0,"1"0"0,0 1 0,-1-1 0,1 1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,0 0 0,0 1 0,-6 5 0,-1 1 0,1 0 0,0 2 0,0-1 0,-15 25 0,11-13 0,0 2 0,-17 42 0,29-62 0,2 1 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,1 0 0,-1 0 0,1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,1 0 0,3 11 0,-1-12 0,-1-1 0,1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,1-1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,1-1 0,-1 1 0,1-1 0,9 1 0,3 1 0,-1-1 0,0-1 0,1-1 0,-1 0 0,30-4 0,-42 2 0,1 0 0,-1 0 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 0 0,0 0 0,-1-1 0,1 0 0,-1 0 0,9-8 0,-12 10 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-4-3 0,2 3 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,-6 1 0,-12 2 0,0 2 0,-39 14 0,59-19 0,-1 0 0,-51 22 0,51-22 0,1 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,-2 4 0,9-7 0,0 0 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,3-2 0,85-47-1365,-78 43-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2501.88">2009 160 24575,'43'0'0,"1"2"0,52 9 0,-80-8 0,0 1 0,0 0 0,-1 1 0,1 1 0,-1 1 0,0 0 0,-1 1 0,1 0 0,13 11 0,85 73 0,-113-92-40,1 1 0,-1-1 0,1 1 0,-1-1-1,1 1 1,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1-1,1-1 1,-1 1 0,0 0 0,0-1 0,0 1 0,1-1-1,-1 1 1,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0-1,-1-1 1,1 1 0,0 0 0,0-1 0,0 1 0,0-1-1,-1 1 1,1-1 0,-1 2 0,-3 3-6786</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2712.17">2121 543 24575,'-3'0'0,"-1"3"0,-2 0 0,-3 0 0,0 3 0,-1 0 0,-2-2 0,2 2 0,-1 0 0,2 1 0,-1 0 0,2 1 0,2 0-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3119.79">1929 766 24575,'15'-2'0,"0"-1"0,0-1 0,0 0 0,-1 0 0,0-2 0,0 1 0,0-2 0,0 0 0,-1-1 0,15-11 0,24-12 0,12-4 0,-3-2 0,-1-2 0,103-90 0,-132 85 87,-28 39-249,0-1 1,0 1 0,0 0 0,1 0-1,0 0 1,0 0 0,0 1-1,8-6 1,-6 7-6665</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3547.69">2232 893 24575,'0'1'0,"0"-1"0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,14 4 0,110-33 0,61-12 0,-74 25 0,-109 17 2,1 0 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 0 0,-1 1 0,1-1 1,-1 0-1,0 0 0,1 1 0,-1-1 0,0 0 0,0-1 0,1-1 0,1-5-63,-1 0 0,0-1 0,0 1 1,0-18-1,1-3-1053,-1 18-5712</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3881.24">2901 1 24575,'1'0'0,"0"0"0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,2 33 0,-2-31 0,3 33 0,11 55 0,2 5 0,-9-48 0,1 29 0,8 66 0,-15-126 41,1 0-1,5 28 1,2 6-1528,-9-46-5339</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink82.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:18:08.732"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">139 36 24575,'8'-1'0,"0"0"0,1-1 0,-1 1 0,0-2 0,16-5 0,-16 4 0,2 1 0,-1 0 0,0 1 0,17-3 0,-14 5 0,16-2 0,0 1 0,49 5 0,-69-3 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,-1 0 0,1 1 0,-1 0 0,0 0 0,0 0 0,-1 1 0,1 0 0,10 11 0,-12-10 0,0 0 0,0 0 0,-1 0 0,0 1 0,0 0 0,-1-1 0,0 1 0,0 1 0,0-1 0,-1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,-2 11 0,0-5 0,-1-1 0,0 1 0,-1-1 0,0-1 0,-1 1 0,0-1 0,-1 0 0,0 0 0,-1-1 0,0 1 0,-12 10 0,7-8 0,-2-1 0,1-1 0,-2 0 0,1-1 0,-1 0 0,-1-2 0,0 0 0,-25 9 0,28-13 0,0 0 0,0-1 0,0 0 0,0-1 0,-1-1 0,1 0 0,-1-1 0,1 0 0,0-1 0,-1-1 0,-20-5 0,26 4-91,0-1 0,0 0 0,0-1 0,0 0 0,1 0 0,0 0 0,0-1 0,0-1 0,1 1 0,0-1 0,0-1 0,1 1 0,0-1 0,-7-11 0,8 10-6735</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="578.47">856 36 24575,'-24'0'0,"-3"-1"0,-1 2 0,-37 5 0,55-4 0,0 1 0,0 0 0,0 0 0,1 1 0,-1 0 0,1 1 0,0 0 0,0 0 0,-14 12 0,2 0 0,8-8 0,1 0 0,0 1 0,1 0 0,0 1 0,1 0 0,0 1 0,1 0 0,0 0 0,-13 26 0,20-34 0,-5 11 0,0 0 0,2 0 0,-1 1 0,-4 26 0,9-37 0,1-1 0,-1 1 0,1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,1 0 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,6 5 0,0-1 7,0-1 0,0-1 0,0 0 0,0 0 0,1 0 1,0-2-1,0 1 0,1-1 0,-1 0 0,1-1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 0 0,15-1 0,-6-1-193,0-2 1,1 0-1,-1-1 0,0-1 1,-1 0-1,1-2 1,36-17-1,-45 18-6640</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1096.91">1159 259 24575,'-1'18'0,"-1"0"0,0 0 0,-2 0 0,0-1 0,-1 0 0,0 1 0,-2-2 0,-14 29 0,21-44 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,1 0 0,44 3 0,-27-2 0,-13 0 0,0 1 0,0 0 0,1 0 0,-1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,0 0 0,0 0 0,0 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-2 0 0,1 0 0,-1 0 0,1 1 0,-2-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,-1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,-1 0 0,1 0 0,-5 8 0,2-9 0,1 0 0,-1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1-1 0,1 0 0,-10 2 0,7-2 0,0 0 0,0-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,0-1 0,-1 0 0,1 0 0,-11-4 0,15 2 0,-1 0 0,1 0 0,1 0 0,-1-1 0,0 0 0,1 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,1 0 0,-3-6 0,-1-2 0,1 1 0,1-1 0,0 0 0,0 0 0,-2-21 0,5 26-170,1 1-1,0-1 0,0 0 1,0 0-1,1 1 0,1-1 1,1-9-1,1 6-6655</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1443.18">1286 275 24575,'3'0'0,"3"0"0,4 0 0,0-3 0,1 0 0,1-1 0,2 2 0,1 0 0,0 0 0,1 2 0,-3-3 0,0-1 0,-1 1 0,2 0 0,0 1 0,-2 1-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink83.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:18:07.648"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 192 24575,'68'-9'0,"-25"1"0,-18 5 0,23-3 0,56 0 0,-66 6-455,1-1 0,62-10 0,-89 9-6371</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="382.52">367 1 24575,'0'26'0,"-1"26"0,3 0 0,9 61 0,6-34-1365,-15-67-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink84.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:18:04.672"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575,'26'1'0,"-1"2"0,0 1 0,24 7 0,18 2 0,-39-8 0,0 1 0,0 1 0,-1 2 0,-1 0 0,1 2 0,-1 1 0,-1 1 0,34 23 0,-46-25 0,-1 0 0,-1 1 0,0 0 0,11 15 0,-17-21 0,-1 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 1 0,0 8 0,-2-12 0,-1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-4 1 0,-8 4 0,-1-1 0,1 0 0,-20 4 0,21-5 0,0-2 0,0 0 0,0 0 0,-1-2 0,1 1 0,-1-2 0,1 0 0,0-1 0,-1 0 0,1-1 0,0-1 0,-26-8 0,28 7-1365,1 1-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1146.62">845 65 24575,'-28'-1'0,"1"2"0,-1 1 0,1 1 0,0 1 0,-29 8 0,50-10 0,0 0 0,0 0 0,1 0 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 9 0,0 8 0,1 78 0,1-91 0,0-1 0,0 1 0,1 0 0,0-1 0,1 0 0,0 1 0,0-1 0,6 9 0,-7-14 0,1-1 0,1 1 0,-1 0 0,0-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,2 0 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,9 0 0,7 1 0,0-1 0,35-1 0,-49-2 0,81 2 0,63-3 0,-86-11-1365,-52 11-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1727.32">1291 383 24575,'0'7'0,"-1"0"0,-1-1 0,1 1 0,-1-1 0,-1 1 0,-5 11 0,-6 21 0,-12 58 0,-10 48 0,36-144 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,4-1 0,9 1 0,1-1 0,-1 0 0,1-2 0,15-4 0,1 1 0,221-11-1365,-238 17-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2196.45">1531 463 24575,'16'111'0,"-14"-85"0,0 0 0,13 48 0,-5-27 0,6 95 0,-13-106 0,-1-23-1365,1-2-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink85.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:18:18.901"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 191 24575,'137'3'0,"141"-6"0,-229-7 0,-46 10 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,1-4 0,-5 0-1365</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="319.78">335 0 24575,'2'1'0,"-1"-1"0,0 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 3 0,9 32 0,-9-33 0,13 73 0,5 88 0,-13-138-1365,-3-16-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1278.01">989 176 24575,'36'-14'0,"-10"2"0,2 8 0,0 0 0,0 2 0,0 1 0,45 4 0,0-1 0,-69-2 0,0-1 0,1 2 0,-1-1 0,0 0 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-2 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0 7 0,0-3 0,-1 0 0,0 0 0,-1 0 0,0 0 0,0 1 0,-1-1 0,0-1 0,-1 1 0,1 0 0,-2 0 0,1-1 0,-1 0 0,-1 0 0,0 0 0,-10 13 0,-4-2 0,-1-1 0,-1-1 0,-1-1 0,0-1 0,-1-1 0,-1-1 0,-43 17 0,53-24 0,-1 0 0,-1-2 0,1 0 0,-18 3 0,25-6 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,0-1 0,0 0 0,1 0 0,-1-1 0,-9-3 0,12 2-72,0 0 1,0 0-1,1-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 1,0-1-1,1 0 0,0 1 0,0-1 0,0 0 0,1-1 0,-1 1 1,1 0-1,0-1 0,-1-5 0,1-2-6754</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1778.58">1611 48 24575,'-9'2'0,"0"1"0,0 0 0,0 1 0,1 0 0,0 0 0,0 1 0,0 0 0,0 0 0,1 0 0,-12 12 0,-6 2 0,22-16 0,-102 78 0,96-73 0,0 0 0,0 1 0,1 1 0,0-1 0,0 1 0,1 1 0,1-1 0,-8 17 0,12-23 0,1 0 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,5 3 0,-1-1 0,1 0 0,0-1 0,0 0 0,0 0 0,0-1 0,0 0 0,1 0 0,-1-1 0,1 0 0,0-1 0,0 0 0,15 0 0,311-3-1365,-321 2-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2280.2">2057 287 24575,'8'57'0,"-6"-48"0,0 1 0,0 0 0,-1 0 0,0 0 0,-1 11 0,-3-3 0,-1 1 0,-1-2 0,-1 1 0,0 0 0,-1-1 0,-1 0 0,0-1 0,-12 17 0,19-33 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,39 2 0,-30-2 0,-3 0 0,1 1 0,-1 0 0,0 0 0,0 1 0,1 0 0,-1 0 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 1 0,-1 0 0,0 0 0,0 1 0,0 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,0 0 0,0 1 0,0-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,0 0 0,-1 1 0,2 11 0,-3-13 0,0 1 0,-1-1 0,1 1 0,-1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,-1 0 0,1 0 0,-7 9 0,7-11 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,-6 0 0,-23 4 0,30-3 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,-5-4 0,-4-7-170,0-1-1,1 0 0,1-1 1,0 0-1,2-1 0,0 0 1,-9-25-1,13 32-6655</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2598.32">2057 239 24575,'102'-9'0,"-58"4"0,-5 3 28,-30 3-307,1-2 1,0 1-1,0-1 1,15-4-1,-15 2-6547</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2857.11">2662 255 24575,'150'-11'0,"-122"8"0,49 0-1365,-63 4-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3203.18">2917 32 24575,'0'4'0,"-1"-1"0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,-3 6 0,-9 21 0,6 21 0,2 1 0,3-1 0,4 57 0,-5 75 0,-2-163-1365</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink86.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:18:17.538"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 97 24575,'5'-1'0,"1"0"0,0 0 0,-1 0 0,1-1 0,-1 0 0,1 0 0,6-4 0,34-9 0,-16 12 0,0 1 0,57 4 0,-76-1 0,0 1 0,1-1 0,-1 2 0,0 0 0,0 0 0,0 1 0,0 0 0,-1 1 0,0 0 0,17 11 0,-21-11 0,-1 0 0,1 0 0,-1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,-1 0 0,0 1 0,0-1 0,-1 0 0,0 1 0,0-1 0,-1 1 0,0-1 0,0 1 0,-1-1 0,0 1 0,0-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,0 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1-1 0,-6 7 0,-10 8 0,-1 0 0,-26 16 0,39-29 0,-1-2 0,1 1 0,-1-1 0,-1-1 0,1 0 0,-1 0 0,1-1 0,-19 3 0,28-6 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,-1-2 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-5 0,1-4 0,0 0 0,1 1 0,0-1 0,5-17 0,-5 25-136,1 0-1,0 1 1,0-1-1,1 1 1,-1 0-1,1 0 1,0 0-1,0 0 0,4-4 1,0 0-6690</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="452.63">814 2 24575,'-16'0'0,"4"-1"0,0 0 0,-1 1 0,1 1 0,0 0 0,0 1 0,-1 0 0,1 1 0,0 0 0,1 1 0,-1 0 0,-16 9 0,-30 17 0,34-19 0,0 2 0,2 0 0,-42 31 0,60-41 0,0 0 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,3 7 0,-1-6 0,0-1 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 0 0,0 1 0,1-1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,0-1 0,1 1 0,-1-1 0,8 2 0,11 5 0,1-2 0,48 7 0,-48-10 30,-1-2 0,0-1 0,26-1 0,-41-1-165,1 1 0,0-2 0,-1 1 0,1-2 0,-1 1 0,1-1 0,-1 0 0,0-1 0,-1 0 0,13-8 0,-13 6-6691</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1048.63">1165 257 24575,'29'-1'0,"-6"0"0,-1 1 0,1 1 0,-1 1 0,28 6 0,-46-8 0,1 1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 2 0,0-1 0,-1 0 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,0 1 0,1-1 0,-1 0 0,0 7 0,-1-7 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,-6 3 0,-64 45 0,52-39 0,-23 17 0,-61 28 0,104-57 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,22 6 0,35-5 0,-30 0 0,0 0 0,49 12 0,4 0 0,-35-8-1365,-37-8-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink87.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:18:24.688"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575,'9'10'0,"-1"1"0,-1 0 0,0 1 0,-1 0 0,0 0 0,8 21 0,-4-8 0,11 34 0,-2 1 0,-2 1 0,10 84 0,-3-21 0,-7-60 0,44 107 0,-58-165 0,1 4-273,1-1 0,1 1 0,-1-1 0,10 10 0,-9-11-6553</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink88.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-14T20:18:22.608"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">65 223 24575,'62'-15'0,"-46"14"0,0 1 0,0 0 0,0 1 0,0 0 0,0 2 0,-1 0 0,1 0 0,-1 2 0,0 0 0,0 1 0,0 0 0,-1 1 0,0 0 0,0 2 0,-1-1 0,14 13 0,-23-18 0,1 1 0,-1 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,0-1 0,0 1 0,-1-1 0,0 1 0,1-1 0,-2 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-6 5 0,-9 6 0,-2 0 0,0-2 0,0-1 0,-2 0 0,1-2 0,-1 0 0,-1-1 0,0-2 0,-1 0 0,1-2 0,-1 0 0,0-2 0,-38 3 0,60-7 5,-1 0 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1-1 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0 0,0 0-1,0-1 1,0 1 0,0-1 0,0 1-1,1-1 1,-1 0 0,0 0 0,1 0 0,-1 0-1,1 0 1,-2-2 0,2 0-111,-1 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0-1,0-1 1,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,2-7 0,1-3-6720</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="406.92">862 255 24575,'-14'3'0,"1"0"0,0 1 0,1 1 0,-1 0 0,1 0 0,0 1 0,0 1 0,-20 14 0,18-12 0,-2 1 0,-103 71 0,107-72 0,2 0 0,-1 1 0,2 0 0,-1 1 0,1 0 0,1 0 0,0 1 0,-7 12 0,13-20 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,7 5 0,-4-4 0,1 0 0,0-1 0,0 1 0,0-2 0,1 1 0,-1 0 0,1-1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,1 0 0,10 0 0,3-1 24,0-1 0,0-1 0,-1-1 0,38-10 0,-48 10-148,1-1 0,-1 1 1,-1-2-1,1 0 0,0 0 0,-1-1 1,0 0-1,-1 0 0,1-1 0,-1 0 1,8-10-1,-10 9-6702</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="949.09">1372 510 24575,'-10'1'0,"1"0"0,-1 1 0,1 0 0,0 1 0,0 0 0,0 0 0,0 1 0,0 0 0,-10 6 0,-76 54 0,78-52 0,-7 5 0,1 1 0,0 1 0,-36 40 0,55-55 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,0 1 0,0-1 0,0 1 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,1 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,2 0 0,-1 0 0,4 11 0,-1-10 0,1-1 0,0 1 0,0-1 0,1 1 0,0-2 0,0 1 0,0-1 0,0 1 0,1-2 0,0 1 0,0-1 0,11 5 0,-2-1 0,1-1 0,0-1 0,0 0 0,30 6 0,-24-9 0,1 0 0,0-2 0,0-1 0,-1 0 0,48-8 0,-70 8 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1-1 0,-2-3 0,0 0 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0 0 0,-1 0 0,-10-3 0,-11 3 0,1 1 0,-1 1 0,1 1 0,0 2 0,-1 1 0,1 0 0,0 2 0,0 1 0,1 2 0,-30 11 0,5 5 0,46-20 0,33-14 0,69-27 60,41-18-1485,-127 49-5401</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1439.49">1850 1 24575,'2'2'0,"0"0"0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,6 2 0,4 1 0,219 82 0,-191-73 0,-40-13 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 2 0,-1-2 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-3 2 0,-9 8 0,0 0 0,-1-1 0,-15 8 0,16-10 0,-154 89 0,-20 13 0,153-81-1365</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1728.38">1834 702 24575,'19'-1'0,"1"-1"0,-1-1 0,26-7 0,-26 5 0,1 1 0,0 0 0,26 0 0,225-11 0,-220 13-154,50-8-1,-68 6-901,-26 3-5770</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9073,10 +12699,6 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">20391 1616 24575,'-8'1'0,"0"0"0,1 0 0,-1 1 0,1 0 0,-1 0 0,1 1 0,0 0 0,0 1 0,0-1 0,-12 7 0,-63 52 0,67-50 0,-52 43 0,-111 117 0,149-138 0,1 1 0,1 2 0,2-1 0,2 3 0,-25 55 0,29-39 0,-18 76 0,31-99 0,-3 61 0,1-3 0,4-57-88,2 0 1,1 0-1,2 0 0,1 0 0,2-1 1,1 0-1,17 54 0,0-18-146,3-1 0,52 94 0,-25-73 433,3-3 1,122 143-1,-142-191-175,2-1-1,2-1 1,0-3 0,3-1 0,1-2-1,65 34 1,-90-56 28,1 2 0,-1-2 0,0-1 0,1 0 0,0-2 0,1 0 0,22 1 0,-3-2 23,2-2 0,61-5-1,-91 2-74,-1 0 0,0-1 0,0 0 0,0 0 0,0-1 0,0 0 0,-1-1 0,1 0 0,-1-1 0,0 0 0,-1 1 0,1-2 0,-2 0 0,13-13 0,7-11 0,0-1 0,27-48 0,-48 71 0,3-10 0,0 0 0,-1-1 0,-1 1 0,-1-1 0,-1-1 0,-1 1 0,2-32 0,4-14 0,-2 6-210,-3 1 0,-6-115-1,-2 60 62,3 65 104,-7-243-1336,2 230 1006,-2 0-1,-29-103 0,-126-293-517,116 360 595,-2 2 0,-94-135 0,-43-16 218,140 195 53,-1 2 1,-81-68-1,74 80 27,0 2 0,-3 2 0,-2 2 0,0 3 0,-2 3 0,-68-23 0,86 36 623,-2 2 0,1 1 1,-1 2-1,0 3 0,-1 1 0,1 1 1,-79 7-1,108-1-607,0-1 0,-1 2-1,1 1 1,0 0 0,0 1 0,1 0 0,0 0 0,1 2 0,-1 1-1,1-1 1,0 1 0,1 1 0,1 0 0,0 0 0,0 2 0,-14 17 0,-3 9-12,1 1 1,3 0 0,0 1 0,-18 49 0,14-19-415,3 1-1,2 1 1,5 1-1,3 0 1,-6 82-1,6 374-2727,15-416 2990,3-39-88,2 0-1,30 133 1,67 136-473,-66-248 953,4-1-1,4-2 0,79 118 1,-90-161-110,2-1 0,2-2 0,3-1 0,1-2 0,2-2 0,2-2 0,65 45 0,-44-42 184,108 54-1,-146-83-226,0-2 0,1-1 0,1 0 0,0-2 0,0-3-1,62 7 1,7-2-91,-68-6 0,2-1 0,-1-2 0,0 0 0,1-2 0,50-7 0,-39-1 132,0-2 0,1-1 0,-2-3 0,0-1 0,-1-2 0,41-24 0,-12 1-132,-19 12 0,0-2 0,-3-3 0,52-45 0,-54 37 0,-2-3 0,-3-2 0,0-1 0,-4-1 0,-1-3 0,-4-1 0,-2-1 0,-2-2 0,-2-1 0,-4-1 0,28-105 0,-31 85 0,-6 1 0,-2-2 0,0-107 0,-12 125 0,-3 0 0,-3 0 0,-3 1 0,-2 0 0,-3 0 0,-3 0 0,-31-71 0,21 72-85,-3 2 0,-2 1 0,-3 2-1,-2 0 1,-3 3 0,-1 2 0,-74-67 0,72 75 63,-3 4 0,-2 1 0,0 2 0,-103-52 0,110 66-4,-2 3 1,1 0-1,-3 4 1,2 0-1,-2 2 1,-1 4-1,-48-5 1,-17 0-83,-52-1-46,138 12 139,0 2 1,1 1 0,0 0-1,-41 10 1,-138 46-126,164-44 98,1 1 0,1 2-1,-40 24 1,-1 6 19,3 5-1,2 2 1,-87 83-1,122-99 24,1 2 0,2 2 0,2 0 0,2 3 0,2 1 0,2 0 0,-26 66 0,26-43-14,4 2 0,3 0 0,3 2 0,4-1 0,2 2 0,4 0 0,5 105 0,2-149 18,-1 21-3,2 0 0,2 0 0,3-2 0,22 86 0,-7-64 252,4-2-1,2-1 1,5 0-1,63 102 1,-76-140-14,1-1-1,2-1 1,2-1 0,0-1 0,1 0 0,2-2-1,1-1 1,38 25 0,-41-33 58,2 0 0,45 19 0,-56-30-231,-1 1-1,0-1 0,0-1 1,1 0-1,-1-1 1,32 0-1,6-3-65,56-7 0,-89 5 0,-1-1 0,0-1 0,-1 1 0,0-2 0,0-1 0,25-12 0,-33 13-2,105-55-922,131-91 0,-212 127 904,92-64-530,129-121 0,-238 194 207,43-39 194,-3-1-1,-3-4 1,66-91 0,-12-26 290,-97 153-20,0-2 1,-1 1-1,-2 0 1,0-1-1,6-44 1,-6 12 326,-3 34-78,-1-1 0,-2 0 1,0 0-1,-2 1 0,-1-2 1,-7-45-1,1 42-370,-1 0 0,-1 1 0,-1 0 0,-2 1 0,-1 0 0,-1 1 0,-2 1 0,0-1 0,-2 2 0,-25-28 0,42 51 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 1 0,0-1 0,-1 0 0,0 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 2 0,-28 56 0,26-51 0,-13 33-1365,7-21-5461</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">17816 8426 24575,'-5'1'0,"0"1"0,-1-1 0,1 0 0,1 1 0,-1 0 0,0 1 0,-6 3 0,-15 6 0,-26 5 0,-2-1 0,1-4 0,-57 8 0,66-15 0,-20 3 0,-79 1 0,-132-8-1951,-239-3-431,105-20 1941,41-2-3895,13 1 3759,-566-48-748,379 25-2408,-1108-146 2661,1621 188 1071,-1110-178 428,700 107-329,-141-35 3,-21-3 261,-554-105 2837,1027 187-578,-204-77-1,302 98-2689,-48-21 2958,74 28-2687,-1 1-1,1 0 1,0-1-1,0 0 0,0 0 1,0 0-1,1-1 1,-1 1-1,1-1 1,0 1-1,0 0 0,0-2 1,-2-4-1,4 8-193,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 0 0,1-1 0,0 0 12,0 0 1,1 1-1,-1 0 1,1-1 0,-1 1-1,1 0 1,-1 0-1,1 0 1,0 0-1,5 0 1,9 0 76,0-1 1,34 3-1,-41-1-87,115 0-10,67 3 0,-1 21-798,226 31-476,-104-9-137,120 11 1414,216 44-5148,-20-4 2997,634 118 1216,-227-35 344,-477-88 636,178 28 268,872 92 1089,-1368-184-1290,62 5 4016,-75-5-4131,-89-10 0,7 6 5404,-105-17-4694,-39-6-700,0-1 1,0 1-1,0-1 0,1 1 0,-1 0 1,0-1-1,0 1 0,0 0 0,1 1 1,-2-1-1,1 0 0,0 0 0,0 1 1,-1-1-1,3 3 0,-4-3-10,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-2-1 0,1 0 0,1 0 0,-2 0 0,-27 5 0,28-5 0,-302 4 0,159-7 0,-258-10-1313,4-2-1821,89 6 988,-209-15 2146,292 14 400,-115-1-4021,150 5 2481,-1406-97-1169,601-31 3184,606 64-1009,5-18 1,-665-237-1,427 75 1298,23-47-1,354 128-1348,71 45 2285,142 100-1721,1 0 0,0-3 0,3 0 0,-33-38 0,15 7 2896,-54-84-1,76 99-3223,-21-50 0,40 79-50,6 14-1,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,30 15 0,29 29 0,-25-16 0,45 28 0,20 16 0,-68-50 0,60 36 0,14 9 0,332 225-780,-284-195 628,562 323-3678,-365-234 3830,126 52-880,-364-182 1055,-61-33 14,82 52-1,-64-35 2292,91 44-1,-135-73-2348,-8 0-131,-18-6 0,-2-5 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,-2 0 0,2-1 0,-2-1 0,-74-50-181,-101-90 0,20 15-193,-563-335-3015,526 348 2517,-260-144-2860,205 125 3355,-403-204 251,-281-105-1592,419 220 3168,166 74-1142,249 103 579,48 21-1010,-125-51 3276,66 27 775,112 54-3457,14 13-36,20 20 6,131 129-441,-83-80-238,-48-48-26,76 64-1,184 148-1639,-149-123 811,-13-14 574,318 262-700,-269-237 1144,116 84-82,-126-113 1555,78 59 1592,-236-156-2548,-23-16-5,-25-16 30,-28-34-467,-87-97 0,80 78 0,-80-96 0,26 30 0,55 56 19,-61-91 0,63 80-1422,56 77-5423</inkml:trace>
 </inkml:ink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9344,143 +12966,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ137"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="91"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
-    </row>
-    <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="94"/>
-    </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="97"/>
-    </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="89" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="138"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="141"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="141"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="142"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="144"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="138"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99"/>
-    </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="146"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="101"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="85" t="s">
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="148"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="87"/>
-      <c r="O12" s="85" t="s">
+      <c r="B12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="151"/>
+      <c r="O12" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="87"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="150"/>
+      <c r="T12" s="150"/>
+      <c r="U12" s="151"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -9512,7 +13134,7 @@
       </c>
       <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -9546,7 +13168,7 @@
       </c>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>17</v>
@@ -9588,7 +13210,7 @@
       </c>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>19</v>
@@ -9621,16 +13243,16 @@
       </c>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
       <c r="H17" t="s">
@@ -9655,19 +13277,19 @@
       </c>
       <c r="U17" s="9"/>
     </row>
-    <row r="20" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B23" s="85" t="s">
+    <row r="20" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="87"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="151"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
@@ -9678,7 +13300,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="17" t="s">
         <v>42</v>
@@ -9694,7 +13316,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="17" t="s">
         <v>40</v>
@@ -9713,7 +13335,7 @@
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="17" t="s">
         <v>41</v>
@@ -9732,7 +13354,7 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -9741,24 +13363,24 @@
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A31" s="85" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="87"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="151"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="18" t="s">
         <v>44</v>
@@ -9786,7 +13408,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="21" t="s">
         <v>50</v>
@@ -9806,7 +13428,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="21" t="s">
         <v>51</v>
@@ -9832,7 +13454,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="23" t="s">
         <v>52</v>
@@ -9856,11 +13478,11 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="18" t="s">
         <v>69</v>
@@ -9888,7 +13510,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="21" t="s">
         <v>50</v>
@@ -9919,7 +13541,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="26" t="s">
         <v>51</v>
@@ -9953,7 +13575,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="7" t="s">
         <v>52</v>
@@ -9984,11 +13606,11 @@
       </c>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="18" t="s">
         <v>56</v>
@@ -10010,7 +13632,7 @@
       </c>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="21" t="s">
         <v>50</v>
@@ -10040,7 +13662,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="21" t="s">
         <v>51</v>
@@ -10070,7 +13692,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="7" t="s">
         <v>52</v>
@@ -10100,7 +13722,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -10111,52 +13733,52 @@
       <c r="H47" s="8"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A55" s="85" t="s">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="149" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="87"/>
-      <c r="R55" s="85" t="s">
+      <c r="B55" s="150"/>
+      <c r="C55" s="150"/>
+      <c r="D55" s="150"/>
+      <c r="E55" s="150"/>
+      <c r="F55" s="150"/>
+      <c r="G55" s="150"/>
+      <c r="H55" s="150"/>
+      <c r="I55" s="151"/>
+      <c r="R55" s="149" t="s">
         <v>76</v>
       </c>
-      <c r="S55" s="86"/>
-      <c r="T55" s="86"/>
-      <c r="U55" s="86"/>
-      <c r="V55" s="86"/>
-      <c r="W55" s="86"/>
-      <c r="X55" s="86"/>
-      <c r="Y55" s="86"/>
-      <c r="Z55" s="87"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="S55" s="150"/>
+      <c r="T55" s="150"/>
+      <c r="U55" s="150"/>
+      <c r="V55" s="150"/>
+      <c r="W55" s="150"/>
+      <c r="X55" s="150"/>
+      <c r="Y55" s="150"/>
+      <c r="Z55" s="151"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="I56" s="5"/>
       <c r="R56" s="4"/>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="18"/>
       <c r="C57" s="19" t="s">
@@ -10200,7 +13822,7 @@
       </c>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>50</v>
@@ -10242,7 +13864,7 @@
       </c>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
         <v>51</v>
@@ -10284,7 +13906,7 @@
       </c>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
         <v>52</v>
@@ -10326,7 +13948,7 @@
       </c>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="7">
         <v>3</v>
@@ -10377,13 +13999,13 @@
       </c>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="I62" s="5"/>
       <c r="R62" s="4"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19" t="s">
@@ -10427,7 +14049,7 @@
       </c>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>50</v>
@@ -10469,7 +14091,7 @@
       </c>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>51</v>
@@ -10511,7 +14133,7 @@
       </c>
       <c r="Z65" s="5"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>52</v>
@@ -10553,7 +14175,7 @@
       </c>
       <c r="Z66" s="5"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4">
         <v>3</v>
@@ -10601,7 +14223,7 @@
       </c>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="37" t="s">
         <v>65</v>
@@ -10664,19 +14286,19 @@
       </c>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="I69" s="5"/>
       <c r="R69" s="4"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="I70" s="5"/>
       <c r="R70" s="4"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="18" t="s">
         <v>71</v>
@@ -10722,7 +14344,7 @@
       </c>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>50</v>
@@ -10767,7 +14389,7 @@
       </c>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
         <v>51</v>
@@ -10812,7 +14434,7 @@
       </c>
       <c r="Z73" s="5"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
         <v>52</v>
@@ -10857,7 +14479,7 @@
       </c>
       <c r="Z74" s="5"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="40">
         <v>3</v>
@@ -10905,7 +14527,7 @@
       </c>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="F76" s="44">
         <f>ABS(F72/F75)</f>
@@ -10919,13 +14541,13 @@
       </c>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="I77" s="5"/>
       <c r="R77" s="4"/>
       <c r="Z77" s="5"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="18" t="s">
         <v>72</v>
@@ -10971,7 +14593,7 @@
       </c>
       <c r="Z78" s="5"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
         <v>50</v>
@@ -11031,7 +14653,7 @@
       </c>
       <c r="Z79" s="5"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>51</v>
@@ -11094,7 +14716,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
         <v>52</v>
@@ -11154,7 +14776,7 @@
       </c>
       <c r="Z81" s="5"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="7">
         <v>3</v>
@@ -11214,13 +14836,13 @@
       </c>
       <c r="Z82" s="5"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="I83" s="5"/>
       <c r="R83" s="4"/>
       <c r="Z83" s="5"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" t="s">
         <v>73</v>
@@ -11229,7 +14851,7 @@
       <c r="R84" s="4"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -11249,7 +14871,7 @@
       <c r="Y85" s="8"/>
       <c r="Z85" s="9"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="R91" s="62" t="s">
         <v>128</v>
       </c>
@@ -11257,7 +14879,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="R92" t="s">
         <v>121</v>
       </c>
@@ -11307,7 +14929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="R93" t="s">
         <v>50</v>
       </c>
@@ -11351,7 +14973,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="R94">
         <v>1</v>
       </c>
@@ -11395,7 +15017,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="R95">
         <v>2</v>
       </c>
@@ -11439,7 +15061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="R96">
         <v>3</v>
       </c>
@@ -11483,7 +15105,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="97" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="97" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R97">
         <v>4</v>
       </c>
@@ -11533,7 +15155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="99" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R99" t="s">
         <v>121</v>
       </c>
@@ -11583,7 +15205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="100" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R100" t="s">
         <v>50</v>
       </c>
@@ -11627,7 +15249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="101" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R101">
         <v>1</v>
       </c>
@@ -11671,7 +15293,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="102" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="102" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R102">
         <v>2</v>
       </c>
@@ -11715,7 +15337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="103" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R103">
         <v>3</v>
       </c>
@@ -11759,7 +15381,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="104" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="104" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R104" s="61">
         <v>4</v>
       </c>
@@ -11825,7 +15447,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="105" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="105" spans="18:36" x14ac:dyDescent="0.25">
       <c r="V105">
         <f>ABS(V100/V104)</f>
         <v>4.9999999999999991</v>
@@ -11835,7 +15457,7 @@
         <v>0.55555555555555536</v>
       </c>
     </row>
-    <row r="107" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="107" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R107" t="s">
         <v>121</v>
       </c>
@@ -11861,7 +15483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="108" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R108" t="s">
         <v>50</v>
       </c>
@@ -11894,7 +15516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="109" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R109">
         <v>1</v>
       </c>
@@ -11927,7 +15549,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="110" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="110" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R110">
         <v>2</v>
       </c>
@@ -11960,7 +15582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="111" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R111">
         <v>3</v>
       </c>
@@ -11993,7 +15615,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="112" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="112" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R112">
         <v>4</v>
       </c>
@@ -12026,7 +15648,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="114" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="114" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R114" s="62" t="s">
         <v>124</v>
       </c>
@@ -12034,7 +15656,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="115" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R115" t="s">
         <v>121</v>
       </c>
@@ -12090,7 +15712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="116" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R116" t="s">
         <v>50</v>
       </c>
@@ -12140,7 +15762,7 @@
         <v>40.555555555555557</v>
       </c>
     </row>
-    <row r="117" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="117" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R117">
         <v>1</v>
       </c>
@@ -12190,7 +15812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="118" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R118">
         <v>2</v>
       </c>
@@ -12240,7 +15862,7 @@
         <v>4.4444444444444446</v>
       </c>
     </row>
-    <row r="119" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="119" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R119">
         <v>3</v>
       </c>
@@ -12290,7 +15912,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="120" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="120" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R120">
         <v>4</v>
       </c>
@@ -12340,7 +15962,7 @@
         <v>0.44444444444444448</v>
       </c>
     </row>
-    <row r="121" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="121" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R121">
         <v>5</v>
       </c>
@@ -12366,7 +15988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="123" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R123" t="s">
         <v>121</v>
       </c>
@@ -12422,7 +16044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="124" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R124" t="s">
         <v>50</v>
       </c>
@@ -12472,7 +16094,7 @@
         <v>40.555555555555557</v>
       </c>
     </row>
-    <row r="125" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="125" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R125">
         <v>1</v>
       </c>
@@ -12522,7 +16144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="126" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R126">
         <v>2</v>
       </c>
@@ -12572,7 +16194,7 @@
         <v>4.4444444444444446</v>
       </c>
     </row>
-    <row r="127" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="127" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R127">
         <v>3</v>
       </c>
@@ -12622,7 +16244,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="128" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="128" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R128">
         <v>4</v>
       </c>
@@ -12672,7 +16294,7 @@
         <v>0.44444444444444448</v>
       </c>
     </row>
-    <row r="129" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="129" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R129" s="61">
         <v>5</v>
       </c>
@@ -12744,7 +16366,7 @@
         <v>-0.55555555555555536</v>
       </c>
     </row>
-    <row r="131" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="131" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R131" t="s">
         <v>121</v>
       </c>
@@ -12800,7 +16422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="132" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R132" t="s">
         <v>50</v>
       </c>
@@ -12872,7 +16494,7 @@
         <v>40.555555555555557</v>
       </c>
     </row>
-    <row r="133" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="133" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R133">
         <v>1</v>
       </c>
@@ -12944,7 +16566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="134" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R134">
         <v>2</v>
       </c>
@@ -13016,7 +16638,7 @@
         <v>4.4444444444444446</v>
       </c>
     </row>
-    <row r="135" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="135" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R135">
         <v>3</v>
       </c>
@@ -13088,7 +16710,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="136" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="136" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R136">
         <v>4</v>
       </c>
@@ -13160,7 +16782,7 @@
         <v>0.44444444444444448</v>
       </c>
     </row>
-    <row r="137" spans="18:36" x14ac:dyDescent="0.35">
+    <row r="137" spans="18:36" x14ac:dyDescent="0.25">
       <c r="R137">
         <v>5</v>
       </c>
@@ -13234,11 +16856,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N4"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
     <mergeCell ref="A55:I55"/>
     <mergeCell ref="R55:Z55"/>
     <mergeCell ref="B23:H23"/>
@@ -13246,6 +16863,11 @@
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="O12:U12"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N4"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13261,80 +16883,80 @@
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="102"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="153"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="153"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="153"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="153"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
@@ -13345,7 +16967,7 @@
       <c r="H7" s="49"/>
       <c r="I7" s="49"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
@@ -13356,7 +16978,7 @@
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>80</v>
       </c>
@@ -13388,7 +17010,7 @@
       <c r="M9" s="49"/>
       <c r="N9" s="49"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
         <v>81</v>
       </c>
@@ -13417,7 +17039,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>114</v>
       </c>
@@ -13443,7 +17065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>82</v>
       </c>
@@ -13469,7 +17091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>83</v>
       </c>
@@ -13495,7 +17117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>84</v>
       </c>
@@ -13521,7 +17143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>85</v>
       </c>
@@ -13547,7 +17169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>116</v>
       </c>
@@ -13583,7 +17205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>108</v>
       </c>
@@ -13610,7 +17232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>107</v>
       </c>
@@ -13641,7 +17263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>109</v>
       </c>
@@ -13669,7 +17291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>106</v>
       </c>
@@ -13715,7 +17337,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>112</v>
       </c>
@@ -13739,7 +17361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>113</v>
       </c>
@@ -13765,7 +17387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>115</v>
       </c>
@@ -13791,57 +17413,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
         <v>100</v>
       </c>
@@ -13862,41 +17484,41 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="104" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="156"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>130</v>
       </c>
@@ -13915,12 +17537,12 @@
       <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="106" t="s">
+      <c r="J6" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="106"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K6" s="157"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>50</v>
       </c>
@@ -13939,13 +17561,13 @@
       <c r="G7">
         <v>41.25</v>
       </c>
-      <c r="J7" s="103" t="s">
+      <c r="J7" s="154" t="s">
         <v>140</v>
       </c>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K7" s="154"/>
+      <c r="L7" s="154"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
@@ -13964,13 +17586,13 @@
       <c r="G8">
         <v>2.25</v>
       </c>
-      <c r="J8" s="107" t="s">
+      <c r="J8" s="158" t="s">
         <v>139</v>
       </c>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K8" s="158"/>
+      <c r="L8" s="158"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="65">
         <v>2</v>
       </c>
@@ -13990,42 +17612,42 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="J14" s="98" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J14" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="145"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="H21" s="98" t="s">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H21" s="145" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="F22" s="103" t="s">
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="145"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F22" s="154" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="103"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G24" s="98" t="s">
+      <c r="G22" s="154"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G24" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="145"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>130</v>
       </c>
@@ -14045,7 +17667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>50</v>
       </c>
@@ -14068,7 +17690,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1</v>
       </c>
@@ -14091,7 +17713,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2</v>
       </c>
@@ -14110,14 +17732,14 @@
       <c r="G30">
         <v>3.75</v>
       </c>
-      <c r="I30" s="98" t="s">
+      <c r="I30" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="145"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="64">
         <v>3</v>
       </c>
@@ -14137,7 +17759,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E32" s="64">
         <f>ABS(E28/E31)</f>
         <v>1.6666666666666667</v>
@@ -14147,7 +17769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>130</v>
       </c>
@@ -14167,7 +17789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>50</v>
       </c>
@@ -14192,7 +17814,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>1</v>
       </c>
@@ -14216,15 +17838,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="98" t="s">
+      <c r="H37" s="145" t="s">
         <v>129</v>
       </c>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="98"/>
-      <c r="L37" s="98"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I37" s="145"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="145"/>
+      <c r="L37" s="145"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>2</v>
       </c>
@@ -14249,7 +17871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>3</v>
       </c>
@@ -14300,27 +17922,27 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="M1" s="113" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M1" s="160" t="s">
         <v>169</v>
       </c>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
       <c r="Q1" s="19"/>
       <c r="R1" s="19"/>
       <c r="S1" s="20"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>168</v>
       </c>
       <c r="M2" s="4"/>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>121</v>
       </c>
@@ -14347,7 +17969,7 @@
       </c>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>143</v>
       </c>
@@ -14372,13 +17994,13 @@
       <c r="P4" s="5">
         <v>4</v>
       </c>
-      <c r="Q4" s="115" t="s">
+      <c r="Q4" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="R4" s="116"/>
-      <c r="S4" s="117"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="R4" s="163"/>
+      <c r="S4" s="164"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>86</v>
       </c>
@@ -14405,7 +18027,7 @@
       </c>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -14435,23 +18057,23 @@
       </c>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M7" s="4"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="109" t="s">
+    <row r="8" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="165" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="F8" s="110" t="s">
+      <c r="C8" s="165"/>
+      <c r="F8" s="166" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="111"/>
+      <c r="G8" s="167"/>
       <c r="M8" s="4"/>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>121</v>
       </c>
@@ -14465,15 +18087,15 @@
         <v>144</v>
       </c>
       <c r="F9" s="66"/>
-      <c r="M9" s="108" t="s">
+      <c r="M9" s="159" t="s">
         <v>163</v>
       </c>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="145"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>143</v>
       </c>
@@ -14492,15 +18114,15 @@
       <c r="F10" t="s">
         <v>162</v>
       </c>
-      <c r="M10" s="108" t="s">
+      <c r="M10" s="159" t="s">
         <v>161</v>
       </c>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="145"/>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>86</v>
       </c>
@@ -14519,7 +18141,7 @@
       <c r="M11" s="4"/>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>87</v>
       </c>
@@ -14535,14 +18157,14 @@
         <f>E6-$D$6</f>
         <v>4</v>
       </c>
-      <c r="M12" s="108" t="s">
+      <c r="M12" s="159" t="s">
         <v>160</v>
       </c>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M13" s="4" t="s">
         <v>121</v>
       </c>
@@ -14557,15 +18179,15 @@
       </c>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="109" t="s">
+    <row r="14" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="165" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="F14" s="110" t="s">
+      <c r="C14" s="165"/>
+      <c r="F14" s="166" t="s">
         <v>158</v>
       </c>
-      <c r="G14" s="111"/>
+      <c r="G14" s="167"/>
       <c r="M14" s="4" t="s">
         <v>86</v>
       </c>
@@ -14580,7 +18202,7 @@
       </c>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>121</v>
       </c>
@@ -14607,7 +18229,7 @@
       </c>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>143</v>
       </c>
@@ -14642,7 +18264,7 @@
       <c r="R16" s="8"/>
       <c r="S16" s="9"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -14659,7 +18281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>87</v>
       </c>
@@ -14676,13 +18298,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="109" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="165" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="109"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C20" s="165"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>121</v>
       </c>
@@ -14696,7 +18318,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>143</v>
       </c>
@@ -14709,12 +18331,12 @@
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="G22" s="112" t="s">
+      <c r="G22" s="168" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="112"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H22" s="168"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>86</v>
       </c>
@@ -14727,14 +18349,14 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="G23" s="98" t="s">
+      <c r="G23" s="145" t="s">
         <v>153</v>
       </c>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>87</v>
       </c>
@@ -14748,48 +18370,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="98" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="145" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="98"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="98" t="s">
+      <c r="C26" s="145"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="145" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B30" s="98" t="s">
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="145" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B31" s="98" t="s">
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="145" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>148</v>
       </c>
@@ -14815,7 +18437,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>143</v>
       </c>
@@ -14841,7 +18463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>86</v>
       </c>
@@ -14867,7 +18489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>87</v>
       </c>
@@ -14893,7 +18515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="65"/>
       <c r="B40" s="65"/>
       <c r="C40" s="65"/>
@@ -14911,12 +18533,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="M9:P9"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="B30:K30"/>
@@ -14927,6 +18543,12 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G23:J23"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="M9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14937,19 +18559,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D2CBD1-BC9E-4FA3-9523-60B12E859DA7}">
   <dimension ref="A2:O74"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="118" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="169" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="118"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C2" s="169"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>121</v>
       </c>
@@ -14966,7 +18588,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>143</v>
       </c>
@@ -14983,7 +18605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>86</v>
       </c>
@@ -15000,7 +18622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>87</v>
       </c>
@@ -15017,7 +18639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>172</v>
       </c>
@@ -15034,7 +18656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>171</v>
       </c>
@@ -15051,13 +18673,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="109" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="165" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="109"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C9" s="165"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>121</v>
       </c>
@@ -15077,7 +18699,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>143</v>
       </c>
@@ -15097,7 +18719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>86</v>
       </c>
@@ -15117,7 +18739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>87</v>
       </c>
@@ -15137,7 +18759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>172</v>
       </c>
@@ -15157,7 +18779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>171</v>
       </c>
@@ -15177,13 +18799,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="109" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="165" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="109"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C18" s="165"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>121</v>
       </c>
@@ -15221,7 +18843,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>143</v>
       </c>
@@ -15264,7 +18886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -15307,7 +18929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>87</v>
       </c>
@@ -15350,7 +18972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>172</v>
       </c>
@@ -15393,7 +19015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>171</v>
       </c>
@@ -15436,20 +19058,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="98" t="s">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="109" t="s">
+      <c r="C25" s="145"/>
+      <c r="D25" s="145"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="165" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="109"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C27" s="165"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>121</v>
       </c>
@@ -15487,7 +19109,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>143</v>
       </c>
@@ -15530,7 +19152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>86</v>
       </c>
@@ -15573,7 +19195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>87</v>
       </c>
@@ -15616,7 +19238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>172</v>
       </c>
@@ -15659,7 +19281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>171</v>
       </c>
@@ -15702,20 +19324,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B34" s="98" t="s">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="145" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B36" s="109" t="s">
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="165" t="s">
         <v>186</v>
       </c>
-      <c r="C36" s="109"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C36" s="165"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>121</v>
       </c>
@@ -15734,12 +19356,12 @@
       <c r="G37" t="s">
         <v>174</v>
       </c>
-      <c r="H37" s="112" t="s">
+      <c r="H37" s="168" t="s">
         <v>185</v>
       </c>
-      <c r="I37" s="112"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I37" s="168"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>143</v>
       </c>
@@ -15759,7 +19381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>86</v>
       </c>
@@ -15778,14 +19400,14 @@
       <c r="G39">
         <v>3</v>
       </c>
-      <c r="H39" s="98" t="s">
+      <c r="H39" s="145" t="s">
         <v>184</v>
       </c>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="98"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="I39" s="145"/>
+      <c r="J39" s="145"/>
+      <c r="K39" s="145"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>87</v>
       </c>
@@ -15805,7 +19427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>172</v>
       </c>
@@ -15825,7 +19447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>171</v>
       </c>
@@ -15845,7 +19467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>121</v>
       </c>
@@ -15868,7 +19490,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>143</v>
       </c>
@@ -15891,7 +19513,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>86</v>
       </c>
@@ -15914,7 +19536,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>87</v>
       </c>
@@ -15937,7 +19559,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>172</v>
       </c>
@@ -15960,7 +19582,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>171</v>
       </c>
@@ -15983,18 +19605,18 @@
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B51" s="112" t="s">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="168" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="112"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C51" s="168"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="74" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>121</v>
       </c>
@@ -16014,7 +19636,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>143</v>
       </c>
@@ -16034,7 +19656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>86</v>
       </c>
@@ -16054,7 +19676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>87</v>
       </c>
@@ -16074,7 +19696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>172</v>
       </c>
@@ -16094,7 +19716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>171</v>
       </c>
@@ -16114,12 +19736,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>121</v>
       </c>
@@ -16154,7 +19776,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>143</v>
       </c>
@@ -16189,7 +19811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>86</v>
       </c>
@@ -16224,7 +19846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>87</v>
       </c>
@@ -16259,7 +19881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>172</v>
       </c>
@@ -16294,7 +19916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>171</v>
       </c>
@@ -16329,15 +19951,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B71" s="98" t="s">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="145" t="s">
         <v>170</v>
       </c>
-      <c r="C71" s="98"/>
-      <c r="D71" s="98"/>
-      <c r="E71" s="98"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C71" s="145"/>
+      <c r="D71" s="145"/>
+      <c r="E71" s="145"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="65"/>
       <c r="B74" s="65"/>
       <c r="C74" s="65"/>
@@ -16377,85 +19999,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ABC565-7C3C-4874-B8D6-6FA6947E12A9}">
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="166" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="166"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="166"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="166"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>240</v>
       </c>
@@ -16475,7 +20097,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -16498,7 +20120,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -16521,7 +20143,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -16544,7 +20166,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -16564,7 +20186,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>1</v>
       </c>
@@ -16575,116 +20197,116 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N14" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="110" t="s">
+    <row r="17" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="166" t="s">
         <v>226</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="110"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="110"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="110"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="110"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="110"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A29" s="105" t="s">
+      <c r="B17" s="166"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
+      <c r="K17" s="166"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="166"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="166"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="166"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="166"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="166"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="166"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="166"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="166"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="156" t="s">
         <v>225</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="105"/>
-      <c r="O29" s="105"/>
-      <c r="P29" s="105"/>
-      <c r="Q29" s="105"/>
-      <c r="R29" s="105"/>
-      <c r="S29" s="105"/>
-      <c r="T29" s="105"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B29" s="156"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="156"/>
+      <c r="P29" s="156"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="156"/>
+      <c r="S29" s="156"/>
+      <c r="T29" s="156"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="77"/>
       <c r="B30" s="4" t="s">
         <v>224</v>
@@ -16738,7 +20360,7 @@
       <c r="S30" s="77"/>
       <c r="T30" s="77"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="77"/>
       <c r="B31" s="4" t="s">
         <v>200</v>
@@ -16784,7 +20406,7 @@
       <c r="S31" s="77"/>
       <c r="T31" s="77"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>220</v>
       </c>
@@ -16843,7 +20465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>203</v>
       </c>
@@ -16896,7 +20518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>202</v>
       </c>
@@ -16957,7 +20579,7 @@
       </c>
       <c r="T34" s="8"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>200</v>
       </c>
@@ -16985,7 +20607,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>199</v>
       </c>
@@ -17017,7 +20639,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>198</v>
       </c>
@@ -17056,7 +20678,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>197</v>
       </c>
@@ -17086,7 +20708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>196</v>
       </c>
@@ -17117,7 +20739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>195</v>
       </c>
@@ -17148,7 +20770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>194</v>
       </c>
@@ -17187,7 +20809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>193</v>
       </c>
@@ -17212,7 +20834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>192</v>
       </c>
@@ -17243,7 +20865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>191</v>
       </c>
@@ -17288,210 +20910,210 @@
       <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="119" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="170" t="s">
         <v>275</v>
       </c>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C23" s="119" t="s">
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="170" t="s">
         <v>274</v>
       </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D24" s="76" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D25" s="98" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="145" t="s">
         <v>272</v>
       </c>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="120" t="s">
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="119" t="s">
+      <c r="C27" s="173"/>
+      <c r="D27" s="170" t="s">
         <v>270</v>
       </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="121" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="174" t="s">
         <v>269</v>
       </c>
-      <c r="C29" s="121"/>
-      <c r="D29" s="119" t="s">
+      <c r="C29" s="174"/>
+      <c r="D29" s="170" t="s">
         <v>268</v>
       </c>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="121" t="s">
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="174" t="s">
         <v>267</v>
       </c>
-      <c r="C30" s="121"/>
-      <c r="D30" s="119" t="s">
+      <c r="C30" s="174"/>
+      <c r="D30" s="170" t="s">
         <v>266</v>
       </c>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="122" t="s">
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="175" t="s">
         <v>265</v>
       </c>
-      <c r="C32" s="122"/>
-      <c r="D32" s="119" t="s">
+      <c r="C32" s="175"/>
+      <c r="D32" s="170" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="119"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D33" s="119" t="s">
+      <c r="E32" s="170"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D33" s="170" t="s">
         <v>263</v>
       </c>
-      <c r="E33" s="119"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D34" s="119" t="s">
+      <c r="E33" s="170"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D34" s="170" t="s">
         <v>262</v>
       </c>
-      <c r="E34" s="119"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B36" s="119" t="s">
+      <c r="E34" s="170"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="170" t="s">
         <v>261</v>
       </c>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="119"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C38" s="119" t="s">
+      <c r="C36" s="170"/>
+      <c r="D36" s="170"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="170"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="170" t="s">
         <v>260</v>
       </c>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="119"/>
-      <c r="M38" s="119"/>
-      <c r="N38" s="119"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C40" s="119" t="s">
+      <c r="D38" s="170"/>
+      <c r="E38" s="170"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="170"/>
+      <c r="K38" s="170"/>
+      <c r="L38" s="170"/>
+      <c r="M38" s="170"/>
+      <c r="N38" s="170"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="170" t="s">
         <v>259</v>
       </c>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119" t="s">
+      <c r="D40" s="170"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170" t="s">
         <v>258</v>
       </c>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119" t="s">
+      <c r="G40" s="170"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="170" t="s">
         <v>257</v>
       </c>
-      <c r="J40" s="119"/>
-      <c r="K40" s="119"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C41" s="124" t="s">
+      <c r="J40" s="170"/>
+      <c r="K40" s="170"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C41" s="172" t="s">
         <v>256</v>
       </c>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124" t="s">
+      <c r="D41" s="172"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172" t="s">
         <v>255</v>
       </c>
-      <c r="G41" s="124"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="123" t="s">
+      <c r="G41" s="172"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="171" t="s">
         <v>254</v>
       </c>
-      <c r="J41" s="123"/>
-      <c r="K41" s="123"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C43" s="119" t="s">
+      <c r="J41" s="171"/>
+      <c r="K41" s="171"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C43" s="170" t="s">
         <v>253</v>
       </c>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119" t="s">
+      <c r="D43" s="170"/>
+      <c r="E43" s="170"/>
+      <c r="F43" s="170" t="s">
         <v>252</v>
       </c>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119" t="s">
+      <c r="G43" s="170"/>
+      <c r="H43" s="170"/>
+      <c r="I43" s="170" t="s">
         <v>251</v>
       </c>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C44" s="123" t="s">
+      <c r="J43" s="170"/>
+      <c r="K43" s="170"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="171" t="s">
         <v>250</v>
       </c>
-      <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123" t="s">
+      <c r="D44" s="171"/>
+      <c r="E44" s="171"/>
+      <c r="F44" s="171" t="s">
         <v>249</v>
       </c>
-      <c r="G44" s="123"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="124" t="s">
+      <c r="G44" s="171"/>
+      <c r="H44" s="171"/>
+      <c r="I44" s="172" t="s">
         <v>248</v>
       </c>
-      <c r="J44" s="124"/>
-      <c r="K44" s="124"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B46" s="119" t="s">
+      <c r="J44" s="172"/>
+      <c r="K44" s="172"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="170" t="s">
         <v>247</v>
       </c>
-      <c r="C46" s="119"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C46" s="170"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="77"/>
       <c r="B47" s="77"/>
       <c r="C47" t="s">
@@ -17502,33 +21124,33 @@
       <c r="L47" s="77"/>
       <c r="M47" s="77"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="77"/>
-      <c r="C48" s="119" t="s">
+      <c r="C48" s="170" t="s">
         <v>245</v>
       </c>
-      <c r="D48" s="119"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="119"/>
+      <c r="D48" s="170"/>
+      <c r="E48" s="170"/>
+      <c r="F48" s="170"/>
       <c r="L48" s="77"/>
       <c r="M48" s="77"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="77"/>
       <c r="L49" s="77"/>
       <c r="M49" s="77"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="77"/>
       <c r="L50" s="77"/>
       <c r="M50" s="77"/>
     </row>
-    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="77"/>
       <c r="L51" s="77"/>
       <c r="M51" s="77"/>
     </row>
-    <row r="52" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="77"/>
       <c r="B52" s="79"/>
       <c r="C52" s="79" t="s">
@@ -17561,7 +21183,7 @@
       <c r="L52" s="77"/>
       <c r="M52" s="77"/>
     </row>
-    <row r="53" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="77"/>
       <c r="B53" s="79" t="s">
         <v>203</v>
@@ -17590,7 +21212,7 @@
       <c r="L53" s="77"/>
       <c r="M53" s="77"/>
     </row>
-    <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="77"/>
       <c r="B54" s="79" t="s">
         <v>50</v>
@@ -17624,7 +21246,7 @@
       <c r="L54" s="77"/>
       <c r="M54" s="77"/>
     </row>
-    <row r="55" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="77"/>
       <c r="B55" s="79">
         <v>1</v>
@@ -17654,7 +21276,7 @@
       <c r="L55" s="77"/>
       <c r="M55" s="77"/>
     </row>
-    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="77"/>
       <c r="B56" s="79">
         <v>2</v>
@@ -17684,7 +21306,7 @@
       <c r="L56" s="77"/>
       <c r="M56" s="77"/>
     </row>
-    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="77"/>
       <c r="B57" s="79">
         <v>3</v>
@@ -17712,7 +21334,7 @@
       <c r="L57" s="77"/>
       <c r="M57" s="77"/>
     </row>
-    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="79">
         <v>4</v>
       </c>
@@ -17737,7 +21359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="79">
         <v>5</v>
       </c>
@@ -17762,13 +21384,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R60" t="s">
         <v>242</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B36:H36"/>
@@ -17785,19 +21420,6 @@
     <mergeCell ref="I41:K41"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17812,72 +21434,72 @@
       <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" customWidth="1"/>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="166" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="166"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="166"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>289</v>
       </c>
@@ -17888,7 +21510,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>311</v>
       </c>
@@ -17899,7 +21521,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -17910,7 +21532,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>306</v>
       </c>
@@ -17921,7 +21543,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>304</v>
       </c>
@@ -17932,7 +21554,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>302</v>
       </c>
@@ -17943,43 +21565,43 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="119" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="170" t="s">
         <v>319</v>
       </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="119" t="s">
+      <c r="B17" s="170"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="170" t="s">
         <v>318</v>
       </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="170"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="105" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="156" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>45</v>
       </c>
@@ -17996,12 +21618,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>202</v>
       </c>
@@ -18028,7 +21650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>315</v>
       </c>
@@ -18058,48 +21680,48 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="105" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="156" t="s">
         <v>314</v>
       </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="125" t="s">
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="176" t="s">
         <v>289</v>
       </c>
-      <c r="C32" s="125" t="s">
+      <c r="C32" s="176" t="s">
         <v>288</v>
       </c>
-      <c r="D32" s="125" t="s">
+      <c r="D32" s="176" t="s">
         <v>287</v>
       </c>
-      <c r="E32" s="125" t="s">
+      <c r="E32" s="176" t="s">
         <v>313</v>
       </c>
-      <c r="F32" s="126" t="s">
+      <c r="F32" s="177" t="s">
         <v>312</v>
       </c>
-      <c r="G32" s="125" t="s">
+      <c r="G32" s="176" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B33" s="125"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="125"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="176"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="176"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -18127,7 +21749,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -18152,7 +21774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -18177,7 +21799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -18202,7 +21824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -18227,49 +21849,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="105" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="156" t="s">
         <v>300</v>
       </c>
-      <c r="B41" s="105"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="110" t="s">
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="166" t="s">
         <v>290</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="166" t="s">
         <v>289</v>
       </c>
-      <c r="C42" s="110" t="s">
+      <c r="C42" s="166" t="s">
         <v>288</v>
       </c>
-      <c r="D42" s="110" t="s">
+      <c r="D42" s="166" t="s">
         <v>287</v>
       </c>
-      <c r="E42" s="110" t="s">
+      <c r="E42" s="166" t="s">
         <v>286</v>
       </c>
-      <c r="F42" s="110" t="s">
+      <c r="F42" s="166" t="s">
         <v>285</v>
       </c>
       <c r="G42" s="77"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="110"/>
-      <c r="B43" s="110"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="166"/>
+      <c r="B43" s="166"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="166"/>
+      <c r="F43" s="166"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>280</v>
       </c>
@@ -18286,7 +21908,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -18307,7 +21929,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -18328,7 +21950,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -18353,7 +21975,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -18376,7 +21998,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -18396,7 +22018,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>279</v>
       </c>
@@ -18408,7 +22030,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="17" t="s">
         <v>278</v>
       </c>
@@ -18416,104 +22038,104 @@
         <v>296</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59" s="105" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="156" t="s">
         <v>294</v>
       </c>
-      <c r="B59" s="105"/>
-      <c r="C59" s="105"/>
-      <c r="D59" s="105"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="105"/>
-      <c r="H59" s="105"/>
-      <c r="I59" s="105"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B59" s="156"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="156"/>
+      <c r="E59" s="156"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="156"/>
+      <c r="H59" s="156"/>
+      <c r="I59" s="156"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A64" s="105" t="s">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="156" t="s">
         <v>292</v>
       </c>
-      <c r="B64" s="105"/>
-      <c r="C64" s="105"/>
-      <c r="D64" s="105"/>
-      <c r="E64" s="105"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="105"/>
-      <c r="J64" s="105" t="s">
+      <c r="B64" s="156"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="156"/>
+      <c r="J64" s="156" t="s">
         <v>291</v>
       </c>
-      <c r="K64" s="105"/>
-      <c r="L64" s="105"/>
-      <c r="M64" s="105"/>
-      <c r="N64" s="105"/>
-      <c r="O64" s="105"/>
-      <c r="P64" s="105"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A65" s="110" t="s">
+      <c r="K64" s="156"/>
+      <c r="L64" s="156"/>
+      <c r="M64" s="156"/>
+      <c r="N64" s="156"/>
+      <c r="O64" s="156"/>
+      <c r="P64" s="156"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="166" t="s">
         <v>290</v>
       </c>
-      <c r="B65" s="110" t="s">
+      <c r="B65" s="166" t="s">
         <v>289</v>
       </c>
-      <c r="C65" s="110" t="s">
+      <c r="C65" s="166" t="s">
         <v>288</v>
       </c>
-      <c r="D65" s="110" t="s">
+      <c r="D65" s="166" t="s">
         <v>287</v>
       </c>
-      <c r="E65" s="110" t="s">
+      <c r="E65" s="166" t="s">
         <v>286</v>
       </c>
-      <c r="F65" s="110" t="s">
+      <c r="F65" s="166" t="s">
         <v>285</v>
       </c>
       <c r="G65" s="77"/>
-      <c r="J65" s="110" t="s">
+      <c r="J65" s="166" t="s">
         <v>290</v>
       </c>
-      <c r="K65" s="110" t="s">
+      <c r="K65" s="166" t="s">
         <v>289</v>
       </c>
-      <c r="L65" s="110" t="s">
+      <c r="L65" s="166" t="s">
         <v>288</v>
       </c>
-      <c r="M65" s="110" t="s">
+      <c r="M65" s="166" t="s">
         <v>287</v>
       </c>
-      <c r="N65" s="110" t="s">
+      <c r="N65" s="166" t="s">
         <v>286</v>
       </c>
-      <c r="O65" s="110" t="s">
+      <c r="O65" s="166" t="s">
         <v>285</v>
       </c>
       <c r="P65" s="77"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A66" s="110"/>
-      <c r="B66" s="110"/>
-      <c r="C66" s="110"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="110"/>
-      <c r="F66" s="110"/>
-      <c r="J66" s="110"/>
-      <c r="K66" s="110"/>
-      <c r="L66" s="110"/>
-      <c r="M66" s="110"/>
-      <c r="N66" s="110"/>
-      <c r="O66" s="110"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="166"/>
+      <c r="B66" s="166"/>
+      <c r="C66" s="166"/>
+      <c r="D66" s="166"/>
+      <c r="E66" s="166"/>
+      <c r="F66" s="166"/>
+      <c r="J66" s="166"/>
+      <c r="K66" s="166"/>
+      <c r="L66" s="166"/>
+      <c r="M66" s="166"/>
+      <c r="N66" s="166"/>
+      <c r="O66" s="166"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -18545,7 +22167,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -18591,7 +22213,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -18631,7 +22253,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -18668,7 +22290,7 @@
       </c>
       <c r="O70" s="83"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -18707,7 +22329,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5</v>
       </c>
@@ -18743,7 +22365,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>279</v>
       </c>
@@ -18759,7 +22381,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75" s="17" t="s">
         <v>278</v>
       </c>
@@ -18767,33 +22389,27 @@
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M76" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>276</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="J64:P64"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="A59:I59"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A1:L4"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
     <mergeCell ref="A41:I41"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A17:E17"/>
@@ -18803,15 +22419,21 @@
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A1:L4"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="J64:P64"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O65:O66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18821,60 +22443,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87382235-F600-4B49-8898-8F834E2F21A8}">
   <dimension ref="B2:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="177" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="135" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="170" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="168"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="176" t="s">
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="126"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="134" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="175"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="158"/>
-      <c r="C6" s="174" t="s">
+      <c r="C5" s="133"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="116"/>
+      <c r="C6" s="132" t="s">
         <v>361</v>
       </c>
-      <c r="D6" s="158" t="s">
+      <c r="D6" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="E6" s="158" t="s">
+      <c r="E6" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="F6" s="158" t="s">
+      <c r="F6" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="G6" s="158" t="s">
+      <c r="G6" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="H6" s="158" t="s">
+      <c r="H6" s="116" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="158" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="C7" s="173" t="s">
+      <c r="C7" s="131" t="s">
         <v>280</v>
       </c>
       <c r="D7" s="19">
@@ -18893,14 +22515,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="158" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="116" t="s">
         <v>360</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
       </c>
-      <c r="D8" s="172" t="s">
+      <c r="D8" s="130" t="s">
         <v>280</v>
       </c>
       <c r="E8">
@@ -18916,8 +22538,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="158" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="116" t="s">
         <v>359</v>
       </c>
       <c r="C9" s="4">
@@ -18926,7 +22548,7 @@
       <c r="D9">
         <v>25</v>
       </c>
-      <c r="E9" s="172" t="s">
+      <c r="E9" s="130" t="s">
         <v>280</v>
       </c>
       <c r="F9">
@@ -18939,8 +22561,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="158" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="116" t="s">
         <v>358</v>
       </c>
       <c r="C10" s="4">
@@ -18952,7 +22574,7 @@
       <c r="E10">
         <v>15</v>
       </c>
-      <c r="F10" s="172" t="s">
+      <c r="F10" s="130" t="s">
         <v>280</v>
       </c>
       <c r="G10">
@@ -18962,8 +22584,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="158" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="116" t="s">
         <v>357</v>
       </c>
       <c r="C11" s="4">
@@ -18978,15 +22600,15 @@
       <c r="F11">
         <v>15</v>
       </c>
-      <c r="G11" s="172" t="s">
+      <c r="G11" s="130" t="s">
         <v>280</v>
       </c>
       <c r="H11" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="158" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="116" t="s">
         <v>356</v>
       </c>
       <c r="C12" s="7">
@@ -19004,80 +22626,80 @@
       <c r="G12" s="8">
         <v>14</v>
       </c>
-      <c r="H12" s="171" t="s">
+      <c r="H12" s="129" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="170" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="128" t="s">
         <v>355</v>
       </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="168"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="167" t="s">
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="126"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="125" t="s">
         <v>354</v>
       </c>
-      <c r="C16" s="166"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="144" t="s">
+      <c r="C16" s="124"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="102" t="s">
         <v>353</v>
       </c>
-      <c r="C17" s="143" t="s">
+      <c r="C17" s="101" t="s">
         <v>352</v>
       </c>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="142"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="165" t="s">
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="100"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="123" t="s">
         <v>351</v>
       </c>
-      <c r="C19" s="163" t="s">
+      <c r="C19" s="121" t="s">
         <v>350</v>
       </c>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="164" t="s">
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="122" t="s">
         <v>349</v>
       </c>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="162"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="155" t="s">
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="120"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="113" t="s">
         <v>348</v>
       </c>
-      <c r="C21" s="153"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="161" t="s">
+      <c r="C21" s="111"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="119" t="s">
         <v>347</v>
       </c>
-      <c r="C22" s="160"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="159"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="158" t="s">
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="117"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="C24" s="158" t="s">
+      <c r="C24" s="116" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="157">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="115">
         <v>1</v>
       </c>
       <c r="C25" s="20" t="s">
@@ -19085,212 +22707,212 @@
       </c>
       <c r="D25" s="17"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="148">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="106">
         <v>2</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="148">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="106">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B28" s="148">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="106">
         <v>4</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="148">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="106">
         <v>5</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="146">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="104">
         <v>6</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="161" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="119" t="s">
         <v>340</v>
       </c>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="159"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B34" s="158" t="s">
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="117"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="C34" s="158" t="s">
+      <c r="C34" s="116" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B35" s="157">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="115">
         <v>1</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="D35" s="156" t="s">
+      <c r="D35" s="114" t="s">
         <v>328</v>
       </c>
-      <c r="F35" s="155" t="s">
+      <c r="F35" s="113" t="s">
         <v>336</v>
       </c>
-      <c r="G35" s="154"/>
-      <c r="H35" s="153"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B36" s="148">
+      <c r="G35" s="112"/>
+      <c r="H35" s="111"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="106">
         <v>2</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D36" s="147" t="s">
+      <c r="D36" s="105" t="s">
         <v>328</v>
       </c>
-      <c r="F36" s="152" t="s">
+      <c r="F36" s="110" t="s">
         <v>334</v>
       </c>
       <c r="G36" s="13"/>
-      <c r="H36" s="151"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B37" s="148">
+      <c r="H36" s="109"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="106">
         <v>3</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D37" s="147" t="s">
+      <c r="D37" s="105" t="s">
         <v>328</v>
       </c>
-      <c r="F37" s="150" t="s">
+      <c r="F37" s="108" t="s">
         <v>332</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="149"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B38" s="148">
+      <c r="H37" s="107"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="106">
         <v>4</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D38" s="147" t="s">
+      <c r="D38" s="105" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B39" s="148">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="106">
         <v>5</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D39" s="147" t="s">
+      <c r="D39" s="105" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B40" s="146">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="104">
         <v>6</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="D40" s="145" t="s">
+      <c r="D40" s="103" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B42" s="144" t="s">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="102" t="s">
         <v>327</v>
       </c>
-      <c r="C42" s="143"/>
-      <c r="D42" s="142"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B46" s="141" t="s">
+      <c r="C42" s="101"/>
+      <c r="D42" s="100"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="99" t="s">
         <v>326</v>
       </c>
-      <c r="C46" s="140" t="s">
+      <c r="C46" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="139" t="s">
+      <c r="D46" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="139" t="s">
+      <c r="E46" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="139" t="s">
+      <c r="F46" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="G46" s="139" t="s">
+      <c r="G46" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="H46" s="139" t="s">
+      <c r="H46" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="I46" s="139" t="s">
+      <c r="I46" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="J46" s="139" t="s">
+      <c r="J46" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="K46" s="138" t="s">
+      <c r="K46" s="96" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B47" s="137" t="s">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="95" t="s">
         <v>325</v>
       </c>
-      <c r="C47" s="136">
-        <v>0</v>
-      </c>
-      <c r="D47" s="135">
-        <v>1</v>
-      </c>
-      <c r="E47" s="135">
-        <v>0</v>
-      </c>
-      <c r="F47" s="135">
-        <v>1</v>
-      </c>
-      <c r="G47" s="135">
-        <v>0</v>
-      </c>
-      <c r="H47" s="135">
+      <c r="C47" s="94">
+        <v>0</v>
+      </c>
+      <c r="D47" s="93">
+        <v>1</v>
+      </c>
+      <c r="E47" s="93">
+        <v>0</v>
+      </c>
+      <c r="F47" s="93">
+        <v>1</v>
+      </c>
+      <c r="G47" s="93">
+        <v>0</v>
+      </c>
+      <c r="H47" s="93">
         <v>0</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B48" s="133" t="s">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="91" t="s">
         <v>324</v>
       </c>
       <c r="C48" s="4">
@@ -19311,14 +22933,14 @@
       <c r="H48">
         <v>1</v>
       </c>
-      <c r="I48" s="134">
-        <f>SUMPRODUCT($C$47:$H$47,C48:H48)</f>
+      <c r="I48" s="92">
+        <f t="shared" ref="I48:I54" si="0">SUMPRODUCT($C$47:$H$47,C48:H48)</f>
         <v>2</v>
       </c>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B49" s="133">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="91">
         <v>1</v>
       </c>
       <c r="C49" s="4">
@@ -19340,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <f>SUMPRODUCT($C$47:$H$47,C49:H49)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J49" s="17" t="s">
@@ -19350,8 +22972,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B50" s="133">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="91">
         <v>2</v>
       </c>
       <c r="C50" s="4">
@@ -19373,7 +22995,7 @@
         <v>1</v>
       </c>
       <c r="I50">
-        <f>SUMPRODUCT($C$47:$H$47,C50:H50)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J50" s="17" t="s">
@@ -19383,8 +23005,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B51" s="133">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="91">
         <v>3</v>
       </c>
       <c r="C51" s="4">
@@ -19406,7 +23028,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <f>SUMPRODUCT($C$47:$H$47,C51:H51)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J51" s="17" t="s">
@@ -19416,8 +23038,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B52" s="133">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="91">
         <v>4</v>
       </c>
       <c r="C52" s="4">
@@ -19439,7 +23061,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <f>SUMPRODUCT($C$47:$H$47,C52:H52)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J52" s="17" t="s">
@@ -19449,8 +23071,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B53" s="133">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="91">
         <v>5</v>
       </c>
       <c r="C53" s="4">
@@ -19472,7 +23094,7 @@
         <v>1</v>
       </c>
       <c r="I53">
-        <f>SUMPRODUCT($C$47:$H$47,C53:H53)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J53" s="17" t="s">
@@ -19482,8 +23104,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B54" s="132">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="90">
         <v>6</v>
       </c>
       <c r="C54" s="7">
@@ -19505,31 +23127,32 @@
         <v>1</v>
       </c>
       <c r="I54" s="8">
-        <f>SUMPRODUCT($C$47:$H$47,C54:H54)</f>
-        <v>1</v>
-      </c>
-      <c r="J54" s="131" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J54" s="89" t="s">
         <v>110</v>
       </c>
       <c r="K54" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B56" s="130" t="s">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="88" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B57" s="129" t="s">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="87" t="s">
         <v>322</v>
       </c>
-      <c r="C57" s="128"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="128"/>
-      <c r="F57" s="127"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>